--- a/Src/Data/Tables/MapDefine.xlsx
+++ b/Src/Data/Tables/MapDefine.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mxt62\OneDrive\Documents\GitHub\Fantasy-World\Src\Data\Tables\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32E8BFC8-1082-4782-90A9-64A4D719AA0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Elements" sheetId="1" r:id="rId4"/>
+    <sheet name="Elements" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="35">
   <si>
     <t>Type</t>
   </si>
@@ -79,9 +88,6 @@
     <t>BlinTown</t>
   </si>
   <si>
-    <t>bgm-town</t>
-  </si>
-  <si>
     <t>Sunset Forest</t>
   </si>
   <si>
@@ -111,42 +117,74 @@
   <si>
     <t>bgm-map03</t>
   </si>
+  <si>
+    <t>Arena</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm-town</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Story</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="8">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Microsoft Yahei"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <name val="Microsoft Yahei"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color theme="0"/>
       <name val="Microsoft Yahei"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color rgb="FFFFFFFF"/>
       <name val="Microsoft Yahei"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -154,123 +192,131 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="15">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
-      <font/>
       <fill>
-        <patternFill patternType="none"/>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFDBE5F1"/>
+          <bgColor rgb="FFDBE5F1"/>
+        </patternFill>
       </fill>
-      <border/>
     </dxf>
     <dxf>
-      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFDBE5F1"/>
+          <bgColor rgb="FFDBE5F1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor theme="4"/>
           <bgColor theme="4"/>
         </patternFill>
       </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFDBE5F1"/>
-          <bgColor rgb="FFDBE5F1"/>
-        </patternFill>
-      </fill>
-      <border/>
     </dxf>
   </dxfs>
   <tableStyles count="1">
-    <tableStyle count="3" pivot="0" name="Elements-style">
-      <tableStyleElement dxfId="1" type="headerRow"/>
-      <tableStyleElement dxfId="2" type="firstRowStripe"/>
-      <tableStyleElement dxfId="2" type="secondRowStripe"/>
+    <tableStyle name="Elements-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+      <tableStyleElement type="headerRow" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
   </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A3:J7" displayName="Table_1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A3:J8">
   <tableColumns count="10">
-    <tableColumn name="Key" id="1"/>
-    <tableColumn name="ID" id="2"/>
-    <tableColumn name="Name" id="3"/>
-    <tableColumn name="Type" id="4"/>
-    <tableColumn name="SubType" id="5"/>
-    <tableColumn name="PKMode" id="6"/>
-    <tableColumn name="Resource" id="7"/>
-    <tableColumn name="MiniMap" id="8"/>
-    <tableColumn name="Music" id="9"/>
-    <tableColumn name="Description" id="10"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Key"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="ID"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Name"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Type"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="SubType"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="PKMode"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Resource"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="MiniMap"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Music"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Description"/>
   </tableColumns>
-  <tableStyleInfo name="Elements-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <tableStyleInfo name="Elements-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -460,30 +506,32 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AB1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.41796875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="2" width="11.0"/>
-    <col customWidth="1" min="3" max="3" width="22.57"/>
-    <col customWidth="1" min="4" max="5" width="19.86"/>
-    <col customWidth="1" min="6" max="6" width="14.29"/>
-    <col customWidth="1" min="7" max="7" width="21.29"/>
-    <col customWidth="1" min="8" max="9" width="21.57"/>
-    <col customWidth="1" min="10" max="10" width="32.57"/>
-    <col customWidth="1" min="11" max="28" width="16.29"/>
+    <col min="1" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="22.578125" customWidth="1"/>
+    <col min="4" max="5" width="19.83984375" customWidth="1"/>
+    <col min="6" max="6" width="14.26171875" customWidth="1"/>
+    <col min="7" max="7" width="21.26171875" customWidth="1"/>
+    <col min="8" max="9" width="21.578125" customWidth="1"/>
+    <col min="10" max="10" width="32.578125" customWidth="1"/>
+    <col min="11" max="28" width="16.26171875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:28" ht="14.4">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -525,7 +573,7 @@
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:28" ht="14.4">
       <c r="A2" s="4"/>
       <c r="B2" s="4" t="s">
         <v>6</v>
@@ -573,7 +621,7 @@
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:28" ht="14.4">
       <c r="A3" s="6" t="s">
         <v>9</v>
       </c>
@@ -623,12 +671,12 @@
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:28" ht="14.4">
       <c r="A4" s="8">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B4" s="8">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>18</v>
@@ -649,7 +697,7 @@
         <v>21</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="1"/>
@@ -671,15 +719,15 @@
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:28" ht="14.4">
       <c r="A5" s="8">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B5" s="8">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>19</v>
@@ -691,13 +739,13 @@
         <v>0</v>
       </c>
       <c r="G5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="I5" s="9" t="s">
         <v>25</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>26</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="1"/>
@@ -719,15 +767,15 @@
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:28" ht="14.4">
       <c r="A6" s="8">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B6" s="8">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>19</v>
@@ -739,13 +787,13 @@
         <v>0</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J6" s="12"/>
       <c r="K6" s="1"/>
@@ -767,18 +815,18 @@
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:28" ht="14.4">
       <c r="A7" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B7" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>19</v>
@@ -787,13 +835,13 @@
         <v>0</v>
       </c>
       <c r="G7" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="I7" s="9" t="s">
         <v>31</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>32</v>
       </c>
       <c r="J7" s="12"/>
       <c r="K7" s="1"/>
@@ -815,16 +863,30 @@
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
     </row>
-    <row r="8">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
+    <row r="8" spans="1:28" ht="14.4">
+      <c r="A8" s="9">
+        <v>5</v>
+      </c>
+      <c r="B8" s="9">
+        <v>5</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
+      <c r="G8" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="12"/>
+      <c r="I8" s="14" t="s">
+        <v>33</v>
+      </c>
       <c r="J8" s="13"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
@@ -845,7 +907,7 @@
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:28" ht="14.4">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -875,7 +937,7 @@
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:28" ht="14.4">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -905,7 +967,7 @@
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:28" ht="14.4">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -935,7 +997,7 @@
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:28" ht="14.4">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -965,7 +1027,7 @@
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:28" ht="14.4">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -995,7 +1057,7 @@
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:28" ht="14.4">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -1025,7 +1087,7 @@
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:28" ht="14.4">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -1055,7 +1117,7 @@
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:28" ht="14.4">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -1085,7 +1147,7 @@
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:28" ht="14.4">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -1115,7 +1177,7 @@
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:28" ht="14.4">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -1145,7 +1207,7 @@
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:28" ht="14.4">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -1175,7 +1237,7 @@
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:28" ht="14.4">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -1205,7 +1267,7 @@
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:28" ht="15.75" customHeight="1">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -1235,7 +1297,7 @@
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:28" ht="15.75" customHeight="1">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -1265,7 +1327,7 @@
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:28" ht="15.75" customHeight="1">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -1295,7 +1357,7 @@
       <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:28" ht="15.75" customHeight="1">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -1325,7 +1387,7 @@
       <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:28" ht="15.75" customHeight="1">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -1355,7 +1417,7 @@
       <c r="AA25" s="1"/>
       <c r="AB25" s="1"/>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:28" ht="15.75" customHeight="1">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -1385,7 +1447,7 @@
       <c r="AA26" s="1"/>
       <c r="AB26" s="1"/>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:28" ht="15.75" customHeight="1">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -1415,7 +1477,7 @@
       <c r="AA27" s="1"/>
       <c r="AB27" s="1"/>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="1:28" ht="15.75" customHeight="1">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -1445,7 +1507,7 @@
       <c r="AA28" s="1"/>
       <c r="AB28" s="1"/>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="1:28" ht="15.75" customHeight="1">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -1475,7 +1537,7 @@
       <c r="AA29" s="1"/>
       <c r="AB29" s="1"/>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="1:28" ht="15.75" customHeight="1">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -1505,7 +1567,7 @@
       <c r="AA30" s="1"/>
       <c r="AB30" s="1"/>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="1:28" ht="15.75" customHeight="1">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -1535,7 +1597,7 @@
       <c r="AA31" s="1"/>
       <c r="AB31" s="1"/>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="1:28" ht="15.75" customHeight="1">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -1565,7 +1627,7 @@
       <c r="AA32" s="1"/>
       <c r="AB32" s="1"/>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="1:28" ht="15.75" customHeight="1">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -1595,7 +1657,7 @@
       <c r="AA33" s="1"/>
       <c r="AB33" s="1"/>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="1:28" ht="15.75" customHeight="1">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -1625,7 +1687,7 @@
       <c r="AA34" s="1"/>
       <c r="AB34" s="1"/>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="1:28" ht="15.75" customHeight="1">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -1655,7 +1717,7 @@
       <c r="AA35" s="1"/>
       <c r="AB35" s="1"/>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="1:28" ht="15.75" customHeight="1">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -1685,7 +1747,7 @@
       <c r="AA36" s="1"/>
       <c r="AB36" s="1"/>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="1:28" ht="15.75" customHeight="1">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -1715,7 +1777,7 @@
       <c r="AA37" s="1"/>
       <c r="AB37" s="1"/>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="1:28" ht="15.75" customHeight="1">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -1745,7 +1807,7 @@
       <c r="AA38" s="1"/>
       <c r="AB38" s="1"/>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="1:28" ht="15.75" customHeight="1">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -1775,7 +1837,7 @@
       <c r="AA39" s="1"/>
       <c r="AB39" s="1"/>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="1:28" ht="15.75" customHeight="1">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -1805,7 +1867,7 @@
       <c r="AA40" s="1"/>
       <c r="AB40" s="1"/>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="1:28" ht="15.75" customHeight="1">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -1835,7 +1897,7 @@
       <c r="AA41" s="1"/>
       <c r="AB41" s="1"/>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="1:28" ht="15.75" customHeight="1">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -1865,7 +1927,7 @@
       <c r="AA42" s="1"/>
       <c r="AB42" s="1"/>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="1:28" ht="15.75" customHeight="1">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -1895,7 +1957,7 @@
       <c r="AA43" s="1"/>
       <c r="AB43" s="1"/>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="1:28" ht="15.75" customHeight="1">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -1925,7 +1987,7 @@
       <c r="AA44" s="1"/>
       <c r="AB44" s="1"/>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="1:28" ht="15.75" customHeight="1">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -1955,7 +2017,7 @@
       <c r="AA45" s="1"/>
       <c r="AB45" s="1"/>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="1:28" ht="15.75" customHeight="1">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -1985,7 +2047,7 @@
       <c r="AA46" s="1"/>
       <c r="AB46" s="1"/>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" spans="1:28" ht="15.75" customHeight="1">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -2015,7 +2077,7 @@
       <c r="AA47" s="1"/>
       <c r="AB47" s="1"/>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="1:28" ht="15.75" customHeight="1">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -2045,7 +2107,7 @@
       <c r="AA48" s="1"/>
       <c r="AB48" s="1"/>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" spans="1:28" ht="15.75" customHeight="1">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -2075,7 +2137,7 @@
       <c r="AA49" s="1"/>
       <c r="AB49" s="1"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="50" spans="1:28" ht="15.75" customHeight="1">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -2105,7 +2167,7 @@
       <c r="AA50" s="1"/>
       <c r="AB50" s="1"/>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" spans="1:28" ht="15.75" customHeight="1">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -2135,7 +2197,7 @@
       <c r="AA51" s="1"/>
       <c r="AB51" s="1"/>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" spans="1:28" ht="15.75" customHeight="1">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -2165,7 +2227,7 @@
       <c r="AA52" s="1"/>
       <c r="AB52" s="1"/>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" spans="1:28" ht="15.75" customHeight="1">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -2195,7 +2257,7 @@
       <c r="AA53" s="1"/>
       <c r="AB53" s="1"/>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" spans="1:28" ht="15.75" customHeight="1">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -2225,7 +2287,7 @@
       <c r="AA54" s="1"/>
       <c r="AB54" s="1"/>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" spans="1:28" ht="15.75" customHeight="1">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -2255,7 +2317,7 @@
       <c r="AA55" s="1"/>
       <c r="AB55" s="1"/>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" spans="1:28" ht="15.75" customHeight="1">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -2285,7 +2347,7 @@
       <c r="AA56" s="1"/>
       <c r="AB56" s="1"/>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
+    <row r="57" spans="1:28" ht="15.75" customHeight="1">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -2315,7 +2377,7 @@
       <c r="AA57" s="1"/>
       <c r="AB57" s="1"/>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
+    <row r="58" spans="1:28" ht="15.75" customHeight="1">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -2345,7 +2407,7 @@
       <c r="AA58" s="1"/>
       <c r="AB58" s="1"/>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
+    <row r="59" spans="1:28" ht="15.75" customHeight="1">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -2375,7 +2437,7 @@
       <c r="AA59" s="1"/>
       <c r="AB59" s="1"/>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row r="60" spans="1:28" ht="15.75" customHeight="1">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -2405,7 +2467,7 @@
       <c r="AA60" s="1"/>
       <c r="AB60" s="1"/>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row r="61" spans="1:28" ht="15.75" customHeight="1">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -2435,7 +2497,7 @@
       <c r="AA61" s="1"/>
       <c r="AB61" s="1"/>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
+    <row r="62" spans="1:28" ht="15.75" customHeight="1">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -2465,7 +2527,7 @@
       <c r="AA62" s="1"/>
       <c r="AB62" s="1"/>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
+    <row r="63" spans="1:28" ht="15.75" customHeight="1">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -2495,7 +2557,7 @@
       <c r="AA63" s="1"/>
       <c r="AB63" s="1"/>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row r="64" spans="1:28" ht="15.75" customHeight="1">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -2525,7 +2587,7 @@
       <c r="AA64" s="1"/>
       <c r="AB64" s="1"/>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
+    <row r="65" spans="1:28" ht="15.75" customHeight="1">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -2555,7 +2617,7 @@
       <c r="AA65" s="1"/>
       <c r="AB65" s="1"/>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
+    <row r="66" spans="1:28" ht="15.75" customHeight="1">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -2585,7 +2647,7 @@
       <c r="AA66" s="1"/>
       <c r="AB66" s="1"/>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
+    <row r="67" spans="1:28" ht="15.75" customHeight="1">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -2615,7 +2677,7 @@
       <c r="AA67" s="1"/>
       <c r="AB67" s="1"/>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
+    <row r="68" spans="1:28" ht="15.75" customHeight="1">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -2645,7 +2707,7 @@
       <c r="AA68" s="1"/>
       <c r="AB68" s="1"/>
     </row>
-    <row r="69" ht="15.75" customHeight="1">
+    <row r="69" spans="1:28" ht="15.75" customHeight="1">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
@@ -2675,7 +2737,7 @@
       <c r="AA69" s="1"/>
       <c r="AB69" s="1"/>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
+    <row r="70" spans="1:28" ht="15.75" customHeight="1">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -2705,7 +2767,7 @@
       <c r="AA70" s="1"/>
       <c r="AB70" s="1"/>
     </row>
-    <row r="71" ht="15.75" customHeight="1">
+    <row r="71" spans="1:28" ht="15.75" customHeight="1">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -2735,7 +2797,7 @@
       <c r="AA71" s="1"/>
       <c r="AB71" s="1"/>
     </row>
-    <row r="72" ht="15.75" customHeight="1">
+    <row r="72" spans="1:28" ht="15.75" customHeight="1">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -2765,7 +2827,7 @@
       <c r="AA72" s="1"/>
       <c r="AB72" s="1"/>
     </row>
-    <row r="73" ht="15.75" customHeight="1">
+    <row r="73" spans="1:28" ht="15.75" customHeight="1">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
@@ -2795,7 +2857,7 @@
       <c r="AA73" s="1"/>
       <c r="AB73" s="1"/>
     </row>
-    <row r="74" ht="15.75" customHeight="1">
+    <row r="74" spans="1:28" ht="15.75" customHeight="1">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
@@ -2825,7 +2887,7 @@
       <c r="AA74" s="1"/>
       <c r="AB74" s="1"/>
     </row>
-    <row r="75" ht="15.75" customHeight="1">
+    <row r="75" spans="1:28" ht="15.75" customHeight="1">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
@@ -2855,7 +2917,7 @@
       <c r="AA75" s="1"/>
       <c r="AB75" s="1"/>
     </row>
-    <row r="76" ht="15.75" customHeight="1">
+    <row r="76" spans="1:28" ht="15.75" customHeight="1">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
@@ -2885,7 +2947,7 @@
       <c r="AA76" s="1"/>
       <c r="AB76" s="1"/>
     </row>
-    <row r="77" ht="15.75" customHeight="1">
+    <row r="77" spans="1:28" ht="15.75" customHeight="1">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
@@ -2915,7 +2977,7 @@
       <c r="AA77" s="1"/>
       <c r="AB77" s="1"/>
     </row>
-    <row r="78" ht="15.75" customHeight="1">
+    <row r="78" spans="1:28" ht="15.75" customHeight="1">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
@@ -2945,7 +3007,7 @@
       <c r="AA78" s="1"/>
       <c r="AB78" s="1"/>
     </row>
-    <row r="79" ht="15.75" customHeight="1">
+    <row r="79" spans="1:28" ht="15.75" customHeight="1">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
@@ -2975,7 +3037,7 @@
       <c r="AA79" s="1"/>
       <c r="AB79" s="1"/>
     </row>
-    <row r="80" ht="15.75" customHeight="1">
+    <row r="80" spans="1:28" ht="15.75" customHeight="1">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
@@ -3005,7 +3067,7 @@
       <c r="AA80" s="1"/>
       <c r="AB80" s="1"/>
     </row>
-    <row r="81" ht="15.75" customHeight="1">
+    <row r="81" spans="1:28" ht="15.75" customHeight="1">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
@@ -3035,7 +3097,7 @@
       <c r="AA81" s="1"/>
       <c r="AB81" s="1"/>
     </row>
-    <row r="82" ht="15.75" customHeight="1">
+    <row r="82" spans="1:28" ht="15.75" customHeight="1">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
@@ -3065,7 +3127,7 @@
       <c r="AA82" s="1"/>
       <c r="AB82" s="1"/>
     </row>
-    <row r="83" ht="15.75" customHeight="1">
+    <row r="83" spans="1:28" ht="15.75" customHeight="1">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
@@ -3095,7 +3157,7 @@
       <c r="AA83" s="1"/>
       <c r="AB83" s="1"/>
     </row>
-    <row r="84" ht="15.75" customHeight="1">
+    <row r="84" spans="1:28" ht="15.75" customHeight="1">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
@@ -3125,7 +3187,7 @@
       <c r="AA84" s="1"/>
       <c r="AB84" s="1"/>
     </row>
-    <row r="85" ht="15.75" customHeight="1">
+    <row r="85" spans="1:28" ht="15.75" customHeight="1">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
@@ -3155,7 +3217,7 @@
       <c r="AA85" s="1"/>
       <c r="AB85" s="1"/>
     </row>
-    <row r="86" ht="15.75" customHeight="1">
+    <row r="86" spans="1:28" ht="15.75" customHeight="1">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
@@ -3185,7 +3247,7 @@
       <c r="AA86" s="1"/>
       <c r="AB86" s="1"/>
     </row>
-    <row r="87" ht="15.75" customHeight="1">
+    <row r="87" spans="1:28" ht="15.75" customHeight="1">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
@@ -3215,7 +3277,7 @@
       <c r="AA87" s="1"/>
       <c r="AB87" s="1"/>
     </row>
-    <row r="88" ht="15.75" customHeight="1">
+    <row r="88" spans="1:28" ht="15.75" customHeight="1">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
@@ -3245,7 +3307,7 @@
       <c r="AA88" s="1"/>
       <c r="AB88" s="1"/>
     </row>
-    <row r="89" ht="15.75" customHeight="1">
+    <row r="89" spans="1:28" ht="15.75" customHeight="1">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
@@ -3275,7 +3337,7 @@
       <c r="AA89" s="1"/>
       <c r="AB89" s="1"/>
     </row>
-    <row r="90" ht="15.75" customHeight="1">
+    <row r="90" spans="1:28" ht="15.75" customHeight="1">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
@@ -3305,7 +3367,7 @@
       <c r="AA90" s="1"/>
       <c r="AB90" s="1"/>
     </row>
-    <row r="91" ht="15.75" customHeight="1">
+    <row r="91" spans="1:28" ht="15.75" customHeight="1">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
@@ -3335,7 +3397,7 @@
       <c r="AA91" s="1"/>
       <c r="AB91" s="1"/>
     </row>
-    <row r="92" ht="15.75" customHeight="1">
+    <row r="92" spans="1:28" ht="15.75" customHeight="1">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
@@ -3365,7 +3427,7 @@
       <c r="AA92" s="1"/>
       <c r="AB92" s="1"/>
     </row>
-    <row r="93" ht="15.75" customHeight="1">
+    <row r="93" spans="1:28" ht="15.75" customHeight="1">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
@@ -3395,7 +3457,7 @@
       <c r="AA93" s="1"/>
       <c r="AB93" s="1"/>
     </row>
-    <row r="94" ht="15.75" customHeight="1">
+    <row r="94" spans="1:28" ht="15.75" customHeight="1">
       <c r="A94" s="4"/>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
@@ -3425,7 +3487,7 @@
       <c r="AA94" s="1"/>
       <c r="AB94" s="1"/>
     </row>
-    <row r="95" ht="15.75" customHeight="1">
+    <row r="95" spans="1:28" ht="15.75" customHeight="1">
       <c r="A95" s="4"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
@@ -3455,7 +3517,7 @@
       <c r="AA95" s="1"/>
       <c r="AB95" s="1"/>
     </row>
-    <row r="96" ht="15.75" customHeight="1">
+    <row r="96" spans="1:28" ht="15.75" customHeight="1">
       <c r="A96" s="4"/>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
@@ -3485,7 +3547,7 @@
       <c r="AA96" s="1"/>
       <c r="AB96" s="1"/>
     </row>
-    <row r="97" ht="15.75" customHeight="1">
+    <row r="97" spans="1:28" ht="15.75" customHeight="1">
       <c r="A97" s="4"/>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
@@ -3515,7 +3577,7 @@
       <c r="AA97" s="1"/>
       <c r="AB97" s="1"/>
     </row>
-    <row r="98" ht="15.75" customHeight="1">
+    <row r="98" spans="1:28" ht="15.75" customHeight="1">
       <c r="A98" s="4"/>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
@@ -3545,7 +3607,7 @@
       <c r="AA98" s="1"/>
       <c r="AB98" s="1"/>
     </row>
-    <row r="99" ht="15.75" customHeight="1">
+    <row r="99" spans="1:28" ht="15.75" customHeight="1">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
@@ -3575,7 +3637,7 @@
       <c r="AA99" s="1"/>
       <c r="AB99" s="1"/>
     </row>
-    <row r="100" ht="15.75" customHeight="1">
+    <row r="100" spans="1:28" ht="15.75" customHeight="1">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
@@ -3605,7 +3667,7 @@
       <c r="AA100" s="1"/>
       <c r="AB100" s="1"/>
     </row>
-    <row r="101" ht="15.75" customHeight="1">
+    <row r="101" spans="1:28" ht="15.75" customHeight="1">
       <c r="A101" s="4"/>
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
@@ -3635,7 +3697,7 @@
       <c r="AA101" s="1"/>
       <c r="AB101" s="1"/>
     </row>
-    <row r="102" ht="15.75" customHeight="1">
+    <row r="102" spans="1:28" ht="15.75" customHeight="1">
       <c r="A102" s="4"/>
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
@@ -3665,7 +3727,7 @@
       <c r="AA102" s="1"/>
       <c r="AB102" s="1"/>
     </row>
-    <row r="103" ht="15.75" customHeight="1">
+    <row r="103" spans="1:28" ht="15.75" customHeight="1">
       <c r="A103" s="4"/>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
@@ -3695,7 +3757,7 @@
       <c r="AA103" s="1"/>
       <c r="AB103" s="1"/>
     </row>
-    <row r="104" ht="15.75" customHeight="1">
+    <row r="104" spans="1:28" ht="15.75" customHeight="1">
       <c r="A104" s="4"/>
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
@@ -3725,7 +3787,7 @@
       <c r="AA104" s="1"/>
       <c r="AB104" s="1"/>
     </row>
-    <row r="105" ht="15.75" customHeight="1">
+    <row r="105" spans="1:28" ht="15.75" customHeight="1">
       <c r="A105" s="4"/>
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
@@ -3755,7 +3817,7 @@
       <c r="AA105" s="1"/>
       <c r="AB105" s="1"/>
     </row>
-    <row r="106" ht="15.75" customHeight="1">
+    <row r="106" spans="1:28" ht="15.75" customHeight="1">
       <c r="A106" s="4"/>
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
@@ -3785,7 +3847,7 @@
       <c r="AA106" s="1"/>
       <c r="AB106" s="1"/>
     </row>
-    <row r="107" ht="15.75" customHeight="1">
+    <row r="107" spans="1:28" ht="15.75" customHeight="1">
       <c r="A107" s="4"/>
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
@@ -3815,7 +3877,7 @@
       <c r="AA107" s="1"/>
       <c r="AB107" s="1"/>
     </row>
-    <row r="108" ht="15.75" customHeight="1">
+    <row r="108" spans="1:28" ht="15.75" customHeight="1">
       <c r="A108" s="4"/>
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
@@ -3845,7 +3907,7 @@
       <c r="AA108" s="1"/>
       <c r="AB108" s="1"/>
     </row>
-    <row r="109" ht="15.75" customHeight="1">
+    <row r="109" spans="1:28" ht="15.75" customHeight="1">
       <c r="A109" s="4"/>
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
@@ -3875,7 +3937,7 @@
       <c r="AA109" s="1"/>
       <c r="AB109" s="1"/>
     </row>
-    <row r="110" ht="15.75" customHeight="1">
+    <row r="110" spans="1:28" ht="15.75" customHeight="1">
       <c r="A110" s="4"/>
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
@@ -3905,7 +3967,7 @@
       <c r="AA110" s="1"/>
       <c r="AB110" s="1"/>
     </row>
-    <row r="111" ht="15.75" customHeight="1">
+    <row r="111" spans="1:28" ht="15.75" customHeight="1">
       <c r="A111" s="4"/>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
@@ -3935,7 +3997,7 @@
       <c r="AA111" s="1"/>
       <c r="AB111" s="1"/>
     </row>
-    <row r="112" ht="15.75" customHeight="1">
+    <row r="112" spans="1:28" ht="15.75" customHeight="1">
       <c r="A112" s="4"/>
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
@@ -3965,7 +4027,7 @@
       <c r="AA112" s="1"/>
       <c r="AB112" s="1"/>
     </row>
-    <row r="113" ht="15.75" customHeight="1">
+    <row r="113" spans="1:28" ht="15.75" customHeight="1">
       <c r="A113" s="4"/>
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
@@ -3995,7 +4057,7 @@
       <c r="AA113" s="1"/>
       <c r="AB113" s="1"/>
     </row>
-    <row r="114" ht="15.75" customHeight="1">
+    <row r="114" spans="1:28" ht="15.75" customHeight="1">
       <c r="A114" s="4"/>
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
@@ -4025,7 +4087,7 @@
       <c r="AA114" s="1"/>
       <c r="AB114" s="1"/>
     </row>
-    <row r="115" ht="15.75" customHeight="1">
+    <row r="115" spans="1:28" ht="15.75" customHeight="1">
       <c r="A115" s="4"/>
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
@@ -4055,7 +4117,7 @@
       <c r="AA115" s="1"/>
       <c r="AB115" s="1"/>
     </row>
-    <row r="116" ht="15.75" customHeight="1">
+    <row r="116" spans="1:28" ht="15.75" customHeight="1">
       <c r="A116" s="4"/>
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
@@ -4085,7 +4147,7 @@
       <c r="AA116" s="1"/>
       <c r="AB116" s="1"/>
     </row>
-    <row r="117" ht="15.75" customHeight="1">
+    <row r="117" spans="1:28" ht="15.75" customHeight="1">
       <c r="A117" s="4"/>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
@@ -4115,7 +4177,7 @@
       <c r="AA117" s="1"/>
       <c r="AB117" s="1"/>
     </row>
-    <row r="118" ht="15.75" customHeight="1">
+    <row r="118" spans="1:28" ht="15.75" customHeight="1">
       <c r="A118" s="4"/>
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
@@ -4145,7 +4207,7 @@
       <c r="AA118" s="1"/>
       <c r="AB118" s="1"/>
     </row>
-    <row r="119" ht="15.75" customHeight="1">
+    <row r="119" spans="1:28" ht="15.75" customHeight="1">
       <c r="A119" s="4"/>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
@@ -4175,7 +4237,7 @@
       <c r="AA119" s="1"/>
       <c r="AB119" s="1"/>
     </row>
-    <row r="120" ht="15.75" customHeight="1">
+    <row r="120" spans="1:28" ht="15.75" customHeight="1">
       <c r="A120" s="4"/>
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
@@ -4205,7 +4267,7 @@
       <c r="AA120" s="1"/>
       <c r="AB120" s="1"/>
     </row>
-    <row r="121" ht="15.75" customHeight="1">
+    <row r="121" spans="1:28" ht="15.75" customHeight="1">
       <c r="A121" s="4"/>
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
@@ -4235,7 +4297,7 @@
       <c r="AA121" s="1"/>
       <c r="AB121" s="1"/>
     </row>
-    <row r="122" ht="15.75" customHeight="1">
+    <row r="122" spans="1:28" ht="15.75" customHeight="1">
       <c r="A122" s="4"/>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
@@ -4265,7 +4327,7 @@
       <c r="AA122" s="1"/>
       <c r="AB122" s="1"/>
     </row>
-    <row r="123" ht="15.75" customHeight="1">
+    <row r="123" spans="1:28" ht="15.75" customHeight="1">
       <c r="A123" s="4"/>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
@@ -4295,7 +4357,7 @@
       <c r="AA123" s="1"/>
       <c r="AB123" s="1"/>
     </row>
-    <row r="124" ht="15.75" customHeight="1">
+    <row r="124" spans="1:28" ht="15.75" customHeight="1">
       <c r="A124" s="4"/>
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
@@ -4325,7 +4387,7 @@
       <c r="AA124" s="1"/>
       <c r="AB124" s="1"/>
     </row>
-    <row r="125" ht="15.75" customHeight="1">
+    <row r="125" spans="1:28" ht="15.75" customHeight="1">
       <c r="A125" s="4"/>
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
@@ -4355,7 +4417,7 @@
       <c r="AA125" s="1"/>
       <c r="AB125" s="1"/>
     </row>
-    <row r="126" ht="15.75" customHeight="1">
+    <row r="126" spans="1:28" ht="15.75" customHeight="1">
       <c r="A126" s="4"/>
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
@@ -4385,7 +4447,7 @@
       <c r="AA126" s="1"/>
       <c r="AB126" s="1"/>
     </row>
-    <row r="127" ht="15.75" customHeight="1">
+    <row r="127" spans="1:28" ht="15.75" customHeight="1">
       <c r="A127" s="4"/>
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
@@ -4415,7 +4477,7 @@
       <c r="AA127" s="1"/>
       <c r="AB127" s="1"/>
     </row>
-    <row r="128" ht="15.75" customHeight="1">
+    <row r="128" spans="1:28" ht="15.75" customHeight="1">
       <c r="A128" s="4"/>
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
@@ -4445,7 +4507,7 @@
       <c r="AA128" s="1"/>
       <c r="AB128" s="1"/>
     </row>
-    <row r="129" ht="15.75" customHeight="1">
+    <row r="129" spans="1:28" ht="15.75" customHeight="1">
       <c r="A129" s="4"/>
       <c r="B129" s="4"/>
       <c r="C129" s="4"/>
@@ -4475,7 +4537,7 @@
       <c r="AA129" s="1"/>
       <c r="AB129" s="1"/>
     </row>
-    <row r="130" ht="15.75" customHeight="1">
+    <row r="130" spans="1:28" ht="15.75" customHeight="1">
       <c r="A130" s="4"/>
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
@@ -4505,7 +4567,7 @@
       <c r="AA130" s="1"/>
       <c r="AB130" s="1"/>
     </row>
-    <row r="131" ht="15.75" customHeight="1">
+    <row r="131" spans="1:28" ht="15.75" customHeight="1">
       <c r="A131" s="4"/>
       <c r="B131" s="4"/>
       <c r="C131" s="4"/>
@@ -4535,7 +4597,7 @@
       <c r="AA131" s="1"/>
       <c r="AB131" s="1"/>
     </row>
-    <row r="132" ht="15.75" customHeight="1">
+    <row r="132" spans="1:28" ht="15.75" customHeight="1">
       <c r="A132" s="4"/>
       <c r="B132" s="4"/>
       <c r="C132" s="4"/>
@@ -4565,7 +4627,7 @@
       <c r="AA132" s="1"/>
       <c r="AB132" s="1"/>
     </row>
-    <row r="133" ht="15.75" customHeight="1">
+    <row r="133" spans="1:28" ht="15.75" customHeight="1">
       <c r="A133" s="4"/>
       <c r="B133" s="4"/>
       <c r="C133" s="4"/>
@@ -4595,7 +4657,7 @@
       <c r="AA133" s="1"/>
       <c r="AB133" s="1"/>
     </row>
-    <row r="134" ht="15.75" customHeight="1">
+    <row r="134" spans="1:28" ht="15.75" customHeight="1">
       <c r="A134" s="4"/>
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
@@ -4625,7 +4687,7 @@
       <c r="AA134" s="1"/>
       <c r="AB134" s="1"/>
     </row>
-    <row r="135" ht="15.75" customHeight="1">
+    <row r="135" spans="1:28" ht="15.75" customHeight="1">
       <c r="A135" s="4"/>
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
@@ -4655,7 +4717,7 @@
       <c r="AA135" s="1"/>
       <c r="AB135" s="1"/>
     </row>
-    <row r="136" ht="15.75" customHeight="1">
+    <row r="136" spans="1:28" ht="15.75" customHeight="1">
       <c r="A136" s="4"/>
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
@@ -4685,7 +4747,7 @@
       <c r="AA136" s="1"/>
       <c r="AB136" s="1"/>
     </row>
-    <row r="137" ht="15.75" customHeight="1">
+    <row r="137" spans="1:28" ht="15.75" customHeight="1">
       <c r="A137" s="4"/>
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
@@ -4715,7 +4777,7 @@
       <c r="AA137" s="1"/>
       <c r="AB137" s="1"/>
     </row>
-    <row r="138" ht="15.75" customHeight="1">
+    <row r="138" spans="1:28" ht="15.75" customHeight="1">
       <c r="A138" s="4"/>
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
@@ -4745,7 +4807,7 @@
       <c r="AA138" s="1"/>
       <c r="AB138" s="1"/>
     </row>
-    <row r="139" ht="15.75" customHeight="1">
+    <row r="139" spans="1:28" ht="15.75" customHeight="1">
       <c r="A139" s="4"/>
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
@@ -4775,7 +4837,7 @@
       <c r="AA139" s="1"/>
       <c r="AB139" s="1"/>
     </row>
-    <row r="140" ht="15.75" customHeight="1">
+    <row r="140" spans="1:28" ht="15.75" customHeight="1">
       <c r="A140" s="4"/>
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
@@ -4805,7 +4867,7 @@
       <c r="AA140" s="1"/>
       <c r="AB140" s="1"/>
     </row>
-    <row r="141" ht="15.75" customHeight="1">
+    <row r="141" spans="1:28" ht="15.75" customHeight="1">
       <c r="A141" s="4"/>
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
@@ -4835,7 +4897,7 @@
       <c r="AA141" s="1"/>
       <c r="AB141" s="1"/>
     </row>
-    <row r="142" ht="15.75" customHeight="1">
+    <row r="142" spans="1:28" ht="15.75" customHeight="1">
       <c r="A142" s="4"/>
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
@@ -4865,7 +4927,7 @@
       <c r="AA142" s="1"/>
       <c r="AB142" s="1"/>
     </row>
-    <row r="143" ht="15.75" customHeight="1">
+    <row r="143" spans="1:28" ht="15.75" customHeight="1">
       <c r="A143" s="4"/>
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
@@ -4895,7 +4957,7 @@
       <c r="AA143" s="1"/>
       <c r="AB143" s="1"/>
     </row>
-    <row r="144" ht="15.75" customHeight="1">
+    <row r="144" spans="1:28" ht="15.75" customHeight="1">
       <c r="A144" s="4"/>
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
@@ -4925,7 +4987,7 @@
       <c r="AA144" s="1"/>
       <c r="AB144" s="1"/>
     </row>
-    <row r="145" ht="15.75" customHeight="1">
+    <row r="145" spans="1:28" ht="15.75" customHeight="1">
       <c r="A145" s="4"/>
       <c r="B145" s="4"/>
       <c r="C145" s="4"/>
@@ -4955,7 +5017,7 @@
       <c r="AA145" s="1"/>
       <c r="AB145" s="1"/>
     </row>
-    <row r="146" ht="15.75" customHeight="1">
+    <row r="146" spans="1:28" ht="15.75" customHeight="1">
       <c r="A146" s="4"/>
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
@@ -4985,7 +5047,7 @@
       <c r="AA146" s="1"/>
       <c r="AB146" s="1"/>
     </row>
-    <row r="147" ht="15.75" customHeight="1">
+    <row r="147" spans="1:28" ht="15.75" customHeight="1">
       <c r="A147" s="4"/>
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
@@ -5015,7 +5077,7 @@
       <c r="AA147" s="1"/>
       <c r="AB147" s="1"/>
     </row>
-    <row r="148" ht="15.75" customHeight="1">
+    <row r="148" spans="1:28" ht="15.75" customHeight="1">
       <c r="A148" s="4"/>
       <c r="B148" s="4"/>
       <c r="C148" s="4"/>
@@ -5045,7 +5107,7 @@
       <c r="AA148" s="1"/>
       <c r="AB148" s="1"/>
     </row>
-    <row r="149" ht="15.75" customHeight="1">
+    <row r="149" spans="1:28" ht="15.75" customHeight="1">
       <c r="A149" s="4"/>
       <c r="B149" s="4"/>
       <c r="C149" s="4"/>
@@ -5075,7 +5137,7 @@
       <c r="AA149" s="1"/>
       <c r="AB149" s="1"/>
     </row>
-    <row r="150" ht="15.75" customHeight="1">
+    <row r="150" spans="1:28" ht="15.75" customHeight="1">
       <c r="A150" s="4"/>
       <c r="B150" s="4"/>
       <c r="C150" s="4"/>
@@ -5105,7 +5167,7 @@
       <c r="AA150" s="1"/>
       <c r="AB150" s="1"/>
     </row>
-    <row r="151" ht="15.75" customHeight="1">
+    <row r="151" spans="1:28" ht="15.75" customHeight="1">
       <c r="A151" s="4"/>
       <c r="B151" s="4"/>
       <c r="C151" s="4"/>
@@ -5135,7 +5197,7 @@
       <c r="AA151" s="1"/>
       <c r="AB151" s="1"/>
     </row>
-    <row r="152" ht="15.75" customHeight="1">
+    <row r="152" spans="1:28" ht="15.75" customHeight="1">
       <c r="A152" s="4"/>
       <c r="B152" s="4"/>
       <c r="C152" s="4"/>
@@ -5165,7 +5227,7 @@
       <c r="AA152" s="1"/>
       <c r="AB152" s="1"/>
     </row>
-    <row r="153" ht="15.75" customHeight="1">
+    <row r="153" spans="1:28" ht="15.75" customHeight="1">
       <c r="A153" s="4"/>
       <c r="B153" s="4"/>
       <c r="C153" s="4"/>
@@ -5195,7 +5257,7 @@
       <c r="AA153" s="1"/>
       <c r="AB153" s="1"/>
     </row>
-    <row r="154" ht="15.75" customHeight="1">
+    <row r="154" spans="1:28" ht="15.75" customHeight="1">
       <c r="A154" s="4"/>
       <c r="B154" s="4"/>
       <c r="C154" s="4"/>
@@ -5225,7 +5287,7 @@
       <c r="AA154" s="1"/>
       <c r="AB154" s="1"/>
     </row>
-    <row r="155" ht="15.75" customHeight="1">
+    <row r="155" spans="1:28" ht="15.75" customHeight="1">
       <c r="A155" s="4"/>
       <c r="B155" s="4"/>
       <c r="C155" s="4"/>
@@ -5255,7 +5317,7 @@
       <c r="AA155" s="1"/>
       <c r="AB155" s="1"/>
     </row>
-    <row r="156" ht="15.75" customHeight="1">
+    <row r="156" spans="1:28" ht="15.75" customHeight="1">
       <c r="A156" s="4"/>
       <c r="B156" s="4"/>
       <c r="C156" s="4"/>
@@ -5285,7 +5347,7 @@
       <c r="AA156" s="1"/>
       <c r="AB156" s="1"/>
     </row>
-    <row r="157" ht="15.75" customHeight="1">
+    <row r="157" spans="1:28" ht="15.75" customHeight="1">
       <c r="A157" s="4"/>
       <c r="B157" s="4"/>
       <c r="C157" s="4"/>
@@ -5315,7 +5377,7 @@
       <c r="AA157" s="1"/>
       <c r="AB157" s="1"/>
     </row>
-    <row r="158" ht="15.75" customHeight="1">
+    <row r="158" spans="1:28" ht="15.75" customHeight="1">
       <c r="A158" s="4"/>
       <c r="B158" s="4"/>
       <c r="C158" s="4"/>
@@ -5345,7 +5407,7 @@
       <c r="AA158" s="1"/>
       <c r="AB158" s="1"/>
     </row>
-    <row r="159" ht="15.75" customHeight="1">
+    <row r="159" spans="1:28" ht="15.75" customHeight="1">
       <c r="A159" s="4"/>
       <c r="B159" s="4"/>
       <c r="C159" s="4"/>
@@ -5375,7 +5437,7 @@
       <c r="AA159" s="1"/>
       <c r="AB159" s="1"/>
     </row>
-    <row r="160" ht="15.75" customHeight="1">
+    <row r="160" spans="1:28" ht="15.75" customHeight="1">
       <c r="A160" s="4"/>
       <c r="B160" s="4"/>
       <c r="C160" s="4"/>
@@ -5405,7 +5467,7 @@
       <c r="AA160" s="1"/>
       <c r="AB160" s="1"/>
     </row>
-    <row r="161" ht="15.75" customHeight="1">
+    <row r="161" spans="1:28" ht="15.75" customHeight="1">
       <c r="A161" s="4"/>
       <c r="B161" s="4"/>
       <c r="C161" s="4"/>
@@ -5435,7 +5497,7 @@
       <c r="AA161" s="1"/>
       <c r="AB161" s="1"/>
     </row>
-    <row r="162" ht="15.75" customHeight="1">
+    <row r="162" spans="1:28" ht="15.75" customHeight="1">
       <c r="A162" s="4"/>
       <c r="B162" s="4"/>
       <c r="C162" s="4"/>
@@ -5465,7 +5527,7 @@
       <c r="AA162" s="1"/>
       <c r="AB162" s="1"/>
     </row>
-    <row r="163" ht="15.75" customHeight="1">
+    <row r="163" spans="1:28" ht="15.75" customHeight="1">
       <c r="A163" s="4"/>
       <c r="B163" s="4"/>
       <c r="C163" s="4"/>
@@ -5495,7 +5557,7 @@
       <c r="AA163" s="1"/>
       <c r="AB163" s="1"/>
     </row>
-    <row r="164" ht="15.75" customHeight="1">
+    <row r="164" spans="1:28" ht="15.75" customHeight="1">
       <c r="A164" s="4"/>
       <c r="B164" s="4"/>
       <c r="C164" s="4"/>
@@ -5525,7 +5587,7 @@
       <c r="AA164" s="1"/>
       <c r="AB164" s="1"/>
     </row>
-    <row r="165" ht="15.75" customHeight="1">
+    <row r="165" spans="1:28" ht="15.75" customHeight="1">
       <c r="A165" s="4"/>
       <c r="B165" s="4"/>
       <c r="C165" s="4"/>
@@ -5555,7 +5617,7 @@
       <c r="AA165" s="1"/>
       <c r="AB165" s="1"/>
     </row>
-    <row r="166" ht="15.75" customHeight="1">
+    <row r="166" spans="1:28" ht="15.75" customHeight="1">
       <c r="A166" s="4"/>
       <c r="B166" s="4"/>
       <c r="C166" s="4"/>
@@ -5585,7 +5647,7 @@
       <c r="AA166" s="1"/>
       <c r="AB166" s="1"/>
     </row>
-    <row r="167" ht="15.75" customHeight="1">
+    <row r="167" spans="1:28" ht="15.75" customHeight="1">
       <c r="A167" s="4"/>
       <c r="B167" s="4"/>
       <c r="C167" s="4"/>
@@ -5615,7 +5677,7 @@
       <c r="AA167" s="1"/>
       <c r="AB167" s="1"/>
     </row>
-    <row r="168" ht="15.75" customHeight="1">
+    <row r="168" spans="1:28" ht="15.75" customHeight="1">
       <c r="A168" s="4"/>
       <c r="B168" s="4"/>
       <c r="C168" s="4"/>
@@ -5645,7 +5707,7 @@
       <c r="AA168" s="1"/>
       <c r="AB168" s="1"/>
     </row>
-    <row r="169" ht="15.75" customHeight="1">
+    <row r="169" spans="1:28" ht="15.75" customHeight="1">
       <c r="A169" s="4"/>
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
@@ -5675,7 +5737,7 @@
       <c r="AA169" s="1"/>
       <c r="AB169" s="1"/>
     </row>
-    <row r="170" ht="15.75" customHeight="1">
+    <row r="170" spans="1:28" ht="15.75" customHeight="1">
       <c r="A170" s="4"/>
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
@@ -5705,7 +5767,7 @@
       <c r="AA170" s="1"/>
       <c r="AB170" s="1"/>
     </row>
-    <row r="171" ht="15.75" customHeight="1">
+    <row r="171" spans="1:28" ht="15.75" customHeight="1">
       <c r="A171" s="4"/>
       <c r="B171" s="4"/>
       <c r="C171" s="4"/>
@@ -5735,7 +5797,7 @@
       <c r="AA171" s="1"/>
       <c r="AB171" s="1"/>
     </row>
-    <row r="172" ht="15.75" customHeight="1">
+    <row r="172" spans="1:28" ht="15.75" customHeight="1">
       <c r="A172" s="4"/>
       <c r="B172" s="4"/>
       <c r="C172" s="4"/>
@@ -5765,7 +5827,7 @@
       <c r="AA172" s="1"/>
       <c r="AB172" s="1"/>
     </row>
-    <row r="173" ht="15.75" customHeight="1">
+    <row r="173" spans="1:28" ht="15.75" customHeight="1">
       <c r="A173" s="4"/>
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
@@ -5795,7 +5857,7 @@
       <c r="AA173" s="1"/>
       <c r="AB173" s="1"/>
     </row>
-    <row r="174" ht="15.75" customHeight="1">
+    <row r="174" spans="1:28" ht="15.75" customHeight="1">
       <c r="A174" s="4"/>
       <c r="B174" s="4"/>
       <c r="C174" s="4"/>
@@ -5825,7 +5887,7 @@
       <c r="AA174" s="1"/>
       <c r="AB174" s="1"/>
     </row>
-    <row r="175" ht="15.75" customHeight="1">
+    <row r="175" spans="1:28" ht="15.75" customHeight="1">
       <c r="A175" s="4"/>
       <c r="B175" s="4"/>
       <c r="C175" s="4"/>
@@ -5855,7 +5917,7 @@
       <c r="AA175" s="1"/>
       <c r="AB175" s="1"/>
     </row>
-    <row r="176" ht="15.75" customHeight="1">
+    <row r="176" spans="1:28" ht="15.75" customHeight="1">
       <c r="A176" s="4"/>
       <c r="B176" s="4"/>
       <c r="C176" s="4"/>
@@ -5885,7 +5947,7 @@
       <c r="AA176" s="1"/>
       <c r="AB176" s="1"/>
     </row>
-    <row r="177" ht="15.75" customHeight="1">
+    <row r="177" spans="1:28" ht="15.75" customHeight="1">
       <c r="A177" s="4"/>
       <c r="B177" s="4"/>
       <c r="C177" s="4"/>
@@ -5915,7 +5977,7 @@
       <c r="AA177" s="1"/>
       <c r="AB177" s="1"/>
     </row>
-    <row r="178" ht="15.75" customHeight="1">
+    <row r="178" spans="1:28" ht="15.75" customHeight="1">
       <c r="A178" s="4"/>
       <c r="B178" s="4"/>
       <c r="C178" s="4"/>
@@ -5945,7 +6007,7 @@
       <c r="AA178" s="1"/>
       <c r="AB178" s="1"/>
     </row>
-    <row r="179" ht="15.75" customHeight="1">
+    <row r="179" spans="1:28" ht="15.75" customHeight="1">
       <c r="A179" s="4"/>
       <c r="B179" s="4"/>
       <c r="C179" s="4"/>
@@ -5975,7 +6037,7 @@
       <c r="AA179" s="1"/>
       <c r="AB179" s="1"/>
     </row>
-    <row r="180" ht="15.75" customHeight="1">
+    <row r="180" spans="1:28" ht="15.75" customHeight="1">
       <c r="A180" s="4"/>
       <c r="B180" s="4"/>
       <c r="C180" s="4"/>
@@ -6005,7 +6067,7 @@
       <c r="AA180" s="1"/>
       <c r="AB180" s="1"/>
     </row>
-    <row r="181" ht="15.75" customHeight="1">
+    <row r="181" spans="1:28" ht="15.75" customHeight="1">
       <c r="A181" s="4"/>
       <c r="B181" s="4"/>
       <c r="C181" s="4"/>
@@ -6035,7 +6097,7 @@
       <c r="AA181" s="1"/>
       <c r="AB181" s="1"/>
     </row>
-    <row r="182" ht="15.75" customHeight="1">
+    <row r="182" spans="1:28" ht="15.75" customHeight="1">
       <c r="A182" s="4"/>
       <c r="B182" s="4"/>
       <c r="C182" s="4"/>
@@ -6065,7 +6127,7 @@
       <c r="AA182" s="1"/>
       <c r="AB182" s="1"/>
     </row>
-    <row r="183" ht="15.75" customHeight="1">
+    <row r="183" spans="1:28" ht="15.75" customHeight="1">
       <c r="A183" s="4"/>
       <c r="B183" s="4"/>
       <c r="C183" s="4"/>
@@ -6095,7 +6157,7 @@
       <c r="AA183" s="1"/>
       <c r="AB183" s="1"/>
     </row>
-    <row r="184" ht="15.75" customHeight="1">
+    <row r="184" spans="1:28" ht="15.75" customHeight="1">
       <c r="A184" s="4"/>
       <c r="B184" s="4"/>
       <c r="C184" s="4"/>
@@ -6125,7 +6187,7 @@
       <c r="AA184" s="1"/>
       <c r="AB184" s="1"/>
     </row>
-    <row r="185" ht="15.75" customHeight="1">
+    <row r="185" spans="1:28" ht="15.75" customHeight="1">
       <c r="A185" s="4"/>
       <c r="B185" s="4"/>
       <c r="C185" s="4"/>
@@ -6155,7 +6217,7 @@
       <c r="AA185" s="1"/>
       <c r="AB185" s="1"/>
     </row>
-    <row r="186" ht="15.75" customHeight="1">
+    <row r="186" spans="1:28" ht="15.75" customHeight="1">
       <c r="A186" s="4"/>
       <c r="B186" s="4"/>
       <c r="C186" s="4"/>
@@ -6185,7 +6247,7 @@
       <c r="AA186" s="1"/>
       <c r="AB186" s="1"/>
     </row>
-    <row r="187" ht="15.75" customHeight="1">
+    <row r="187" spans="1:28" ht="15.75" customHeight="1">
       <c r="A187" s="4"/>
       <c r="B187" s="4"/>
       <c r="C187" s="4"/>
@@ -6215,7 +6277,7 @@
       <c r="AA187" s="1"/>
       <c r="AB187" s="1"/>
     </row>
-    <row r="188" ht="15.75" customHeight="1">
+    <row r="188" spans="1:28" ht="15.75" customHeight="1">
       <c r="A188" s="4"/>
       <c r="B188" s="4"/>
       <c r="C188" s="4"/>
@@ -6245,7 +6307,7 @@
       <c r="AA188" s="1"/>
       <c r="AB188" s="1"/>
     </row>
-    <row r="189" ht="15.75" customHeight="1">
+    <row r="189" spans="1:28" ht="15.75" customHeight="1">
       <c r="A189" s="4"/>
       <c r="B189" s="4"/>
       <c r="C189" s="4"/>
@@ -6275,7 +6337,7 @@
       <c r="AA189" s="1"/>
       <c r="AB189" s="1"/>
     </row>
-    <row r="190" ht="15.75" customHeight="1">
+    <row r="190" spans="1:28" ht="15.75" customHeight="1">
       <c r="A190" s="4"/>
       <c r="B190" s="4"/>
       <c r="C190" s="4"/>
@@ -6305,7 +6367,7 @@
       <c r="AA190" s="1"/>
       <c r="AB190" s="1"/>
     </row>
-    <row r="191" ht="15.75" customHeight="1">
+    <row r="191" spans="1:28" ht="15.75" customHeight="1">
       <c r="A191" s="4"/>
       <c r="B191" s="4"/>
       <c r="C191" s="4"/>
@@ -6335,7 +6397,7 @@
       <c r="AA191" s="1"/>
       <c r="AB191" s="1"/>
     </row>
-    <row r="192" ht="15.75" customHeight="1">
+    <row r="192" spans="1:28" ht="15.75" customHeight="1">
       <c r="A192" s="4"/>
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
@@ -6365,7 +6427,7 @@
       <c r="AA192" s="1"/>
       <c r="AB192" s="1"/>
     </row>
-    <row r="193" ht="15.75" customHeight="1">
+    <row r="193" spans="1:28" ht="15.75" customHeight="1">
       <c r="A193" s="4"/>
       <c r="B193" s="4"/>
       <c r="C193" s="4"/>
@@ -6395,7 +6457,7 @@
       <c r="AA193" s="1"/>
       <c r="AB193" s="1"/>
     </row>
-    <row r="194" ht="15.75" customHeight="1">
+    <row r="194" spans="1:28" ht="15.75" customHeight="1">
       <c r="A194" s="4"/>
       <c r="B194" s="4"/>
       <c r="C194" s="4"/>
@@ -6425,7 +6487,7 @@
       <c r="AA194" s="1"/>
       <c r="AB194" s="1"/>
     </row>
-    <row r="195" ht="15.75" customHeight="1">
+    <row r="195" spans="1:28" ht="15.75" customHeight="1">
       <c r="A195" s="4"/>
       <c r="B195" s="4"/>
       <c r="C195" s="4"/>
@@ -6455,7 +6517,7 @@
       <c r="AA195" s="1"/>
       <c r="AB195" s="1"/>
     </row>
-    <row r="196" ht="15.75" customHeight="1">
+    <row r="196" spans="1:28" ht="15.75" customHeight="1">
       <c r="A196" s="4"/>
       <c r="B196" s="4"/>
       <c r="C196" s="4"/>
@@ -6485,7 +6547,7 @@
       <c r="AA196" s="1"/>
       <c r="AB196" s="1"/>
     </row>
-    <row r="197" ht="15.75" customHeight="1">
+    <row r="197" spans="1:28" ht="15.75" customHeight="1">
       <c r="A197" s="4"/>
       <c r="B197" s="4"/>
       <c r="C197" s="4"/>
@@ -6515,7 +6577,7 @@
       <c r="AA197" s="1"/>
       <c r="AB197" s="1"/>
     </row>
-    <row r="198" ht="15.75" customHeight="1">
+    <row r="198" spans="1:28" ht="15.75" customHeight="1">
       <c r="A198" s="4"/>
       <c r="B198" s="4"/>
       <c r="C198" s="4"/>
@@ -6545,7 +6607,7 @@
       <c r="AA198" s="1"/>
       <c r="AB198" s="1"/>
     </row>
-    <row r="199" ht="15.75" customHeight="1">
+    <row r="199" spans="1:28" ht="15.75" customHeight="1">
       <c r="A199" s="4"/>
       <c r="B199" s="4"/>
       <c r="C199" s="4"/>
@@ -6575,7 +6637,7 @@
       <c r="AA199" s="1"/>
       <c r="AB199" s="1"/>
     </row>
-    <row r="200" ht="15.75" customHeight="1">
+    <row r="200" spans="1:28" ht="15.75" customHeight="1">
       <c r="A200" s="4"/>
       <c r="B200" s="4"/>
       <c r="C200" s="4"/>
@@ -6605,7 +6667,7 @@
       <c r="AA200" s="1"/>
       <c r="AB200" s="1"/>
     </row>
-    <row r="201" ht="15.75" customHeight="1">
+    <row r="201" spans="1:28" ht="15.75" customHeight="1">
       <c r="A201" s="4"/>
       <c r="B201" s="4"/>
       <c r="C201" s="4"/>
@@ -6635,7 +6697,7 @@
       <c r="AA201" s="1"/>
       <c r="AB201" s="1"/>
     </row>
-    <row r="202" ht="15.75" customHeight="1">
+    <row r="202" spans="1:28" ht="15.75" customHeight="1">
       <c r="A202" s="4"/>
       <c r="B202" s="4"/>
       <c r="C202" s="4"/>
@@ -6665,7 +6727,7 @@
       <c r="AA202" s="1"/>
       <c r="AB202" s="1"/>
     </row>
-    <row r="203" ht="15.75" customHeight="1">
+    <row r="203" spans="1:28" ht="15.75" customHeight="1">
       <c r="A203" s="4"/>
       <c r="B203" s="4"/>
       <c r="C203" s="4"/>
@@ -6695,7 +6757,7 @@
       <c r="AA203" s="1"/>
       <c r="AB203" s="1"/>
     </row>
-    <row r="204" ht="15.75" customHeight="1">
+    <row r="204" spans="1:28" ht="15.75" customHeight="1">
       <c r="A204" s="4"/>
       <c r="B204" s="4"/>
       <c r="C204" s="4"/>
@@ -6725,7 +6787,7 @@
       <c r="AA204" s="1"/>
       <c r="AB204" s="1"/>
     </row>
-    <row r="205" ht="15.75" customHeight="1">
+    <row r="205" spans="1:28" ht="15.75" customHeight="1">
       <c r="A205" s="4"/>
       <c r="B205" s="4"/>
       <c r="C205" s="4"/>
@@ -6755,7 +6817,7 @@
       <c r="AA205" s="1"/>
       <c r="AB205" s="1"/>
     </row>
-    <row r="206" ht="15.75" customHeight="1">
+    <row r="206" spans="1:28" ht="15.75" customHeight="1">
       <c r="A206" s="4"/>
       <c r="B206" s="4"/>
       <c r="C206" s="4"/>
@@ -6785,7 +6847,7 @@
       <c r="AA206" s="1"/>
       <c r="AB206" s="1"/>
     </row>
-    <row r="207" ht="15.75" customHeight="1">
+    <row r="207" spans="1:28" ht="15.75" customHeight="1">
       <c r="A207" s="4"/>
       <c r="B207" s="4"/>
       <c r="C207" s="4"/>
@@ -6815,7 +6877,7 @@
       <c r="AA207" s="1"/>
       <c r="AB207" s="1"/>
     </row>
-    <row r="208" ht="15.75" customHeight="1">
+    <row r="208" spans="1:28" ht="15.75" customHeight="1">
       <c r="A208" s="4"/>
       <c r="B208" s="4"/>
       <c r="C208" s="4"/>
@@ -6845,7 +6907,7 @@
       <c r="AA208" s="1"/>
       <c r="AB208" s="1"/>
     </row>
-    <row r="209" ht="15.75" customHeight="1">
+    <row r="209" spans="1:28" ht="15.75" customHeight="1">
       <c r="A209" s="4"/>
       <c r="B209" s="4"/>
       <c r="C209" s="4"/>
@@ -6875,7 +6937,7 @@
       <c r="AA209" s="1"/>
       <c r="AB209" s="1"/>
     </row>
-    <row r="210" ht="15.75" customHeight="1">
+    <row r="210" spans="1:28" ht="15.75" customHeight="1">
       <c r="A210" s="4"/>
       <c r="B210" s="4"/>
       <c r="C210" s="4"/>
@@ -6905,7 +6967,7 @@
       <c r="AA210" s="1"/>
       <c r="AB210" s="1"/>
     </row>
-    <row r="211" ht="15.75" customHeight="1">
+    <row r="211" spans="1:28" ht="15.75" customHeight="1">
       <c r="A211" s="4"/>
       <c r="B211" s="4"/>
       <c r="C211" s="4"/>
@@ -6935,7 +6997,7 @@
       <c r="AA211" s="1"/>
       <c r="AB211" s="1"/>
     </row>
-    <row r="212" ht="15.75" customHeight="1">
+    <row r="212" spans="1:28" ht="15.75" customHeight="1">
       <c r="A212" s="4"/>
       <c r="B212" s="4"/>
       <c r="C212" s="4"/>
@@ -6965,7 +7027,7 @@
       <c r="AA212" s="1"/>
       <c r="AB212" s="1"/>
     </row>
-    <row r="213" ht="15.75" customHeight="1">
+    <row r="213" spans="1:28" ht="15.75" customHeight="1">
       <c r="A213" s="4"/>
       <c r="B213" s="4"/>
       <c r="C213" s="4"/>
@@ -6995,7 +7057,7 @@
       <c r="AA213" s="1"/>
       <c r="AB213" s="1"/>
     </row>
-    <row r="214" ht="15.75" customHeight="1">
+    <row r="214" spans="1:28" ht="15.75" customHeight="1">
       <c r="A214" s="4"/>
       <c r="B214" s="4"/>
       <c r="C214" s="4"/>
@@ -7025,7 +7087,7 @@
       <c r="AA214" s="1"/>
       <c r="AB214" s="1"/>
     </row>
-    <row r="215" ht="15.75" customHeight="1">
+    <row r="215" spans="1:28" ht="15.75" customHeight="1">
       <c r="A215" s="4"/>
       <c r="B215" s="4"/>
       <c r="C215" s="4"/>
@@ -7055,7 +7117,7 @@
       <c r="AA215" s="1"/>
       <c r="AB215" s="1"/>
     </row>
-    <row r="216" ht="15.75" customHeight="1">
+    <row r="216" spans="1:28" ht="15.75" customHeight="1">
       <c r="A216" s="4"/>
       <c r="B216" s="4"/>
       <c r="C216" s="4"/>
@@ -7085,7 +7147,7 @@
       <c r="AA216" s="1"/>
       <c r="AB216" s="1"/>
     </row>
-    <row r="217" ht="15.75" customHeight="1">
+    <row r="217" spans="1:28" ht="15.75" customHeight="1">
       <c r="A217" s="4"/>
       <c r="B217" s="4"/>
       <c r="C217" s="4"/>
@@ -7115,7 +7177,7 @@
       <c r="AA217" s="1"/>
       <c r="AB217" s="1"/>
     </row>
-    <row r="218" ht="15.75" customHeight="1">
+    <row r="218" spans="1:28" ht="15.75" customHeight="1">
       <c r="A218" s="4"/>
       <c r="B218" s="4"/>
       <c r="C218" s="4"/>
@@ -7145,7 +7207,7 @@
       <c r="AA218" s="1"/>
       <c r="AB218" s="1"/>
     </row>
-    <row r="219" ht="15.75" customHeight="1">
+    <row r="219" spans="1:28" ht="15.75" customHeight="1">
       <c r="A219" s="4"/>
       <c r="B219" s="4"/>
       <c r="C219" s="4"/>
@@ -7175,7 +7237,7 @@
       <c r="AA219" s="1"/>
       <c r="AB219" s="1"/>
     </row>
-    <row r="220" ht="15.75" customHeight="1">
+    <row r="220" spans="1:28" ht="15.75" customHeight="1">
       <c r="A220" s="4"/>
       <c r="B220" s="4"/>
       <c r="C220" s="4"/>
@@ -7205,7 +7267,7 @@
       <c r="AA220" s="1"/>
       <c r="AB220" s="1"/>
     </row>
-    <row r="221" ht="15.75" customHeight="1">
+    <row r="221" spans="1:28" ht="15.75" customHeight="1">
       <c r="A221" s="4"/>
       <c r="B221" s="4"/>
       <c r="C221" s="4"/>
@@ -7235,7 +7297,7 @@
       <c r="AA221" s="1"/>
       <c r="AB221" s="1"/>
     </row>
-    <row r="222" ht="15.75" customHeight="1">
+    <row r="222" spans="1:28" ht="15.75" customHeight="1">
       <c r="A222" s="4"/>
       <c r="B222" s="4"/>
       <c r="C222" s="4"/>
@@ -7265,7 +7327,7 @@
       <c r="AA222" s="1"/>
       <c r="AB222" s="1"/>
     </row>
-    <row r="223" ht="15.75" customHeight="1">
+    <row r="223" spans="1:28" ht="15.75" customHeight="1">
       <c r="A223" s="4"/>
       <c r="B223" s="4"/>
       <c r="C223" s="4"/>
@@ -7295,7 +7357,7 @@
       <c r="AA223" s="1"/>
       <c r="AB223" s="1"/>
     </row>
-    <row r="224" ht="15.75" customHeight="1">
+    <row r="224" spans="1:28" ht="15.75" customHeight="1">
       <c r="A224" s="4"/>
       <c r="B224" s="4"/>
       <c r="C224" s="4"/>
@@ -7325,7 +7387,7 @@
       <c r="AA224" s="1"/>
       <c r="AB224" s="1"/>
     </row>
-    <row r="225" ht="15.75" customHeight="1">
+    <row r="225" spans="1:28" ht="15.75" customHeight="1">
       <c r="A225" s="4"/>
       <c r="B225" s="4"/>
       <c r="C225" s="4"/>
@@ -7355,7 +7417,7 @@
       <c r="AA225" s="1"/>
       <c r="AB225" s="1"/>
     </row>
-    <row r="226" ht="15.75" customHeight="1">
+    <row r="226" spans="1:28" ht="15.75" customHeight="1">
       <c r="A226" s="4"/>
       <c r="B226" s="4"/>
       <c r="C226" s="4"/>
@@ -7385,7 +7447,7 @@
       <c r="AA226" s="1"/>
       <c r="AB226" s="1"/>
     </row>
-    <row r="227" ht="15.75" customHeight="1">
+    <row r="227" spans="1:28" ht="15.75" customHeight="1">
       <c r="A227" s="4"/>
       <c r="B227" s="4"/>
       <c r="C227" s="4"/>
@@ -7415,7 +7477,7 @@
       <c r="AA227" s="1"/>
       <c r="AB227" s="1"/>
     </row>
-    <row r="228" ht="15.75" customHeight="1">
+    <row r="228" spans="1:28" ht="15.75" customHeight="1">
       <c r="A228" s="4"/>
       <c r="B228" s="4"/>
       <c r="C228" s="4"/>
@@ -7445,7 +7507,7 @@
       <c r="AA228" s="1"/>
       <c r="AB228" s="1"/>
     </row>
-    <row r="229" ht="15.75" customHeight="1">
+    <row r="229" spans="1:28" ht="15.75" customHeight="1">
       <c r="A229" s="4"/>
       <c r="B229" s="4"/>
       <c r="C229" s="4"/>
@@ -7475,7 +7537,7 @@
       <c r="AA229" s="1"/>
       <c r="AB229" s="1"/>
     </row>
-    <row r="230" ht="15.75" customHeight="1">
+    <row r="230" spans="1:28" ht="15.75" customHeight="1">
       <c r="A230" s="4"/>
       <c r="B230" s="4"/>
       <c r="C230" s="4"/>
@@ -7505,7 +7567,7 @@
       <c r="AA230" s="1"/>
       <c r="AB230" s="1"/>
     </row>
-    <row r="231" ht="15.75" customHeight="1">
+    <row r="231" spans="1:28" ht="15.75" customHeight="1">
       <c r="A231" s="4"/>
       <c r="B231" s="4"/>
       <c r="C231" s="4"/>
@@ -7535,7 +7597,7 @@
       <c r="AA231" s="1"/>
       <c r="AB231" s="1"/>
     </row>
-    <row r="232" ht="15.75" customHeight="1">
+    <row r="232" spans="1:28" ht="15.75" customHeight="1">
       <c r="A232" s="4"/>
       <c r="B232" s="4"/>
       <c r="C232" s="4"/>
@@ -7565,7 +7627,7 @@
       <c r="AA232" s="1"/>
       <c r="AB232" s="1"/>
     </row>
-    <row r="233" ht="15.75" customHeight="1">
+    <row r="233" spans="1:28" ht="15.75" customHeight="1">
       <c r="A233" s="4"/>
       <c r="B233" s="4"/>
       <c r="C233" s="4"/>
@@ -7595,7 +7657,7 @@
       <c r="AA233" s="1"/>
       <c r="AB233" s="1"/>
     </row>
-    <row r="234" ht="15.75" customHeight="1">
+    <row r="234" spans="1:28" ht="15.75" customHeight="1">
       <c r="A234" s="4"/>
       <c r="B234" s="4"/>
       <c r="C234" s="4"/>
@@ -7625,7 +7687,7 @@
       <c r="AA234" s="1"/>
       <c r="AB234" s="1"/>
     </row>
-    <row r="235" ht="15.75" customHeight="1">
+    <row r="235" spans="1:28" ht="15.75" customHeight="1">
       <c r="A235" s="4"/>
       <c r="B235" s="4"/>
       <c r="C235" s="4"/>
@@ -7655,7 +7717,7 @@
       <c r="AA235" s="1"/>
       <c r="AB235" s="1"/>
     </row>
-    <row r="236" ht="15.75" customHeight="1">
+    <row r="236" spans="1:28" ht="15.75" customHeight="1">
       <c r="A236" s="4"/>
       <c r="B236" s="4"/>
       <c r="C236" s="4"/>
@@ -7685,7 +7747,7 @@
       <c r="AA236" s="1"/>
       <c r="AB236" s="1"/>
     </row>
-    <row r="237" ht="15.75" customHeight="1">
+    <row r="237" spans="1:28" ht="15.75" customHeight="1">
       <c r="A237" s="4"/>
       <c r="B237" s="4"/>
       <c r="C237" s="4"/>
@@ -7715,7 +7777,7 @@
       <c r="AA237" s="1"/>
       <c r="AB237" s="1"/>
     </row>
-    <row r="238" ht="15.75" customHeight="1">
+    <row r="238" spans="1:28" ht="15.75" customHeight="1">
       <c r="A238" s="4"/>
       <c r="B238" s="4"/>
       <c r="C238" s="4"/>
@@ -7745,7 +7807,7 @@
       <c r="AA238" s="1"/>
       <c r="AB238" s="1"/>
     </row>
-    <row r="239" ht="15.75" customHeight="1">
+    <row r="239" spans="1:28" ht="15.75" customHeight="1">
       <c r="A239" s="4"/>
       <c r="B239" s="4"/>
       <c r="C239" s="4"/>
@@ -7775,7 +7837,7 @@
       <c r="AA239" s="1"/>
       <c r="AB239" s="1"/>
     </row>
-    <row r="240" ht="15.75" customHeight="1">
+    <row r="240" spans="1:28" ht="15.75" customHeight="1">
       <c r="A240" s="4"/>
       <c r="B240" s="4"/>
       <c r="C240" s="4"/>
@@ -7805,7 +7867,7 @@
       <c r="AA240" s="1"/>
       <c r="AB240" s="1"/>
     </row>
-    <row r="241" ht="15.75" customHeight="1">
+    <row r="241" spans="1:28" ht="15.75" customHeight="1">
       <c r="A241" s="4"/>
       <c r="B241" s="4"/>
       <c r="C241" s="4"/>
@@ -7835,7 +7897,7 @@
       <c r="AA241" s="1"/>
       <c r="AB241" s="1"/>
     </row>
-    <row r="242" ht="15.75" customHeight="1">
+    <row r="242" spans="1:28" ht="15.75" customHeight="1">
       <c r="A242" s="4"/>
       <c r="B242" s="4"/>
       <c r="C242" s="4"/>
@@ -7865,7 +7927,7 @@
       <c r="AA242" s="1"/>
       <c r="AB242" s="1"/>
     </row>
-    <row r="243" ht="15.75" customHeight="1">
+    <row r="243" spans="1:28" ht="15.75" customHeight="1">
       <c r="A243" s="4"/>
       <c r="B243" s="4"/>
       <c r="C243" s="4"/>
@@ -7895,7 +7957,7 @@
       <c r="AA243" s="1"/>
       <c r="AB243" s="1"/>
     </row>
-    <row r="244" ht="15.75" customHeight="1">
+    <row r="244" spans="1:28" ht="15.75" customHeight="1">
       <c r="A244" s="4"/>
       <c r="B244" s="4"/>
       <c r="C244" s="4"/>
@@ -7925,7 +7987,7 @@
       <c r="AA244" s="1"/>
       <c r="AB244" s="1"/>
     </row>
-    <row r="245" ht="15.75" customHeight="1">
+    <row r="245" spans="1:28" ht="15.75" customHeight="1">
       <c r="A245" s="4"/>
       <c r="B245" s="4"/>
       <c r="C245" s="4"/>
@@ -7955,7 +8017,7 @@
       <c r="AA245" s="1"/>
       <c r="AB245" s="1"/>
     </row>
-    <row r="246" ht="15.75" customHeight="1">
+    <row r="246" spans="1:28" ht="15.75" customHeight="1">
       <c r="A246" s="4"/>
       <c r="B246" s="4"/>
       <c r="C246" s="4"/>
@@ -7985,7 +8047,7 @@
       <c r="AA246" s="1"/>
       <c r="AB246" s="1"/>
     </row>
-    <row r="247" ht="15.75" customHeight="1">
+    <row r="247" spans="1:28" ht="15.75" customHeight="1">
       <c r="A247" s="4"/>
       <c r="B247" s="4"/>
       <c r="C247" s="4"/>
@@ -8015,7 +8077,7 @@
       <c r="AA247" s="1"/>
       <c r="AB247" s="1"/>
     </row>
-    <row r="248" ht="15.75" customHeight="1">
+    <row r="248" spans="1:28" ht="15.75" customHeight="1">
       <c r="A248" s="4"/>
       <c r="B248" s="4"/>
       <c r="C248" s="4"/>
@@ -8045,7 +8107,7 @@
       <c r="AA248" s="1"/>
       <c r="AB248" s="1"/>
     </row>
-    <row r="249" ht="15.75" customHeight="1">
+    <row r="249" spans="1:28" ht="15.75" customHeight="1">
       <c r="A249" s="4"/>
       <c r="B249" s="4"/>
       <c r="C249" s="4"/>
@@ -8075,7 +8137,7 @@
       <c r="AA249" s="1"/>
       <c r="AB249" s="1"/>
     </row>
-    <row r="250" ht="15.75" customHeight="1">
+    <row r="250" spans="1:28" ht="15.75" customHeight="1">
       <c r="A250" s="4"/>
       <c r="B250" s="4"/>
       <c r="C250" s="4"/>
@@ -8105,7 +8167,7 @@
       <c r="AA250" s="1"/>
       <c r="AB250" s="1"/>
     </row>
-    <row r="251" ht="15.75" customHeight="1">
+    <row r="251" spans="1:28" ht="15.75" customHeight="1">
       <c r="A251" s="4"/>
       <c r="B251" s="4"/>
       <c r="C251" s="4"/>
@@ -8135,7 +8197,7 @@
       <c r="AA251" s="1"/>
       <c r="AB251" s="1"/>
     </row>
-    <row r="252" ht="15.75" customHeight="1">
+    <row r="252" spans="1:28" ht="15.75" customHeight="1">
       <c r="A252" s="4"/>
       <c r="B252" s="4"/>
       <c r="C252" s="4"/>
@@ -8165,7 +8227,7 @@
       <c r="AA252" s="1"/>
       <c r="AB252" s="1"/>
     </row>
-    <row r="253" ht="15.75" customHeight="1">
+    <row r="253" spans="1:28" ht="15.75" customHeight="1">
       <c r="A253" s="4"/>
       <c r="B253" s="4"/>
       <c r="C253" s="4"/>
@@ -8195,7 +8257,7 @@
       <c r="AA253" s="1"/>
       <c r="AB253" s="1"/>
     </row>
-    <row r="254" ht="15.75" customHeight="1">
+    <row r="254" spans="1:28" ht="15.75" customHeight="1">
       <c r="A254" s="4"/>
       <c r="B254" s="4"/>
       <c r="C254" s="4"/>
@@ -8225,7 +8287,7 @@
       <c r="AA254" s="1"/>
       <c r="AB254" s="1"/>
     </row>
-    <row r="255" ht="15.75" customHeight="1">
+    <row r="255" spans="1:28" ht="15.75" customHeight="1">
       <c r="A255" s="4"/>
       <c r="B255" s="4"/>
       <c r="C255" s="4"/>
@@ -8255,7 +8317,7 @@
       <c r="AA255" s="1"/>
       <c r="AB255" s="1"/>
     </row>
-    <row r="256" ht="15.75" customHeight="1">
+    <row r="256" spans="1:28" ht="15.75" customHeight="1">
       <c r="A256" s="4"/>
       <c r="B256" s="4"/>
       <c r="C256" s="4"/>
@@ -8285,7 +8347,7 @@
       <c r="AA256" s="1"/>
       <c r="AB256" s="1"/>
     </row>
-    <row r="257" ht="15.75" customHeight="1">
+    <row r="257" spans="1:28" ht="15.75" customHeight="1">
       <c r="A257" s="4"/>
       <c r="B257" s="4"/>
       <c r="C257" s="4"/>
@@ -8315,7 +8377,7 @@
       <c r="AA257" s="1"/>
       <c r="AB257" s="1"/>
     </row>
-    <row r="258" ht="15.75" customHeight="1">
+    <row r="258" spans="1:28" ht="15.75" customHeight="1">
       <c r="A258" s="4"/>
       <c r="B258" s="4"/>
       <c r="C258" s="4"/>
@@ -8345,7 +8407,7 @@
       <c r="AA258" s="1"/>
       <c r="AB258" s="1"/>
     </row>
-    <row r="259" ht="15.75" customHeight="1">
+    <row r="259" spans="1:28" ht="15.75" customHeight="1">
       <c r="A259" s="4"/>
       <c r="B259" s="4"/>
       <c r="C259" s="4"/>
@@ -8375,7 +8437,7 @@
       <c r="AA259" s="1"/>
       <c r="AB259" s="1"/>
     </row>
-    <row r="260" ht="15.75" customHeight="1">
+    <row r="260" spans="1:28" ht="15.75" customHeight="1">
       <c r="A260" s="4"/>
       <c r="B260" s="4"/>
       <c r="C260" s="4"/>
@@ -8405,7 +8467,7 @@
       <c r="AA260" s="1"/>
       <c r="AB260" s="1"/>
     </row>
-    <row r="261" ht="15.75" customHeight="1">
+    <row r="261" spans="1:28" ht="15.75" customHeight="1">
       <c r="A261" s="4"/>
       <c r="B261" s="4"/>
       <c r="C261" s="4"/>
@@ -8435,7 +8497,7 @@
       <c r="AA261" s="1"/>
       <c r="AB261" s="1"/>
     </row>
-    <row r="262" ht="15.75" customHeight="1">
+    <row r="262" spans="1:28" ht="15.75" customHeight="1">
       <c r="A262" s="4"/>
       <c r="B262" s="4"/>
       <c r="C262" s="4"/>
@@ -8465,7 +8527,7 @@
       <c r="AA262" s="1"/>
       <c r="AB262" s="1"/>
     </row>
-    <row r="263" ht="15.75" customHeight="1">
+    <row r="263" spans="1:28" ht="15.75" customHeight="1">
       <c r="A263" s="4"/>
       <c r="B263" s="4"/>
       <c r="C263" s="4"/>
@@ -8495,7 +8557,7 @@
       <c r="AA263" s="1"/>
       <c r="AB263" s="1"/>
     </row>
-    <row r="264" ht="15.75" customHeight="1">
+    <row r="264" spans="1:28" ht="15.75" customHeight="1">
       <c r="A264" s="4"/>
       <c r="B264" s="4"/>
       <c r="C264" s="4"/>
@@ -8525,7 +8587,7 @@
       <c r="AA264" s="1"/>
       <c r="AB264" s="1"/>
     </row>
-    <row r="265" ht="15.75" customHeight="1">
+    <row r="265" spans="1:28" ht="15.75" customHeight="1">
       <c r="A265" s="4"/>
       <c r="B265" s="4"/>
       <c r="C265" s="4"/>
@@ -8555,7 +8617,7 @@
       <c r="AA265" s="1"/>
       <c r="AB265" s="1"/>
     </row>
-    <row r="266" ht="15.75" customHeight="1">
+    <row r="266" spans="1:28" ht="15.75" customHeight="1">
       <c r="A266" s="4"/>
       <c r="B266" s="4"/>
       <c r="C266" s="4"/>
@@ -8585,7 +8647,7 @@
       <c r="AA266" s="1"/>
       <c r="AB266" s="1"/>
     </row>
-    <row r="267" ht="15.75" customHeight="1">
+    <row r="267" spans="1:28" ht="15.75" customHeight="1">
       <c r="A267" s="4"/>
       <c r="B267" s="4"/>
       <c r="C267" s="4"/>
@@ -8615,7 +8677,7 @@
       <c r="AA267" s="1"/>
       <c r="AB267" s="1"/>
     </row>
-    <row r="268" ht="15.75" customHeight="1">
+    <row r="268" spans="1:28" ht="15.75" customHeight="1">
       <c r="A268" s="4"/>
       <c r="B268" s="4"/>
       <c r="C268" s="4"/>
@@ -8645,7 +8707,7 @@
       <c r="AA268" s="1"/>
       <c r="AB268" s="1"/>
     </row>
-    <row r="269" ht="15.75" customHeight="1">
+    <row r="269" spans="1:28" ht="15.75" customHeight="1">
       <c r="A269" s="4"/>
       <c r="B269" s="4"/>
       <c r="C269" s="4"/>
@@ -8675,7 +8737,7 @@
       <c r="AA269" s="1"/>
       <c r="AB269" s="1"/>
     </row>
-    <row r="270" ht="15.75" customHeight="1">
+    <row r="270" spans="1:28" ht="15.75" customHeight="1">
       <c r="A270" s="4"/>
       <c r="B270" s="4"/>
       <c r="C270" s="4"/>
@@ -8705,7 +8767,7 @@
       <c r="AA270" s="1"/>
       <c r="AB270" s="1"/>
     </row>
-    <row r="271" ht="15.75" customHeight="1">
+    <row r="271" spans="1:28" ht="15.75" customHeight="1">
       <c r="A271" s="4"/>
       <c r="B271" s="4"/>
       <c r="C271" s="4"/>
@@ -8735,7 +8797,7 @@
       <c r="AA271" s="1"/>
       <c r="AB271" s="1"/>
     </row>
-    <row r="272" ht="15.75" customHeight="1">
+    <row r="272" spans="1:28" ht="15.75" customHeight="1">
       <c r="A272" s="4"/>
       <c r="B272" s="4"/>
       <c r="C272" s="4"/>
@@ -8765,7 +8827,7 @@
       <c r="AA272" s="1"/>
       <c r="AB272" s="1"/>
     </row>
-    <row r="273" ht="15.75" customHeight="1">
+    <row r="273" spans="1:28" ht="15.75" customHeight="1">
       <c r="A273" s="4"/>
       <c r="B273" s="4"/>
       <c r="C273" s="4"/>
@@ -8795,7 +8857,7 @@
       <c r="AA273" s="1"/>
       <c r="AB273" s="1"/>
     </row>
-    <row r="274" ht="15.75" customHeight="1">
+    <row r="274" spans="1:28" ht="15.75" customHeight="1">
       <c r="A274" s="4"/>
       <c r="B274" s="4"/>
       <c r="C274" s="4"/>
@@ -8825,7 +8887,7 @@
       <c r="AA274" s="1"/>
       <c r="AB274" s="1"/>
     </row>
-    <row r="275" ht="15.75" customHeight="1">
+    <row r="275" spans="1:28" ht="15.75" customHeight="1">
       <c r="A275" s="4"/>
       <c r="B275" s="4"/>
       <c r="C275" s="4"/>
@@ -8855,7 +8917,7 @@
       <c r="AA275" s="1"/>
       <c r="AB275" s="1"/>
     </row>
-    <row r="276" ht="15.75" customHeight="1">
+    <row r="276" spans="1:28" ht="15.75" customHeight="1">
       <c r="A276" s="4"/>
       <c r="B276" s="4"/>
       <c r="C276" s="4"/>
@@ -8885,7 +8947,7 @@
       <c r="AA276" s="1"/>
       <c r="AB276" s="1"/>
     </row>
-    <row r="277" ht="15.75" customHeight="1">
+    <row r="277" spans="1:28" ht="15.75" customHeight="1">
       <c r="A277" s="4"/>
       <c r="B277" s="4"/>
       <c r="C277" s="4"/>
@@ -8915,7 +8977,7 @@
       <c r="AA277" s="1"/>
       <c r="AB277" s="1"/>
     </row>
-    <row r="278" ht="15.75" customHeight="1">
+    <row r="278" spans="1:28" ht="15.75" customHeight="1">
       <c r="A278" s="4"/>
       <c r="B278" s="4"/>
       <c r="C278" s="4"/>
@@ -8945,7 +9007,7 @@
       <c r="AA278" s="1"/>
       <c r="AB278" s="1"/>
     </row>
-    <row r="279" ht="15.75" customHeight="1">
+    <row r="279" spans="1:28" ht="15.75" customHeight="1">
       <c r="A279" s="4"/>
       <c r="B279" s="4"/>
       <c r="C279" s="4"/>
@@ -8975,7 +9037,7 @@
       <c r="AA279" s="1"/>
       <c r="AB279" s="1"/>
     </row>
-    <row r="280" ht="15.75" customHeight="1">
+    <row r="280" spans="1:28" ht="15.75" customHeight="1">
       <c r="A280" s="4"/>
       <c r="B280" s="4"/>
       <c r="C280" s="4"/>
@@ -9005,7 +9067,7 @@
       <c r="AA280" s="1"/>
       <c r="AB280" s="1"/>
     </row>
-    <row r="281" ht="15.75" customHeight="1">
+    <row r="281" spans="1:28" ht="15.75" customHeight="1">
       <c r="A281" s="4"/>
       <c r="B281" s="4"/>
       <c r="C281" s="4"/>
@@ -9035,7 +9097,7 @@
       <c r="AA281" s="1"/>
       <c r="AB281" s="1"/>
     </row>
-    <row r="282" ht="15.75" customHeight="1">
+    <row r="282" spans="1:28" ht="15.75" customHeight="1">
       <c r="A282" s="4"/>
       <c r="B282" s="4"/>
       <c r="C282" s="4"/>
@@ -9065,7 +9127,7 @@
       <c r="AA282" s="1"/>
       <c r="AB282" s="1"/>
     </row>
-    <row r="283" ht="15.75" customHeight="1">
+    <row r="283" spans="1:28" ht="15.75" customHeight="1">
       <c r="A283" s="4"/>
       <c r="B283" s="4"/>
       <c r="C283" s="4"/>
@@ -9095,7 +9157,7 @@
       <c r="AA283" s="1"/>
       <c r="AB283" s="1"/>
     </row>
-    <row r="284" ht="15.75" customHeight="1">
+    <row r="284" spans="1:28" ht="15.75" customHeight="1">
       <c r="A284" s="4"/>
       <c r="B284" s="4"/>
       <c r="C284" s="4"/>
@@ -9125,7 +9187,7 @@
       <c r="AA284" s="1"/>
       <c r="AB284" s="1"/>
     </row>
-    <row r="285" ht="15.75" customHeight="1">
+    <row r="285" spans="1:28" ht="15.75" customHeight="1">
       <c r="A285" s="4"/>
       <c r="B285" s="4"/>
       <c r="C285" s="4"/>
@@ -9155,7 +9217,7 @@
       <c r="AA285" s="1"/>
       <c r="AB285" s="1"/>
     </row>
-    <row r="286" ht="15.75" customHeight="1">
+    <row r="286" spans="1:28" ht="15.75" customHeight="1">
       <c r="A286" s="4"/>
       <c r="B286" s="4"/>
       <c r="C286" s="4"/>
@@ -9185,7 +9247,7 @@
       <c r="AA286" s="1"/>
       <c r="AB286" s="1"/>
     </row>
-    <row r="287" ht="15.75" customHeight="1">
+    <row r="287" spans="1:28" ht="15.75" customHeight="1">
       <c r="A287" s="4"/>
       <c r="B287" s="4"/>
       <c r="C287" s="4"/>
@@ -9215,7 +9277,7 @@
       <c r="AA287" s="1"/>
       <c r="AB287" s="1"/>
     </row>
-    <row r="288" ht="15.75" customHeight="1">
+    <row r="288" spans="1:28" ht="15.75" customHeight="1">
       <c r="A288" s="4"/>
       <c r="B288" s="4"/>
       <c r="C288" s="4"/>
@@ -9245,7 +9307,7 @@
       <c r="AA288" s="1"/>
       <c r="AB288" s="1"/>
     </row>
-    <row r="289" ht="15.75" customHeight="1">
+    <row r="289" spans="1:28" ht="15.75" customHeight="1">
       <c r="A289" s="4"/>
       <c r="B289" s="4"/>
       <c r="C289" s="4"/>
@@ -9275,7 +9337,7 @@
       <c r="AA289" s="1"/>
       <c r="AB289" s="1"/>
     </row>
-    <row r="290" ht="15.75" customHeight="1">
+    <row r="290" spans="1:28" ht="15.75" customHeight="1">
       <c r="A290" s="4"/>
       <c r="B290" s="4"/>
       <c r="C290" s="4"/>
@@ -9305,7 +9367,7 @@
       <c r="AA290" s="1"/>
       <c r="AB290" s="1"/>
     </row>
-    <row r="291" ht="15.75" customHeight="1">
+    <row r="291" spans="1:28" ht="15.75" customHeight="1">
       <c r="A291" s="4"/>
       <c r="B291" s="4"/>
       <c r="C291" s="4"/>
@@ -9335,7 +9397,7 @@
       <c r="AA291" s="1"/>
       <c r="AB291" s="1"/>
     </row>
-    <row r="292" ht="15.75" customHeight="1">
+    <row r="292" spans="1:28" ht="15.75" customHeight="1">
       <c r="A292" s="4"/>
       <c r="B292" s="4"/>
       <c r="C292" s="4"/>
@@ -9365,7 +9427,7 @@
       <c r="AA292" s="1"/>
       <c r="AB292" s="1"/>
     </row>
-    <row r="293" ht="15.75" customHeight="1">
+    <row r="293" spans="1:28" ht="15.75" customHeight="1">
       <c r="A293" s="4"/>
       <c r="B293" s="4"/>
       <c r="C293" s="4"/>
@@ -9395,7 +9457,7 @@
       <c r="AA293" s="1"/>
       <c r="AB293" s="1"/>
     </row>
-    <row r="294" ht="15.75" customHeight="1">
+    <row r="294" spans="1:28" ht="15.75" customHeight="1">
       <c r="A294" s="4"/>
       <c r="B294" s="4"/>
       <c r="C294" s="4"/>
@@ -9425,7 +9487,7 @@
       <c r="AA294" s="1"/>
       <c r="AB294" s="1"/>
     </row>
-    <row r="295" ht="15.75" customHeight="1">
+    <row r="295" spans="1:28" ht="15.75" customHeight="1">
       <c r="A295" s="4"/>
       <c r="B295" s="4"/>
       <c r="C295" s="4"/>
@@ -9455,7 +9517,7 @@
       <c r="AA295" s="1"/>
       <c r="AB295" s="1"/>
     </row>
-    <row r="296" ht="15.75" customHeight="1">
+    <row r="296" spans="1:28" ht="15.75" customHeight="1">
       <c r="A296" s="4"/>
       <c r="B296" s="4"/>
       <c r="C296" s="4"/>
@@ -9485,7 +9547,7 @@
       <c r="AA296" s="1"/>
       <c r="AB296" s="1"/>
     </row>
-    <row r="297" ht="15.75" customHeight="1">
+    <row r="297" spans="1:28" ht="15.75" customHeight="1">
       <c r="A297" s="4"/>
       <c r="B297" s="4"/>
       <c r="C297" s="4"/>
@@ -9515,7 +9577,7 @@
       <c r="AA297" s="1"/>
       <c r="AB297" s="1"/>
     </row>
-    <row r="298" ht="15.75" customHeight="1">
+    <row r="298" spans="1:28" ht="15.75" customHeight="1">
       <c r="A298" s="4"/>
       <c r="B298" s="4"/>
       <c r="C298" s="4"/>
@@ -9545,7 +9607,7 @@
       <c r="AA298" s="1"/>
       <c r="AB298" s="1"/>
     </row>
-    <row r="299" ht="15.75" customHeight="1">
+    <row r="299" spans="1:28" ht="15.75" customHeight="1">
       <c r="A299" s="4"/>
       <c r="B299" s="4"/>
       <c r="C299" s="4"/>
@@ -9575,7 +9637,7 @@
       <c r="AA299" s="1"/>
       <c r="AB299" s="1"/>
     </row>
-    <row r="300" ht="15.75" customHeight="1">
+    <row r="300" spans="1:28" ht="15.75" customHeight="1">
       <c r="A300" s="4"/>
       <c r="B300" s="4"/>
       <c r="C300" s="4"/>
@@ -9605,7 +9667,7 @@
       <c r="AA300" s="1"/>
       <c r="AB300" s="1"/>
     </row>
-    <row r="301" ht="15.75" customHeight="1">
+    <row r="301" spans="1:28" ht="15.75" customHeight="1">
       <c r="A301" s="4"/>
       <c r="B301" s="4"/>
       <c r="C301" s="4"/>
@@ -9635,7 +9697,7 @@
       <c r="AA301" s="1"/>
       <c r="AB301" s="1"/>
     </row>
-    <row r="302" ht="15.75" customHeight="1">
+    <row r="302" spans="1:28" ht="15.75" customHeight="1">
       <c r="A302" s="4"/>
       <c r="B302" s="4"/>
       <c r="C302" s="4"/>
@@ -9665,7 +9727,7 @@
       <c r="AA302" s="1"/>
       <c r="AB302" s="1"/>
     </row>
-    <row r="303" ht="15.75" customHeight="1">
+    <row r="303" spans="1:28" ht="15.75" customHeight="1">
       <c r="A303" s="4"/>
       <c r="B303" s="4"/>
       <c r="C303" s="4"/>
@@ -9695,7 +9757,7 @@
       <c r="AA303" s="1"/>
       <c r="AB303" s="1"/>
     </row>
-    <row r="304" ht="15.75" customHeight="1">
+    <row r="304" spans="1:28" ht="15.75" customHeight="1">
       <c r="A304" s="4"/>
       <c r="B304" s="4"/>
       <c r="C304" s="4"/>
@@ -9725,7 +9787,7 @@
       <c r="AA304" s="1"/>
       <c r="AB304" s="1"/>
     </row>
-    <row r="305" ht="15.75" customHeight="1">
+    <row r="305" spans="1:28" ht="15.75" customHeight="1">
       <c r="A305" s="4"/>
       <c r="B305" s="4"/>
       <c r="C305" s="4"/>
@@ -9755,7 +9817,7 @@
       <c r="AA305" s="1"/>
       <c r="AB305" s="1"/>
     </row>
-    <row r="306" ht="15.75" customHeight="1">
+    <row r="306" spans="1:28" ht="15.75" customHeight="1">
       <c r="A306" s="4"/>
       <c r="B306" s="4"/>
       <c r="C306" s="4"/>
@@ -9785,7 +9847,7 @@
       <c r="AA306" s="1"/>
       <c r="AB306" s="1"/>
     </row>
-    <row r="307" ht="15.75" customHeight="1">
+    <row r="307" spans="1:28" ht="15.75" customHeight="1">
       <c r="A307" s="4"/>
       <c r="B307" s="4"/>
       <c r="C307" s="4"/>
@@ -9815,7 +9877,7 @@
       <c r="AA307" s="1"/>
       <c r="AB307" s="1"/>
     </row>
-    <row r="308" ht="15.75" customHeight="1">
+    <row r="308" spans="1:28" ht="15.75" customHeight="1">
       <c r="A308" s="4"/>
       <c r="B308" s="4"/>
       <c r="C308" s="4"/>
@@ -9845,7 +9907,7 @@
       <c r="AA308" s="1"/>
       <c r="AB308" s="1"/>
     </row>
-    <row r="309" ht="15.75" customHeight="1">
+    <row r="309" spans="1:28" ht="15.75" customHeight="1">
       <c r="A309" s="4"/>
       <c r="B309" s="4"/>
       <c r="C309" s="4"/>
@@ -9875,7 +9937,7 @@
       <c r="AA309" s="1"/>
       <c r="AB309" s="1"/>
     </row>
-    <row r="310" ht="15.75" customHeight="1">
+    <row r="310" spans="1:28" ht="15.75" customHeight="1">
       <c r="A310" s="4"/>
       <c r="B310" s="4"/>
       <c r="C310" s="4"/>
@@ -9905,7 +9967,7 @@
       <c r="AA310" s="1"/>
       <c r="AB310" s="1"/>
     </row>
-    <row r="311" ht="15.75" customHeight="1">
+    <row r="311" spans="1:28" ht="15.75" customHeight="1">
       <c r="A311" s="4"/>
       <c r="B311" s="4"/>
       <c r="C311" s="4"/>
@@ -9935,7 +9997,7 @@
       <c r="AA311" s="1"/>
       <c r="AB311" s="1"/>
     </row>
-    <row r="312" ht="15.75" customHeight="1">
+    <row r="312" spans="1:28" ht="15.75" customHeight="1">
       <c r="A312" s="4"/>
       <c r="B312" s="4"/>
       <c r="C312" s="4"/>
@@ -9965,7 +10027,7 @@
       <c r="AA312" s="1"/>
       <c r="AB312" s="1"/>
     </row>
-    <row r="313" ht="15.75" customHeight="1">
+    <row r="313" spans="1:28" ht="15.75" customHeight="1">
       <c r="A313" s="4"/>
       <c r="B313" s="4"/>
       <c r="C313" s="4"/>
@@ -9995,7 +10057,7 @@
       <c r="AA313" s="1"/>
       <c r="AB313" s="1"/>
     </row>
-    <row r="314" ht="15.75" customHeight="1">
+    <row r="314" spans="1:28" ht="15.75" customHeight="1">
       <c r="A314" s="4"/>
       <c r="B314" s="4"/>
       <c r="C314" s="4"/>
@@ -10025,7 +10087,7 @@
       <c r="AA314" s="1"/>
       <c r="AB314" s="1"/>
     </row>
-    <row r="315" ht="15.75" customHeight="1">
+    <row r="315" spans="1:28" ht="15.75" customHeight="1">
       <c r="A315" s="4"/>
       <c r="B315" s="4"/>
       <c r="C315" s="4"/>
@@ -10055,7 +10117,7 @@
       <c r="AA315" s="1"/>
       <c r="AB315" s="1"/>
     </row>
-    <row r="316" ht="15.75" customHeight="1">
+    <row r="316" spans="1:28" ht="15.75" customHeight="1">
       <c r="A316" s="4"/>
       <c r="B316" s="4"/>
       <c r="C316" s="4"/>
@@ -10085,7 +10147,7 @@
       <c r="AA316" s="1"/>
       <c r="AB316" s="1"/>
     </row>
-    <row r="317" ht="15.75" customHeight="1">
+    <row r="317" spans="1:28" ht="15.75" customHeight="1">
       <c r="A317" s="4"/>
       <c r="B317" s="4"/>
       <c r="C317" s="4"/>
@@ -10115,7 +10177,7 @@
       <c r="AA317" s="1"/>
       <c r="AB317" s="1"/>
     </row>
-    <row r="318" ht="15.75" customHeight="1">
+    <row r="318" spans="1:28" ht="15.75" customHeight="1">
       <c r="A318" s="4"/>
       <c r="B318" s="4"/>
       <c r="C318" s="4"/>
@@ -10145,7 +10207,7 @@
       <c r="AA318" s="1"/>
       <c r="AB318" s="1"/>
     </row>
-    <row r="319" ht="15.75" customHeight="1">
+    <row r="319" spans="1:28" ht="15.75" customHeight="1">
       <c r="A319" s="4"/>
       <c r="B319" s="4"/>
       <c r="C319" s="4"/>
@@ -10175,7 +10237,7 @@
       <c r="AA319" s="1"/>
       <c r="AB319" s="1"/>
     </row>
-    <row r="320" ht="15.75" customHeight="1">
+    <row r="320" spans="1:28" ht="15.75" customHeight="1">
       <c r="A320" s="4"/>
       <c r="B320" s="4"/>
       <c r="C320" s="4"/>
@@ -10205,7 +10267,7 @@
       <c r="AA320" s="1"/>
       <c r="AB320" s="1"/>
     </row>
-    <row r="321" ht="15.75" customHeight="1">
+    <row r="321" spans="1:28" ht="15.75" customHeight="1">
       <c r="A321" s="4"/>
       <c r="B321" s="4"/>
       <c r="C321" s="4"/>
@@ -10235,7 +10297,7 @@
       <c r="AA321" s="1"/>
       <c r="AB321" s="1"/>
     </row>
-    <row r="322" ht="15.75" customHeight="1">
+    <row r="322" spans="1:28" ht="15.75" customHeight="1">
       <c r="A322" s="4"/>
       <c r="B322" s="4"/>
       <c r="C322" s="4"/>
@@ -10265,7 +10327,7 @@
       <c r="AA322" s="1"/>
       <c r="AB322" s="1"/>
     </row>
-    <row r="323" ht="15.75" customHeight="1">
+    <row r="323" spans="1:28" ht="15.75" customHeight="1">
       <c r="A323" s="4"/>
       <c r="B323" s="4"/>
       <c r="C323" s="4"/>
@@ -10295,7 +10357,7 @@
       <c r="AA323" s="1"/>
       <c r="AB323" s="1"/>
     </row>
-    <row r="324" ht="15.75" customHeight="1">
+    <row r="324" spans="1:28" ht="15.75" customHeight="1">
       <c r="A324" s="4"/>
       <c r="B324" s="4"/>
       <c r="C324" s="4"/>
@@ -10325,7 +10387,7 @@
       <c r="AA324" s="1"/>
       <c r="AB324" s="1"/>
     </row>
-    <row r="325" ht="15.75" customHeight="1">
+    <row r="325" spans="1:28" ht="15.75" customHeight="1">
       <c r="A325" s="4"/>
       <c r="B325" s="4"/>
       <c r="C325" s="4"/>
@@ -10355,7 +10417,7 @@
       <c r="AA325" s="1"/>
       <c r="AB325" s="1"/>
     </row>
-    <row r="326" ht="15.75" customHeight="1">
+    <row r="326" spans="1:28" ht="15.75" customHeight="1">
       <c r="A326" s="4"/>
       <c r="B326" s="4"/>
       <c r="C326" s="4"/>
@@ -10385,7 +10447,7 @@
       <c r="AA326" s="1"/>
       <c r="AB326" s="1"/>
     </row>
-    <row r="327" ht="15.75" customHeight="1">
+    <row r="327" spans="1:28" ht="15.75" customHeight="1">
       <c r="A327" s="4"/>
       <c r="B327" s="4"/>
       <c r="C327" s="4"/>
@@ -10415,7 +10477,7 @@
       <c r="AA327" s="1"/>
       <c r="AB327" s="1"/>
     </row>
-    <row r="328" ht="15.75" customHeight="1">
+    <row r="328" spans="1:28" ht="15.75" customHeight="1">
       <c r="A328" s="4"/>
       <c r="B328" s="4"/>
       <c r="C328" s="4"/>
@@ -10445,7 +10507,7 @@
       <c r="AA328" s="1"/>
       <c r="AB328" s="1"/>
     </row>
-    <row r="329" ht="15.75" customHeight="1">
+    <row r="329" spans="1:28" ht="15.75" customHeight="1">
       <c r="A329" s="4"/>
       <c r="B329" s="4"/>
       <c r="C329" s="4"/>
@@ -10475,7 +10537,7 @@
       <c r="AA329" s="1"/>
       <c r="AB329" s="1"/>
     </row>
-    <row r="330" ht="15.75" customHeight="1">
+    <row r="330" spans="1:28" ht="15.75" customHeight="1">
       <c r="A330" s="4"/>
       <c r="B330" s="4"/>
       <c r="C330" s="4"/>
@@ -10505,7 +10567,7 @@
       <c r="AA330" s="1"/>
       <c r="AB330" s="1"/>
     </row>
-    <row r="331" ht="15.75" customHeight="1">
+    <row r="331" spans="1:28" ht="15.75" customHeight="1">
       <c r="A331" s="4"/>
       <c r="B331" s="4"/>
       <c r="C331" s="4"/>
@@ -10535,7 +10597,7 @@
       <c r="AA331" s="1"/>
       <c r="AB331" s="1"/>
     </row>
-    <row r="332" ht="15.75" customHeight="1">
+    <row r="332" spans="1:28" ht="15.75" customHeight="1">
       <c r="A332" s="4"/>
       <c r="B332" s="4"/>
       <c r="C332" s="4"/>
@@ -10565,7 +10627,7 @@
       <c r="AA332" s="1"/>
       <c r="AB332" s="1"/>
     </row>
-    <row r="333" ht="15.75" customHeight="1">
+    <row r="333" spans="1:28" ht="15.75" customHeight="1">
       <c r="A333" s="4"/>
       <c r="B333" s="4"/>
       <c r="C333" s="4"/>
@@ -10595,7 +10657,7 @@
       <c r="AA333" s="1"/>
       <c r="AB333" s="1"/>
     </row>
-    <row r="334" ht="15.75" customHeight="1">
+    <row r="334" spans="1:28" ht="15.75" customHeight="1">
       <c r="A334" s="4"/>
       <c r="B334" s="4"/>
       <c r="C334" s="4"/>
@@ -10625,7 +10687,7 @@
       <c r="AA334" s="1"/>
       <c r="AB334" s="1"/>
     </row>
-    <row r="335" ht="15.75" customHeight="1">
+    <row r="335" spans="1:28" ht="15.75" customHeight="1">
       <c r="A335" s="4"/>
       <c r="B335" s="4"/>
       <c r="C335" s="4"/>
@@ -10655,7 +10717,7 @@
       <c r="AA335" s="1"/>
       <c r="AB335" s="1"/>
     </row>
-    <row r="336" ht="15.75" customHeight="1">
+    <row r="336" spans="1:28" ht="15.75" customHeight="1">
       <c r="A336" s="4"/>
       <c r="B336" s="4"/>
       <c r="C336" s="4"/>
@@ -10685,7 +10747,7 @@
       <c r="AA336" s="1"/>
       <c r="AB336" s="1"/>
     </row>
-    <row r="337" ht="15.75" customHeight="1">
+    <row r="337" spans="1:28" ht="15.75" customHeight="1">
       <c r="A337" s="4"/>
       <c r="B337" s="4"/>
       <c r="C337" s="4"/>
@@ -10715,7 +10777,7 @@
       <c r="AA337" s="1"/>
       <c r="AB337" s="1"/>
     </row>
-    <row r="338" ht="15.75" customHeight="1">
+    <row r="338" spans="1:28" ht="15.75" customHeight="1">
       <c r="A338" s="4"/>
       <c r="B338" s="4"/>
       <c r="C338" s="4"/>
@@ -10745,7 +10807,7 @@
       <c r="AA338" s="1"/>
       <c r="AB338" s="1"/>
     </row>
-    <row r="339" ht="15.75" customHeight="1">
+    <row r="339" spans="1:28" ht="15.75" customHeight="1">
       <c r="A339" s="4"/>
       <c r="B339" s="4"/>
       <c r="C339" s="4"/>
@@ -10775,7 +10837,7 @@
       <c r="AA339" s="1"/>
       <c r="AB339" s="1"/>
     </row>
-    <row r="340" ht="15.75" customHeight="1">
+    <row r="340" spans="1:28" ht="15.75" customHeight="1">
       <c r="A340" s="4"/>
       <c r="B340" s="4"/>
       <c r="C340" s="4"/>
@@ -10805,7 +10867,7 @@
       <c r="AA340" s="1"/>
       <c r="AB340" s="1"/>
     </row>
-    <row r="341" ht="15.75" customHeight="1">
+    <row r="341" spans="1:28" ht="15.75" customHeight="1">
       <c r="A341" s="4"/>
       <c r="B341" s="4"/>
       <c r="C341" s="4"/>
@@ -10835,7 +10897,7 @@
       <c r="AA341" s="1"/>
       <c r="AB341" s="1"/>
     </row>
-    <row r="342" ht="15.75" customHeight="1">
+    <row r="342" spans="1:28" ht="15.75" customHeight="1">
       <c r="A342" s="4"/>
       <c r="B342" s="4"/>
       <c r="C342" s="4"/>
@@ -10865,7 +10927,7 @@
       <c r="AA342" s="1"/>
       <c r="AB342" s="1"/>
     </row>
-    <row r="343" ht="15.75" customHeight="1">
+    <row r="343" spans="1:28" ht="15.75" customHeight="1">
       <c r="A343" s="4"/>
       <c r="B343" s="4"/>
       <c r="C343" s="4"/>
@@ -10895,7 +10957,7 @@
       <c r="AA343" s="1"/>
       <c r="AB343" s="1"/>
     </row>
-    <row r="344" ht="15.75" customHeight="1">
+    <row r="344" spans="1:28" ht="15.75" customHeight="1">
       <c r="A344" s="4"/>
       <c r="B344" s="4"/>
       <c r="C344" s="4"/>
@@ -10925,7 +10987,7 @@
       <c r="AA344" s="1"/>
       <c r="AB344" s="1"/>
     </row>
-    <row r="345" ht="15.75" customHeight="1">
+    <row r="345" spans="1:28" ht="15.75" customHeight="1">
       <c r="A345" s="4"/>
       <c r="B345" s="4"/>
       <c r="C345" s="4"/>
@@ -10955,7 +11017,7 @@
       <c r="AA345" s="1"/>
       <c r="AB345" s="1"/>
     </row>
-    <row r="346" ht="15.75" customHeight="1">
+    <row r="346" spans="1:28" ht="15.75" customHeight="1">
       <c r="A346" s="4"/>
       <c r="B346" s="4"/>
       <c r="C346" s="4"/>
@@ -10985,7 +11047,7 @@
       <c r="AA346" s="1"/>
       <c r="AB346" s="1"/>
     </row>
-    <row r="347" ht="15.75" customHeight="1">
+    <row r="347" spans="1:28" ht="15.75" customHeight="1">
       <c r="A347" s="4"/>
       <c r="B347" s="4"/>
       <c r="C347" s="4"/>
@@ -11015,7 +11077,7 @@
       <c r="AA347" s="1"/>
       <c r="AB347" s="1"/>
     </row>
-    <row r="348" ht="15.75" customHeight="1">
+    <row r="348" spans="1:28" ht="15.75" customHeight="1">
       <c r="A348" s="4"/>
       <c r="B348" s="4"/>
       <c r="C348" s="4"/>
@@ -11045,7 +11107,7 @@
       <c r="AA348" s="1"/>
       <c r="AB348" s="1"/>
     </row>
-    <row r="349" ht="15.75" customHeight="1">
+    <row r="349" spans="1:28" ht="15.75" customHeight="1">
       <c r="A349" s="4"/>
       <c r="B349" s="4"/>
       <c r="C349" s="4"/>
@@ -11075,7 +11137,7 @@
       <c r="AA349" s="1"/>
       <c r="AB349" s="1"/>
     </row>
-    <row r="350" ht="15.75" customHeight="1">
+    <row r="350" spans="1:28" ht="15.75" customHeight="1">
       <c r="A350" s="4"/>
       <c r="B350" s="4"/>
       <c r="C350" s="4"/>
@@ -11105,7 +11167,7 @@
       <c r="AA350" s="1"/>
       <c r="AB350" s="1"/>
     </row>
-    <row r="351" ht="15.75" customHeight="1">
+    <row r="351" spans="1:28" ht="15.75" customHeight="1">
       <c r="A351" s="4"/>
       <c r="B351" s="4"/>
       <c r="C351" s="4"/>
@@ -11135,7 +11197,7 @@
       <c r="AA351" s="1"/>
       <c r="AB351" s="1"/>
     </row>
-    <row r="352" ht="15.75" customHeight="1">
+    <row r="352" spans="1:28" ht="15.75" customHeight="1">
       <c r="A352" s="4"/>
       <c r="B352" s="4"/>
       <c r="C352" s="4"/>
@@ -11165,7 +11227,7 @@
       <c r="AA352" s="1"/>
       <c r="AB352" s="1"/>
     </row>
-    <row r="353" ht="15.75" customHeight="1">
+    <row r="353" spans="1:28" ht="15.75" customHeight="1">
       <c r="A353" s="4"/>
       <c r="B353" s="4"/>
       <c r="C353" s="4"/>
@@ -11195,7 +11257,7 @@
       <c r="AA353" s="1"/>
       <c r="AB353" s="1"/>
     </row>
-    <row r="354" ht="15.75" customHeight="1">
+    <row r="354" spans="1:28" ht="15.75" customHeight="1">
       <c r="A354" s="4"/>
       <c r="B354" s="4"/>
       <c r="C354" s="4"/>
@@ -11225,7 +11287,7 @@
       <c r="AA354" s="1"/>
       <c r="AB354" s="1"/>
     </row>
-    <row r="355" ht="15.75" customHeight="1">
+    <row r="355" spans="1:28" ht="15.75" customHeight="1">
       <c r="A355" s="4"/>
       <c r="B355" s="4"/>
       <c r="C355" s="4"/>
@@ -11255,7 +11317,7 @@
       <c r="AA355" s="1"/>
       <c r="AB355" s="1"/>
     </row>
-    <row r="356" ht="15.75" customHeight="1">
+    <row r="356" spans="1:28" ht="15.75" customHeight="1">
       <c r="A356" s="4"/>
       <c r="B356" s="4"/>
       <c r="C356" s="4"/>
@@ -11285,7 +11347,7 @@
       <c r="AA356" s="1"/>
       <c r="AB356" s="1"/>
     </row>
-    <row r="357" ht="15.75" customHeight="1">
+    <row r="357" spans="1:28" ht="15.75" customHeight="1">
       <c r="A357" s="4"/>
       <c r="B357" s="4"/>
       <c r="C357" s="4"/>
@@ -11315,7 +11377,7 @@
       <c r="AA357" s="1"/>
       <c r="AB357" s="1"/>
     </row>
-    <row r="358" ht="15.75" customHeight="1">
+    <row r="358" spans="1:28" ht="15.75" customHeight="1">
       <c r="A358" s="4"/>
       <c r="B358" s="4"/>
       <c r="C358" s="4"/>
@@ -11345,7 +11407,7 @@
       <c r="AA358" s="1"/>
       <c r="AB358" s="1"/>
     </row>
-    <row r="359" ht="15.75" customHeight="1">
+    <row r="359" spans="1:28" ht="15.75" customHeight="1">
       <c r="A359" s="4"/>
       <c r="B359" s="4"/>
       <c r="C359" s="4"/>
@@ -11375,7 +11437,7 @@
       <c r="AA359" s="1"/>
       <c r="AB359" s="1"/>
     </row>
-    <row r="360" ht="15.75" customHeight="1">
+    <row r="360" spans="1:28" ht="15.75" customHeight="1">
       <c r="A360" s="4"/>
       <c r="B360" s="4"/>
       <c r="C360" s="4"/>
@@ -11405,7 +11467,7 @@
       <c r="AA360" s="1"/>
       <c r="AB360" s="1"/>
     </row>
-    <row r="361" ht="15.75" customHeight="1">
+    <row r="361" spans="1:28" ht="15.75" customHeight="1">
       <c r="A361" s="4"/>
       <c r="B361" s="4"/>
       <c r="C361" s="4"/>
@@ -11435,7 +11497,7 @@
       <c r="AA361" s="1"/>
       <c r="AB361" s="1"/>
     </row>
-    <row r="362" ht="15.75" customHeight="1">
+    <row r="362" spans="1:28" ht="15.75" customHeight="1">
       <c r="A362" s="4"/>
       <c r="B362" s="4"/>
       <c r="C362" s="4"/>
@@ -11465,7 +11527,7 @@
       <c r="AA362" s="1"/>
       <c r="AB362" s="1"/>
     </row>
-    <row r="363" ht="15.75" customHeight="1">
+    <row r="363" spans="1:28" ht="15.75" customHeight="1">
       <c r="A363" s="4"/>
       <c r="B363" s="4"/>
       <c r="C363" s="4"/>
@@ -11495,7 +11557,7 @@
       <c r="AA363" s="1"/>
       <c r="AB363" s="1"/>
     </row>
-    <row r="364" ht="15.75" customHeight="1">
+    <row r="364" spans="1:28" ht="15.75" customHeight="1">
       <c r="A364" s="4"/>
       <c r="B364" s="4"/>
       <c r="C364" s="4"/>
@@ -11525,7 +11587,7 @@
       <c r="AA364" s="1"/>
       <c r="AB364" s="1"/>
     </row>
-    <row r="365" ht="15.75" customHeight="1">
+    <row r="365" spans="1:28" ht="15.75" customHeight="1">
       <c r="A365" s="4"/>
       <c r="B365" s="4"/>
       <c r="C365" s="4"/>
@@ -11555,7 +11617,7 @@
       <c r="AA365" s="1"/>
       <c r="AB365" s="1"/>
     </row>
-    <row r="366" ht="15.75" customHeight="1">
+    <row r="366" spans="1:28" ht="15.75" customHeight="1">
       <c r="A366" s="4"/>
       <c r="B366" s="4"/>
       <c r="C366" s="4"/>
@@ -11585,7 +11647,7 @@
       <c r="AA366" s="1"/>
       <c r="AB366" s="1"/>
     </row>
-    <row r="367" ht="15.75" customHeight="1">
+    <row r="367" spans="1:28" ht="15.75" customHeight="1">
       <c r="A367" s="4"/>
       <c r="B367" s="4"/>
       <c r="C367" s="4"/>
@@ -11615,7 +11677,7 @@
       <c r="AA367" s="1"/>
       <c r="AB367" s="1"/>
     </row>
-    <row r="368" ht="15.75" customHeight="1">
+    <row r="368" spans="1:28" ht="15.75" customHeight="1">
       <c r="A368" s="4"/>
       <c r="B368" s="4"/>
       <c r="C368" s="4"/>
@@ -11645,7 +11707,7 @@
       <c r="AA368" s="1"/>
       <c r="AB368" s="1"/>
     </row>
-    <row r="369" ht="15.75" customHeight="1">
+    <row r="369" spans="1:28" ht="15.75" customHeight="1">
       <c r="A369" s="4"/>
       <c r="B369" s="4"/>
       <c r="C369" s="4"/>
@@ -11675,7 +11737,7 @@
       <c r="AA369" s="1"/>
       <c r="AB369" s="1"/>
     </row>
-    <row r="370" ht="15.75" customHeight="1">
+    <row r="370" spans="1:28" ht="15.75" customHeight="1">
       <c r="A370" s="4"/>
       <c r="B370" s="4"/>
       <c r="C370" s="4"/>
@@ -11705,7 +11767,7 @@
       <c r="AA370" s="1"/>
       <c r="AB370" s="1"/>
     </row>
-    <row r="371" ht="15.75" customHeight="1">
+    <row r="371" spans="1:28" ht="15.75" customHeight="1">
       <c r="A371" s="4"/>
       <c r="B371" s="4"/>
       <c r="C371" s="4"/>
@@ -11735,7 +11797,7 @@
       <c r="AA371" s="1"/>
       <c r="AB371" s="1"/>
     </row>
-    <row r="372" ht="15.75" customHeight="1">
+    <row r="372" spans="1:28" ht="15.75" customHeight="1">
       <c r="A372" s="4"/>
       <c r="B372" s="4"/>
       <c r="C372" s="4"/>
@@ -11765,7 +11827,7 @@
       <c r="AA372" s="1"/>
       <c r="AB372" s="1"/>
     </row>
-    <row r="373" ht="15.75" customHeight="1">
+    <row r="373" spans="1:28" ht="15.75" customHeight="1">
       <c r="A373" s="4"/>
       <c r="B373" s="4"/>
       <c r="C373" s="4"/>
@@ -11795,7 +11857,7 @@
       <c r="AA373" s="1"/>
       <c r="AB373" s="1"/>
     </row>
-    <row r="374" ht="15.75" customHeight="1">
+    <row r="374" spans="1:28" ht="15.75" customHeight="1">
       <c r="A374" s="4"/>
       <c r="B374" s="4"/>
       <c r="C374" s="4"/>
@@ -11825,7 +11887,7 @@
       <c r="AA374" s="1"/>
       <c r="AB374" s="1"/>
     </row>
-    <row r="375" ht="15.75" customHeight="1">
+    <row r="375" spans="1:28" ht="15.75" customHeight="1">
       <c r="A375" s="4"/>
       <c r="B375" s="4"/>
       <c r="C375" s="4"/>
@@ -11855,7 +11917,7 @@
       <c r="AA375" s="1"/>
       <c r="AB375" s="1"/>
     </row>
-    <row r="376" ht="15.75" customHeight="1">
+    <row r="376" spans="1:28" ht="15.75" customHeight="1">
       <c r="A376" s="4"/>
       <c r="B376" s="4"/>
       <c r="C376" s="4"/>
@@ -11885,7 +11947,7 @@
       <c r="AA376" s="1"/>
       <c r="AB376" s="1"/>
     </row>
-    <row r="377" ht="15.75" customHeight="1">
+    <row r="377" spans="1:28" ht="15.75" customHeight="1">
       <c r="A377" s="4"/>
       <c r="B377" s="4"/>
       <c r="C377" s="4"/>
@@ -11915,7 +11977,7 @@
       <c r="AA377" s="1"/>
       <c r="AB377" s="1"/>
     </row>
-    <row r="378" ht="15.75" customHeight="1">
+    <row r="378" spans="1:28" ht="15.75" customHeight="1">
       <c r="A378" s="4"/>
       <c r="B378" s="4"/>
       <c r="C378" s="4"/>
@@ -11945,7 +12007,7 @@
       <c r="AA378" s="1"/>
       <c r="AB378" s="1"/>
     </row>
-    <row r="379" ht="15.75" customHeight="1">
+    <row r="379" spans="1:28" ht="15.75" customHeight="1">
       <c r="A379" s="4"/>
       <c r="B379" s="4"/>
       <c r="C379" s="4"/>
@@ -11975,7 +12037,7 @@
       <c r="AA379" s="1"/>
       <c r="AB379" s="1"/>
     </row>
-    <row r="380" ht="15.75" customHeight="1">
+    <row r="380" spans="1:28" ht="15.75" customHeight="1">
       <c r="A380" s="4"/>
       <c r="B380" s="4"/>
       <c r="C380" s="4"/>
@@ -12005,7 +12067,7 @@
       <c r="AA380" s="1"/>
       <c r="AB380" s="1"/>
     </row>
-    <row r="381" ht="15.75" customHeight="1">
+    <row r="381" spans="1:28" ht="15.75" customHeight="1">
       <c r="A381" s="4"/>
       <c r="B381" s="4"/>
       <c r="C381" s="4"/>
@@ -12035,7 +12097,7 @@
       <c r="AA381" s="1"/>
       <c r="AB381" s="1"/>
     </row>
-    <row r="382" ht="15.75" customHeight="1">
+    <row r="382" spans="1:28" ht="15.75" customHeight="1">
       <c r="A382" s="4"/>
       <c r="B382" s="4"/>
       <c r="C382" s="4"/>
@@ -12065,7 +12127,7 @@
       <c r="AA382" s="1"/>
       <c r="AB382" s="1"/>
     </row>
-    <row r="383" ht="15.75" customHeight="1">
+    <row r="383" spans="1:28" ht="15.75" customHeight="1">
       <c r="A383" s="4"/>
       <c r="B383" s="4"/>
       <c r="C383" s="4"/>
@@ -12095,7 +12157,7 @@
       <c r="AA383" s="1"/>
       <c r="AB383" s="1"/>
     </row>
-    <row r="384" ht="15.75" customHeight="1">
+    <row r="384" spans="1:28" ht="15.75" customHeight="1">
       <c r="A384" s="4"/>
       <c r="B384" s="4"/>
       <c r="C384" s="4"/>
@@ -12125,7 +12187,7 @@
       <c r="AA384" s="1"/>
       <c r="AB384" s="1"/>
     </row>
-    <row r="385" ht="15.75" customHeight="1">
+    <row r="385" spans="1:28" ht="15.75" customHeight="1">
       <c r="A385" s="4"/>
       <c r="B385" s="4"/>
       <c r="C385" s="4"/>
@@ -12155,7 +12217,7 @@
       <c r="AA385" s="1"/>
       <c r="AB385" s="1"/>
     </row>
-    <row r="386" ht="15.75" customHeight="1">
+    <row r="386" spans="1:28" ht="15.75" customHeight="1">
       <c r="A386" s="4"/>
       <c r="B386" s="4"/>
       <c r="C386" s="4"/>
@@ -12185,7 +12247,7 @@
       <c r="AA386" s="1"/>
       <c r="AB386" s="1"/>
     </row>
-    <row r="387" ht="15.75" customHeight="1">
+    <row r="387" spans="1:28" ht="15.75" customHeight="1">
       <c r="A387" s="4"/>
       <c r="B387" s="4"/>
       <c r="C387" s="4"/>
@@ -12215,7 +12277,7 @@
       <c r="AA387" s="1"/>
       <c r="AB387" s="1"/>
     </row>
-    <row r="388" ht="15.75" customHeight="1">
+    <row r="388" spans="1:28" ht="15.75" customHeight="1">
       <c r="A388" s="4"/>
       <c r="B388" s="4"/>
       <c r="C388" s="4"/>
@@ -12245,7 +12307,7 @@
       <c r="AA388" s="1"/>
       <c r="AB388" s="1"/>
     </row>
-    <row r="389" ht="15.75" customHeight="1">
+    <row r="389" spans="1:28" ht="15.75" customHeight="1">
       <c r="A389" s="4"/>
       <c r="B389" s="4"/>
       <c r="C389" s="4"/>
@@ -12275,7 +12337,7 @@
       <c r="AA389" s="1"/>
       <c r="AB389" s="1"/>
     </row>
-    <row r="390" ht="15.75" customHeight="1">
+    <row r="390" spans="1:28" ht="15.75" customHeight="1">
       <c r="A390" s="4"/>
       <c r="B390" s="4"/>
       <c r="C390" s="4"/>
@@ -12305,7 +12367,7 @@
       <c r="AA390" s="1"/>
       <c r="AB390" s="1"/>
     </row>
-    <row r="391" ht="15.75" customHeight="1">
+    <row r="391" spans="1:28" ht="15.75" customHeight="1">
       <c r="A391" s="4"/>
       <c r="B391" s="4"/>
       <c r="C391" s="4"/>
@@ -12335,7 +12397,7 @@
       <c r="AA391" s="1"/>
       <c r="AB391" s="1"/>
     </row>
-    <row r="392" ht="15.75" customHeight="1">
+    <row r="392" spans="1:28" ht="15.75" customHeight="1">
       <c r="A392" s="4"/>
       <c r="B392" s="4"/>
       <c r="C392" s="4"/>
@@ -12365,7 +12427,7 @@
       <c r="AA392" s="1"/>
       <c r="AB392" s="1"/>
     </row>
-    <row r="393" ht="15.75" customHeight="1">
+    <row r="393" spans="1:28" ht="15.75" customHeight="1">
       <c r="A393" s="4"/>
       <c r="B393" s="4"/>
       <c r="C393" s="4"/>
@@ -12395,7 +12457,7 @@
       <c r="AA393" s="1"/>
       <c r="AB393" s="1"/>
     </row>
-    <row r="394" ht="15.75" customHeight="1">
+    <row r="394" spans="1:28" ht="15.75" customHeight="1">
       <c r="A394" s="4"/>
       <c r="B394" s="4"/>
       <c r="C394" s="4"/>
@@ -12425,7 +12487,7 @@
       <c r="AA394" s="1"/>
       <c r="AB394" s="1"/>
     </row>
-    <row r="395" ht="15.75" customHeight="1">
+    <row r="395" spans="1:28" ht="15.75" customHeight="1">
       <c r="A395" s="4"/>
       <c r="B395" s="4"/>
       <c r="C395" s="4"/>
@@ -12455,7 +12517,7 @@
       <c r="AA395" s="1"/>
       <c r="AB395" s="1"/>
     </row>
-    <row r="396" ht="15.75" customHeight="1">
+    <row r="396" spans="1:28" ht="15.75" customHeight="1">
       <c r="A396" s="4"/>
       <c r="B396" s="4"/>
       <c r="C396" s="4"/>
@@ -12485,7 +12547,7 @@
       <c r="AA396" s="1"/>
       <c r="AB396" s="1"/>
     </row>
-    <row r="397" ht="15.75" customHeight="1">
+    <row r="397" spans="1:28" ht="15.75" customHeight="1">
       <c r="A397" s="4"/>
       <c r="B397" s="4"/>
       <c r="C397" s="4"/>
@@ -12515,7 +12577,7 @@
       <c r="AA397" s="1"/>
       <c r="AB397" s="1"/>
     </row>
-    <row r="398" ht="15.75" customHeight="1">
+    <row r="398" spans="1:28" ht="15.75" customHeight="1">
       <c r="A398" s="4"/>
       <c r="B398" s="4"/>
       <c r="C398" s="4"/>
@@ -12545,7 +12607,7 @@
       <c r="AA398" s="1"/>
       <c r="AB398" s="1"/>
     </row>
-    <row r="399" ht="15.75" customHeight="1">
+    <row r="399" spans="1:28" ht="15.75" customHeight="1">
       <c r="A399" s="4"/>
       <c r="B399" s="4"/>
       <c r="C399" s="4"/>
@@ -12575,7 +12637,7 @@
       <c r="AA399" s="1"/>
       <c r="AB399" s="1"/>
     </row>
-    <row r="400" ht="15.75" customHeight="1">
+    <row r="400" spans="1:28" ht="15.75" customHeight="1">
       <c r="A400" s="4"/>
       <c r="B400" s="4"/>
       <c r="C400" s="4"/>
@@ -12605,7 +12667,7 @@
       <c r="AA400" s="1"/>
       <c r="AB400" s="1"/>
     </row>
-    <row r="401" ht="15.75" customHeight="1">
+    <row r="401" spans="1:28" ht="15.75" customHeight="1">
       <c r="A401" s="4"/>
       <c r="B401" s="4"/>
       <c r="C401" s="4"/>
@@ -12635,7 +12697,7 @@
       <c r="AA401" s="1"/>
       <c r="AB401" s="1"/>
     </row>
-    <row r="402" ht="15.75" customHeight="1">
+    <row r="402" spans="1:28" ht="15.75" customHeight="1">
       <c r="A402" s="4"/>
       <c r="B402" s="4"/>
       <c r="C402" s="4"/>
@@ -12665,7 +12727,7 @@
       <c r="AA402" s="1"/>
       <c r="AB402" s="1"/>
     </row>
-    <row r="403" ht="15.75" customHeight="1">
+    <row r="403" spans="1:28" ht="15.75" customHeight="1">
       <c r="A403" s="4"/>
       <c r="B403" s="4"/>
       <c r="C403" s="4"/>
@@ -12695,7 +12757,7 @@
       <c r="AA403" s="1"/>
       <c r="AB403" s="1"/>
     </row>
-    <row r="404" ht="15.75" customHeight="1">
+    <row r="404" spans="1:28" ht="15.75" customHeight="1">
       <c r="A404" s="4"/>
       <c r="B404" s="4"/>
       <c r="C404" s="4"/>
@@ -12725,7 +12787,7 @@
       <c r="AA404" s="1"/>
       <c r="AB404" s="1"/>
     </row>
-    <row r="405" ht="15.75" customHeight="1">
+    <row r="405" spans="1:28" ht="15.75" customHeight="1">
       <c r="A405" s="4"/>
       <c r="B405" s="4"/>
       <c r="C405" s="4"/>
@@ -12755,7 +12817,7 @@
       <c r="AA405" s="1"/>
       <c r="AB405" s="1"/>
     </row>
-    <row r="406" ht="15.75" customHeight="1">
+    <row r="406" spans="1:28" ht="15.75" customHeight="1">
       <c r="A406" s="4"/>
       <c r="B406" s="4"/>
       <c r="C406" s="4"/>
@@ -12785,7 +12847,7 @@
       <c r="AA406" s="1"/>
       <c r="AB406" s="1"/>
     </row>
-    <row r="407" ht="15.75" customHeight="1">
+    <row r="407" spans="1:28" ht="15.75" customHeight="1">
       <c r="A407" s="4"/>
       <c r="B407" s="4"/>
       <c r="C407" s="4"/>
@@ -12815,7 +12877,7 @@
       <c r="AA407" s="1"/>
       <c r="AB407" s="1"/>
     </row>
-    <row r="408" ht="15.75" customHeight="1">
+    <row r="408" spans="1:28" ht="15.75" customHeight="1">
       <c r="A408" s="4"/>
       <c r="B408" s="4"/>
       <c r="C408" s="4"/>
@@ -12845,7 +12907,7 @@
       <c r="AA408" s="1"/>
       <c r="AB408" s="1"/>
     </row>
-    <row r="409" ht="15.75" customHeight="1">
+    <row r="409" spans="1:28" ht="15.75" customHeight="1">
       <c r="A409" s="4"/>
       <c r="B409" s="4"/>
       <c r="C409" s="4"/>
@@ -12875,7 +12937,7 @@
       <c r="AA409" s="1"/>
       <c r="AB409" s="1"/>
     </row>
-    <row r="410" ht="15.75" customHeight="1">
+    <row r="410" spans="1:28" ht="15.75" customHeight="1">
       <c r="A410" s="4"/>
       <c r="B410" s="4"/>
       <c r="C410" s="4"/>
@@ -12905,7 +12967,7 @@
       <c r="AA410" s="1"/>
       <c r="AB410" s="1"/>
     </row>
-    <row r="411" ht="15.75" customHeight="1">
+    <row r="411" spans="1:28" ht="15.75" customHeight="1">
       <c r="A411" s="4"/>
       <c r="B411" s="4"/>
       <c r="C411" s="4"/>
@@ -12935,7 +12997,7 @@
       <c r="AA411" s="1"/>
       <c r="AB411" s="1"/>
     </row>
-    <row r="412" ht="15.75" customHeight="1">
+    <row r="412" spans="1:28" ht="15.75" customHeight="1">
       <c r="A412" s="4"/>
       <c r="B412" s="4"/>
       <c r="C412" s="4"/>
@@ -12965,7 +13027,7 @@
       <c r="AA412" s="1"/>
       <c r="AB412" s="1"/>
     </row>
-    <row r="413" ht="15.75" customHeight="1">
+    <row r="413" spans="1:28" ht="15.75" customHeight="1">
       <c r="A413" s="4"/>
       <c r="B413" s="4"/>
       <c r="C413" s="4"/>
@@ -12995,7 +13057,7 @@
       <c r="AA413" s="1"/>
       <c r="AB413" s="1"/>
     </row>
-    <row r="414" ht="15.75" customHeight="1">
+    <row r="414" spans="1:28" ht="15.75" customHeight="1">
       <c r="A414" s="4"/>
       <c r="B414" s="4"/>
       <c r="C414" s="4"/>
@@ -13025,7 +13087,7 @@
       <c r="AA414" s="1"/>
       <c r="AB414" s="1"/>
     </row>
-    <row r="415" ht="15.75" customHeight="1">
+    <row r="415" spans="1:28" ht="15.75" customHeight="1">
       <c r="A415" s="4"/>
       <c r="B415" s="4"/>
       <c r="C415" s="4"/>
@@ -13055,7 +13117,7 @@
       <c r="AA415" s="1"/>
       <c r="AB415" s="1"/>
     </row>
-    <row r="416" ht="15.75" customHeight="1">
+    <row r="416" spans="1:28" ht="15.75" customHeight="1">
       <c r="A416" s="4"/>
       <c r="B416" s="4"/>
       <c r="C416" s="4"/>
@@ -13085,7 +13147,7 @@
       <c r="AA416" s="1"/>
       <c r="AB416" s="1"/>
     </row>
-    <row r="417" ht="15.75" customHeight="1">
+    <row r="417" spans="1:28" ht="15.75" customHeight="1">
       <c r="A417" s="4"/>
       <c r="B417" s="4"/>
       <c r="C417" s="4"/>
@@ -13115,7 +13177,7 @@
       <c r="AA417" s="1"/>
       <c r="AB417" s="1"/>
     </row>
-    <row r="418" ht="15.75" customHeight="1">
+    <row r="418" spans="1:28" ht="15.75" customHeight="1">
       <c r="A418" s="4"/>
       <c r="B418" s="4"/>
       <c r="C418" s="4"/>
@@ -13145,7 +13207,7 @@
       <c r="AA418" s="1"/>
       <c r="AB418" s="1"/>
     </row>
-    <row r="419" ht="15.75" customHeight="1">
+    <row r="419" spans="1:28" ht="15.75" customHeight="1">
       <c r="A419" s="4"/>
       <c r="B419" s="4"/>
       <c r="C419" s="4"/>
@@ -13175,7 +13237,7 @@
       <c r="AA419" s="1"/>
       <c r="AB419" s="1"/>
     </row>
-    <row r="420" ht="15.75" customHeight="1">
+    <row r="420" spans="1:28" ht="15.75" customHeight="1">
       <c r="A420" s="4"/>
       <c r="B420" s="4"/>
       <c r="C420" s="4"/>
@@ -13205,7 +13267,7 @@
       <c r="AA420" s="1"/>
       <c r="AB420" s="1"/>
     </row>
-    <row r="421" ht="15.75" customHeight="1">
+    <row r="421" spans="1:28" ht="15.75" customHeight="1">
       <c r="A421" s="4"/>
       <c r="B421" s="4"/>
       <c r="C421" s="4"/>
@@ -13235,7 +13297,7 @@
       <c r="AA421" s="1"/>
       <c r="AB421" s="1"/>
     </row>
-    <row r="422" ht="15.75" customHeight="1">
+    <row r="422" spans="1:28" ht="15.75" customHeight="1">
       <c r="A422" s="4"/>
       <c r="B422" s="4"/>
       <c r="C422" s="4"/>
@@ -13265,7 +13327,7 @@
       <c r="AA422" s="1"/>
       <c r="AB422" s="1"/>
     </row>
-    <row r="423" ht="15.75" customHeight="1">
+    <row r="423" spans="1:28" ht="15.75" customHeight="1">
       <c r="A423" s="4"/>
       <c r="B423" s="4"/>
       <c r="C423" s="4"/>
@@ -13295,7 +13357,7 @@
       <c r="AA423" s="1"/>
       <c r="AB423" s="1"/>
     </row>
-    <row r="424" ht="15.75" customHeight="1">
+    <row r="424" spans="1:28" ht="15.75" customHeight="1">
       <c r="A424" s="4"/>
       <c r="B424" s="4"/>
       <c r="C424" s="4"/>
@@ -13325,7 +13387,7 @@
       <c r="AA424" s="1"/>
       <c r="AB424" s="1"/>
     </row>
-    <row r="425" ht="15.75" customHeight="1">
+    <row r="425" spans="1:28" ht="15.75" customHeight="1">
       <c r="A425" s="4"/>
       <c r="B425" s="4"/>
       <c r="C425" s="4"/>
@@ -13355,7 +13417,7 @@
       <c r="AA425" s="1"/>
       <c r="AB425" s="1"/>
     </row>
-    <row r="426" ht="15.75" customHeight="1">
+    <row r="426" spans="1:28" ht="15.75" customHeight="1">
       <c r="A426" s="4"/>
       <c r="B426" s="4"/>
       <c r="C426" s="4"/>
@@ -13385,7 +13447,7 @@
       <c r="AA426" s="1"/>
       <c r="AB426" s="1"/>
     </row>
-    <row r="427" ht="15.75" customHeight="1">
+    <row r="427" spans="1:28" ht="15.75" customHeight="1">
       <c r="A427" s="4"/>
       <c r="B427" s="4"/>
       <c r="C427" s="4"/>
@@ -13415,7 +13477,7 @@
       <c r="AA427" s="1"/>
       <c r="AB427" s="1"/>
     </row>
-    <row r="428" ht="15.75" customHeight="1">
+    <row r="428" spans="1:28" ht="15.75" customHeight="1">
       <c r="A428" s="4"/>
       <c r="B428" s="4"/>
       <c r="C428" s="4"/>
@@ -13445,7 +13507,7 @@
       <c r="AA428" s="1"/>
       <c r="AB428" s="1"/>
     </row>
-    <row r="429" ht="15.75" customHeight="1">
+    <row r="429" spans="1:28" ht="15.75" customHeight="1">
       <c r="A429" s="4"/>
       <c r="B429" s="4"/>
       <c r="C429" s="4"/>
@@ -13475,7 +13537,7 @@
       <c r="AA429" s="1"/>
       <c r="AB429" s="1"/>
     </row>
-    <row r="430" ht="15.75" customHeight="1">
+    <row r="430" spans="1:28" ht="15.75" customHeight="1">
       <c r="A430" s="4"/>
       <c r="B430" s="4"/>
       <c r="C430" s="4"/>
@@ -13505,7 +13567,7 @@
       <c r="AA430" s="1"/>
       <c r="AB430" s="1"/>
     </row>
-    <row r="431" ht="15.75" customHeight="1">
+    <row r="431" spans="1:28" ht="15.75" customHeight="1">
       <c r="A431" s="4"/>
       <c r="B431" s="4"/>
       <c r="C431" s="4"/>
@@ -13535,7 +13597,7 @@
       <c r="AA431" s="1"/>
       <c r="AB431" s="1"/>
     </row>
-    <row r="432" ht="15.75" customHeight="1">
+    <row r="432" spans="1:28" ht="15.75" customHeight="1">
       <c r="A432" s="4"/>
       <c r="B432" s="4"/>
       <c r="C432" s="4"/>
@@ -13565,7 +13627,7 @@
       <c r="AA432" s="1"/>
       <c r="AB432" s="1"/>
     </row>
-    <row r="433" ht="15.75" customHeight="1">
+    <row r="433" spans="1:28" ht="15.75" customHeight="1">
       <c r="A433" s="4"/>
       <c r="B433" s="4"/>
       <c r="C433" s="4"/>
@@ -13595,7 +13657,7 @@
       <c r="AA433" s="1"/>
       <c r="AB433" s="1"/>
     </row>
-    <row r="434" ht="15.75" customHeight="1">
+    <row r="434" spans="1:28" ht="15.75" customHeight="1">
       <c r="A434" s="4"/>
       <c r="B434" s="4"/>
       <c r="C434" s="4"/>
@@ -13625,7 +13687,7 @@
       <c r="AA434" s="1"/>
       <c r="AB434" s="1"/>
     </row>
-    <row r="435" ht="15.75" customHeight="1">
+    <row r="435" spans="1:28" ht="15.75" customHeight="1">
       <c r="A435" s="4"/>
       <c r="B435" s="4"/>
       <c r="C435" s="4"/>
@@ -13655,7 +13717,7 @@
       <c r="AA435" s="1"/>
       <c r="AB435" s="1"/>
     </row>
-    <row r="436" ht="15.75" customHeight="1">
+    <row r="436" spans="1:28" ht="15.75" customHeight="1">
       <c r="A436" s="4"/>
       <c r="B436" s="4"/>
       <c r="C436" s="4"/>
@@ -13685,7 +13747,7 @@
       <c r="AA436" s="1"/>
       <c r="AB436" s="1"/>
     </row>
-    <row r="437" ht="15.75" customHeight="1">
+    <row r="437" spans="1:28" ht="15.75" customHeight="1">
       <c r="A437" s="4"/>
       <c r="B437" s="4"/>
       <c r="C437" s="4"/>
@@ -13715,7 +13777,7 @@
       <c r="AA437" s="1"/>
       <c r="AB437" s="1"/>
     </row>
-    <row r="438" ht="15.75" customHeight="1">
+    <row r="438" spans="1:28" ht="15.75" customHeight="1">
       <c r="A438" s="4"/>
       <c r="B438" s="4"/>
       <c r="C438" s="4"/>
@@ -13745,7 +13807,7 @@
       <c r="AA438" s="1"/>
       <c r="AB438" s="1"/>
     </row>
-    <row r="439" ht="15.75" customHeight="1">
+    <row r="439" spans="1:28" ht="15.75" customHeight="1">
       <c r="A439" s="4"/>
       <c r="B439" s="4"/>
       <c r="C439" s="4"/>
@@ -13775,7 +13837,7 @@
       <c r="AA439" s="1"/>
       <c r="AB439" s="1"/>
     </row>
-    <row r="440" ht="15.75" customHeight="1">
+    <row r="440" spans="1:28" ht="15.75" customHeight="1">
       <c r="A440" s="4"/>
       <c r="B440" s="4"/>
       <c r="C440" s="4"/>
@@ -13805,7 +13867,7 @@
       <c r="AA440" s="1"/>
       <c r="AB440" s="1"/>
     </row>
-    <row r="441" ht="15.75" customHeight="1">
+    <row r="441" spans="1:28" ht="15.75" customHeight="1">
       <c r="A441" s="4"/>
       <c r="B441" s="4"/>
       <c r="C441" s="4"/>
@@ -13835,7 +13897,7 @@
       <c r="AA441" s="1"/>
       <c r="AB441" s="1"/>
     </row>
-    <row r="442" ht="15.75" customHeight="1">
+    <row r="442" spans="1:28" ht="15.75" customHeight="1">
       <c r="A442" s="4"/>
       <c r="B442" s="4"/>
       <c r="C442" s="4"/>
@@ -13865,7 +13927,7 @@
       <c r="AA442" s="1"/>
       <c r="AB442" s="1"/>
     </row>
-    <row r="443" ht="15.75" customHeight="1">
+    <row r="443" spans="1:28" ht="15.75" customHeight="1">
       <c r="A443" s="4"/>
       <c r="B443" s="4"/>
       <c r="C443" s="4"/>
@@ -13895,7 +13957,7 @@
       <c r="AA443" s="1"/>
       <c r="AB443" s="1"/>
     </row>
-    <row r="444" ht="15.75" customHeight="1">
+    <row r="444" spans="1:28" ht="15.75" customHeight="1">
       <c r="A444" s="4"/>
       <c r="B444" s="4"/>
       <c r="C444" s="4"/>
@@ -13925,7 +13987,7 @@
       <c r="AA444" s="1"/>
       <c r="AB444" s="1"/>
     </row>
-    <row r="445" ht="15.75" customHeight="1">
+    <row r="445" spans="1:28" ht="15.75" customHeight="1">
       <c r="A445" s="4"/>
       <c r="B445" s="4"/>
       <c r="C445" s="4"/>
@@ -13955,7 +14017,7 @@
       <c r="AA445" s="1"/>
       <c r="AB445" s="1"/>
     </row>
-    <row r="446" ht="15.75" customHeight="1">
+    <row r="446" spans="1:28" ht="15.75" customHeight="1">
       <c r="A446" s="4"/>
       <c r="B446" s="4"/>
       <c r="C446" s="4"/>
@@ -13985,7 +14047,7 @@
       <c r="AA446" s="1"/>
       <c r="AB446" s="1"/>
     </row>
-    <row r="447" ht="15.75" customHeight="1">
+    <row r="447" spans="1:28" ht="15.75" customHeight="1">
       <c r="A447" s="4"/>
       <c r="B447" s="4"/>
       <c r="C447" s="4"/>
@@ -14015,7 +14077,7 @@
       <c r="AA447" s="1"/>
       <c r="AB447" s="1"/>
     </row>
-    <row r="448" ht="15.75" customHeight="1">
+    <row r="448" spans="1:28" ht="15.75" customHeight="1">
       <c r="A448" s="4"/>
       <c r="B448" s="4"/>
       <c r="C448" s="4"/>
@@ -14045,7 +14107,7 @@
       <c r="AA448" s="1"/>
       <c r="AB448" s="1"/>
     </row>
-    <row r="449" ht="15.75" customHeight="1">
+    <row r="449" spans="1:28" ht="15.75" customHeight="1">
       <c r="A449" s="4"/>
       <c r="B449" s="4"/>
       <c r="C449" s="4"/>
@@ -14075,7 +14137,7 @@
       <c r="AA449" s="1"/>
       <c r="AB449" s="1"/>
     </row>
-    <row r="450" ht="15.75" customHeight="1">
+    <row r="450" spans="1:28" ht="15.75" customHeight="1">
       <c r="A450" s="4"/>
       <c r="B450" s="4"/>
       <c r="C450" s="4"/>
@@ -14105,7 +14167,7 @@
       <c r="AA450" s="1"/>
       <c r="AB450" s="1"/>
     </row>
-    <row r="451" ht="15.75" customHeight="1">
+    <row r="451" spans="1:28" ht="15.75" customHeight="1">
       <c r="A451" s="4"/>
       <c r="B451" s="4"/>
       <c r="C451" s="4"/>
@@ -14135,7 +14197,7 @@
       <c r="AA451" s="1"/>
       <c r="AB451" s="1"/>
     </row>
-    <row r="452" ht="15.75" customHeight="1">
+    <row r="452" spans="1:28" ht="15.75" customHeight="1">
       <c r="A452" s="4"/>
       <c r="B452" s="4"/>
       <c r="C452" s="4"/>
@@ -14165,7 +14227,7 @@
       <c r="AA452" s="1"/>
       <c r="AB452" s="1"/>
     </row>
-    <row r="453" ht="15.75" customHeight="1">
+    <row r="453" spans="1:28" ht="15.75" customHeight="1">
       <c r="A453" s="4"/>
       <c r="B453" s="4"/>
       <c r="C453" s="4"/>
@@ -14195,7 +14257,7 @@
       <c r="AA453" s="1"/>
       <c r="AB453" s="1"/>
     </row>
-    <row r="454" ht="15.75" customHeight="1">
+    <row r="454" spans="1:28" ht="15.75" customHeight="1">
       <c r="A454" s="4"/>
       <c r="B454" s="4"/>
       <c r="C454" s="4"/>
@@ -14225,7 +14287,7 @@
       <c r="AA454" s="1"/>
       <c r="AB454" s="1"/>
     </row>
-    <row r="455" ht="15.75" customHeight="1">
+    <row r="455" spans="1:28" ht="15.75" customHeight="1">
       <c r="A455" s="4"/>
       <c r="B455" s="4"/>
       <c r="C455" s="4"/>
@@ -14255,7 +14317,7 @@
       <c r="AA455" s="1"/>
       <c r="AB455" s="1"/>
     </row>
-    <row r="456" ht="15.75" customHeight="1">
+    <row r="456" spans="1:28" ht="15.75" customHeight="1">
       <c r="A456" s="4"/>
       <c r="B456" s="4"/>
       <c r="C456" s="4"/>
@@ -14285,7 +14347,7 @@
       <c r="AA456" s="1"/>
       <c r="AB456" s="1"/>
     </row>
-    <row r="457" ht="15.75" customHeight="1">
+    <row r="457" spans="1:28" ht="15.75" customHeight="1">
       <c r="A457" s="4"/>
       <c r="B457" s="4"/>
       <c r="C457" s="4"/>
@@ -14315,7 +14377,7 @@
       <c r="AA457" s="1"/>
       <c r="AB457" s="1"/>
     </row>
-    <row r="458" ht="15.75" customHeight="1">
+    <row r="458" spans="1:28" ht="15.75" customHeight="1">
       <c r="A458" s="4"/>
       <c r="B458" s="4"/>
       <c r="C458" s="4"/>
@@ -14345,7 +14407,7 @@
       <c r="AA458" s="1"/>
       <c r="AB458" s="1"/>
     </row>
-    <row r="459" ht="15.75" customHeight="1">
+    <row r="459" spans="1:28" ht="15.75" customHeight="1">
       <c r="A459" s="4"/>
       <c r="B459" s="4"/>
       <c r="C459" s="4"/>
@@ -14375,7 +14437,7 @@
       <c r="AA459" s="1"/>
       <c r="AB459" s="1"/>
     </row>
-    <row r="460" ht="15.75" customHeight="1">
+    <row r="460" spans="1:28" ht="15.75" customHeight="1">
       <c r="A460" s="4"/>
       <c r="B460" s="4"/>
       <c r="C460" s="4"/>
@@ -14405,7 +14467,7 @@
       <c r="AA460" s="1"/>
       <c r="AB460" s="1"/>
     </row>
-    <row r="461" ht="15.75" customHeight="1">
+    <row r="461" spans="1:28" ht="15.75" customHeight="1">
       <c r="A461" s="4"/>
       <c r="B461" s="4"/>
       <c r="C461" s="4"/>
@@ -14435,7 +14497,7 @@
       <c r="AA461" s="1"/>
       <c r="AB461" s="1"/>
     </row>
-    <row r="462" ht="15.75" customHeight="1">
+    <row r="462" spans="1:28" ht="15.75" customHeight="1">
       <c r="A462" s="4"/>
       <c r="B462" s="4"/>
       <c r="C462" s="4"/>
@@ -14465,7 +14527,7 @@
       <c r="AA462" s="1"/>
       <c r="AB462" s="1"/>
     </row>
-    <row r="463" ht="15.75" customHeight="1">
+    <row r="463" spans="1:28" ht="15.75" customHeight="1">
       <c r="A463" s="4"/>
       <c r="B463" s="4"/>
       <c r="C463" s="4"/>
@@ -14495,7 +14557,7 @@
       <c r="AA463" s="1"/>
       <c r="AB463" s="1"/>
     </row>
-    <row r="464" ht="15.75" customHeight="1">
+    <row r="464" spans="1:28" ht="15.75" customHeight="1">
       <c r="A464" s="4"/>
       <c r="B464" s="4"/>
       <c r="C464" s="4"/>
@@ -14525,7 +14587,7 @@
       <c r="AA464" s="1"/>
       <c r="AB464" s="1"/>
     </row>
-    <row r="465" ht="15.75" customHeight="1">
+    <row r="465" spans="1:28" ht="15.75" customHeight="1">
       <c r="A465" s="4"/>
       <c r="B465" s="4"/>
       <c r="C465" s="4"/>
@@ -14555,7 +14617,7 @@
       <c r="AA465" s="1"/>
       <c r="AB465" s="1"/>
     </row>
-    <row r="466" ht="15.75" customHeight="1">
+    <row r="466" spans="1:28" ht="15.75" customHeight="1">
       <c r="A466" s="4"/>
       <c r="B466" s="4"/>
       <c r="C466" s="4"/>
@@ -14585,7 +14647,7 @@
       <c r="AA466" s="1"/>
       <c r="AB466" s="1"/>
     </row>
-    <row r="467" ht="15.75" customHeight="1">
+    <row r="467" spans="1:28" ht="15.75" customHeight="1">
       <c r="A467" s="4"/>
       <c r="B467" s="4"/>
       <c r="C467" s="4"/>
@@ -14615,7 +14677,7 @@
       <c r="AA467" s="1"/>
       <c r="AB467" s="1"/>
     </row>
-    <row r="468" ht="15.75" customHeight="1">
+    <row r="468" spans="1:28" ht="15.75" customHeight="1">
       <c r="A468" s="4"/>
       <c r="B468" s="4"/>
       <c r="C468" s="4"/>
@@ -14645,7 +14707,7 @@
       <c r="AA468" s="1"/>
       <c r="AB468" s="1"/>
     </row>
-    <row r="469" ht="15.75" customHeight="1">
+    <row r="469" spans="1:28" ht="15.75" customHeight="1">
       <c r="A469" s="4"/>
       <c r="B469" s="4"/>
       <c r="C469" s="4"/>
@@ -14675,7 +14737,7 @@
       <c r="AA469" s="1"/>
       <c r="AB469" s="1"/>
     </row>
-    <row r="470" ht="15.75" customHeight="1">
+    <row r="470" spans="1:28" ht="15.75" customHeight="1">
       <c r="A470" s="4"/>
       <c r="B470" s="4"/>
       <c r="C470" s="4"/>
@@ -14705,7 +14767,7 @@
       <c r="AA470" s="1"/>
       <c r="AB470" s="1"/>
     </row>
-    <row r="471" ht="15.75" customHeight="1">
+    <row r="471" spans="1:28" ht="15.75" customHeight="1">
       <c r="A471" s="4"/>
       <c r="B471" s="4"/>
       <c r="C471" s="4"/>
@@ -14735,7 +14797,7 @@
       <c r="AA471" s="1"/>
       <c r="AB471" s="1"/>
     </row>
-    <row r="472" ht="15.75" customHeight="1">
+    <row r="472" spans="1:28" ht="15.75" customHeight="1">
       <c r="A472" s="4"/>
       <c r="B472" s="4"/>
       <c r="C472" s="4"/>
@@ -14765,7 +14827,7 @@
       <c r="AA472" s="1"/>
       <c r="AB472" s="1"/>
     </row>
-    <row r="473" ht="15.75" customHeight="1">
+    <row r="473" spans="1:28" ht="15.75" customHeight="1">
       <c r="A473" s="4"/>
       <c r="B473" s="4"/>
       <c r="C473" s="4"/>
@@ -14795,7 +14857,7 @@
       <c r="AA473" s="1"/>
       <c r="AB473" s="1"/>
     </row>
-    <row r="474" ht="15.75" customHeight="1">
+    <row r="474" spans="1:28" ht="15.75" customHeight="1">
       <c r="A474" s="4"/>
       <c r="B474" s="4"/>
       <c r="C474" s="4"/>
@@ -14825,7 +14887,7 @@
       <c r="AA474" s="1"/>
       <c r="AB474" s="1"/>
     </row>
-    <row r="475" ht="15.75" customHeight="1">
+    <row r="475" spans="1:28" ht="15.75" customHeight="1">
       <c r="A475" s="4"/>
       <c r="B475" s="4"/>
       <c r="C475" s="4"/>
@@ -14855,7 +14917,7 @@
       <c r="AA475" s="1"/>
       <c r="AB475" s="1"/>
     </row>
-    <row r="476" ht="15.75" customHeight="1">
+    <row r="476" spans="1:28" ht="15.75" customHeight="1">
       <c r="A476" s="4"/>
       <c r="B476" s="4"/>
       <c r="C476" s="4"/>
@@ -14885,7 +14947,7 @@
       <c r="AA476" s="1"/>
       <c r="AB476" s="1"/>
     </row>
-    <row r="477" ht="15.75" customHeight="1">
+    <row r="477" spans="1:28" ht="15.75" customHeight="1">
       <c r="A477" s="4"/>
       <c r="B477" s="4"/>
       <c r="C477" s="4"/>
@@ -14915,7 +14977,7 @@
       <c r="AA477" s="1"/>
       <c r="AB477" s="1"/>
     </row>
-    <row r="478" ht="15.75" customHeight="1">
+    <row r="478" spans="1:28" ht="15.75" customHeight="1">
       <c r="A478" s="4"/>
       <c r="B478" s="4"/>
       <c r="C478" s="4"/>
@@ -14945,7 +15007,7 @@
       <c r="AA478" s="1"/>
       <c r="AB478" s="1"/>
     </row>
-    <row r="479" ht="15.75" customHeight="1">
+    <row r="479" spans="1:28" ht="15.75" customHeight="1">
       <c r="A479" s="4"/>
       <c r="B479" s="4"/>
       <c r="C479" s="4"/>
@@ -14975,7 +15037,7 @@
       <c r="AA479" s="1"/>
       <c r="AB479" s="1"/>
     </row>
-    <row r="480" ht="15.75" customHeight="1">
+    <row r="480" spans="1:28" ht="15.75" customHeight="1">
       <c r="A480" s="4"/>
       <c r="B480" s="4"/>
       <c r="C480" s="4"/>
@@ -15005,7 +15067,7 @@
       <c r="AA480" s="1"/>
       <c r="AB480" s="1"/>
     </row>
-    <row r="481" ht="15.75" customHeight="1">
+    <row r="481" spans="1:28" ht="15.75" customHeight="1">
       <c r="A481" s="4"/>
       <c r="B481" s="4"/>
       <c r="C481" s="4"/>
@@ -15035,7 +15097,7 @@
       <c r="AA481" s="1"/>
       <c r="AB481" s="1"/>
     </row>
-    <row r="482" ht="15.75" customHeight="1">
+    <row r="482" spans="1:28" ht="15.75" customHeight="1">
       <c r="A482" s="4"/>
       <c r="B482" s="4"/>
       <c r="C482" s="4"/>
@@ -15065,7 +15127,7 @@
       <c r="AA482" s="1"/>
       <c r="AB482" s="1"/>
     </row>
-    <row r="483" ht="15.75" customHeight="1">
+    <row r="483" spans="1:28" ht="15.75" customHeight="1">
       <c r="A483" s="4"/>
       <c r="B483" s="4"/>
       <c r="C483" s="4"/>
@@ -15095,7 +15157,7 @@
       <c r="AA483" s="1"/>
       <c r="AB483" s="1"/>
     </row>
-    <row r="484" ht="15.75" customHeight="1">
+    <row r="484" spans="1:28" ht="15.75" customHeight="1">
       <c r="A484" s="4"/>
       <c r="B484" s="4"/>
       <c r="C484" s="4"/>
@@ -15125,7 +15187,7 @@
       <c r="AA484" s="1"/>
       <c r="AB484" s="1"/>
     </row>
-    <row r="485" ht="15.75" customHeight="1">
+    <row r="485" spans="1:28" ht="15.75" customHeight="1">
       <c r="A485" s="4"/>
       <c r="B485" s="4"/>
       <c r="C485" s="4"/>
@@ -15155,7 +15217,7 @@
       <c r="AA485" s="1"/>
       <c r="AB485" s="1"/>
     </row>
-    <row r="486" ht="15.75" customHeight="1">
+    <row r="486" spans="1:28" ht="15.75" customHeight="1">
       <c r="A486" s="4"/>
       <c r="B486" s="4"/>
       <c r="C486" s="4"/>
@@ -15185,7 +15247,7 @@
       <c r="AA486" s="1"/>
       <c r="AB486" s="1"/>
     </row>
-    <row r="487" ht="15.75" customHeight="1">
+    <row r="487" spans="1:28" ht="15.75" customHeight="1">
       <c r="A487" s="4"/>
       <c r="B487" s="4"/>
       <c r="C487" s="4"/>
@@ -15215,7 +15277,7 @@
       <c r="AA487" s="1"/>
       <c r="AB487" s="1"/>
     </row>
-    <row r="488" ht="15.75" customHeight="1">
+    <row r="488" spans="1:28" ht="15.75" customHeight="1">
       <c r="A488" s="4"/>
       <c r="B488" s="4"/>
       <c r="C488" s="4"/>
@@ -15245,7 +15307,7 @@
       <c r="AA488" s="1"/>
       <c r="AB488" s="1"/>
     </row>
-    <row r="489" ht="15.75" customHeight="1">
+    <row r="489" spans="1:28" ht="15.75" customHeight="1">
       <c r="A489" s="4"/>
       <c r="B489" s="4"/>
       <c r="C489" s="4"/>
@@ -15275,7 +15337,7 @@
       <c r="AA489" s="1"/>
       <c r="AB489" s="1"/>
     </row>
-    <row r="490" ht="15.75" customHeight="1">
+    <row r="490" spans="1:28" ht="15.75" customHeight="1">
       <c r="A490" s="4"/>
       <c r="B490" s="4"/>
       <c r="C490" s="4"/>
@@ -15305,7 +15367,7 @@
       <c r="AA490" s="1"/>
       <c r="AB490" s="1"/>
     </row>
-    <row r="491" ht="15.75" customHeight="1">
+    <row r="491" spans="1:28" ht="15.75" customHeight="1">
       <c r="A491" s="4"/>
       <c r="B491" s="4"/>
       <c r="C491" s="4"/>
@@ -15335,7 +15397,7 @@
       <c r="AA491" s="1"/>
       <c r="AB491" s="1"/>
     </row>
-    <row r="492" ht="15.75" customHeight="1">
+    <row r="492" spans="1:28" ht="15.75" customHeight="1">
       <c r="A492" s="4"/>
       <c r="B492" s="4"/>
       <c r="C492" s="4"/>
@@ -15365,7 +15427,7 @@
       <c r="AA492" s="1"/>
       <c r="AB492" s="1"/>
     </row>
-    <row r="493" ht="15.75" customHeight="1">
+    <row r="493" spans="1:28" ht="15.75" customHeight="1">
       <c r="A493" s="4"/>
       <c r="B493" s="4"/>
       <c r="C493" s="4"/>
@@ -15395,7 +15457,7 @@
       <c r="AA493" s="1"/>
       <c r="AB493" s="1"/>
     </row>
-    <row r="494" ht="15.75" customHeight="1">
+    <row r="494" spans="1:28" ht="15.75" customHeight="1">
       <c r="A494" s="4"/>
       <c r="B494" s="4"/>
       <c r="C494" s="4"/>
@@ -15425,7 +15487,7 @@
       <c r="AA494" s="1"/>
       <c r="AB494" s="1"/>
     </row>
-    <row r="495" ht="15.75" customHeight="1">
+    <row r="495" spans="1:28" ht="15.75" customHeight="1">
       <c r="A495" s="4"/>
       <c r="B495" s="4"/>
       <c r="C495" s="4"/>
@@ -15455,7 +15517,7 @@
       <c r="AA495" s="1"/>
       <c r="AB495" s="1"/>
     </row>
-    <row r="496" ht="15.75" customHeight="1">
+    <row r="496" spans="1:28" ht="15.75" customHeight="1">
       <c r="A496" s="4"/>
       <c r="B496" s="4"/>
       <c r="C496" s="4"/>
@@ -15485,7 +15547,7 @@
       <c r="AA496" s="1"/>
       <c r="AB496" s="1"/>
     </row>
-    <row r="497" ht="15.75" customHeight="1">
+    <row r="497" spans="1:28" ht="15.75" customHeight="1">
       <c r="A497" s="4"/>
       <c r="B497" s="4"/>
       <c r="C497" s="4"/>
@@ -15515,7 +15577,7 @@
       <c r="AA497" s="1"/>
       <c r="AB497" s="1"/>
     </row>
-    <row r="498" ht="15.75" customHeight="1">
+    <row r="498" spans="1:28" ht="15.75" customHeight="1">
       <c r="A498" s="4"/>
       <c r="B498" s="4"/>
       <c r="C498" s="4"/>
@@ -15545,7 +15607,7 @@
       <c r="AA498" s="1"/>
       <c r="AB498" s="1"/>
     </row>
-    <row r="499" ht="15.75" customHeight="1">
+    <row r="499" spans="1:28" ht="15.75" customHeight="1">
       <c r="A499" s="4"/>
       <c r="B499" s="4"/>
       <c r="C499" s="4"/>
@@ -15575,7 +15637,7 @@
       <c r="AA499" s="1"/>
       <c r="AB499" s="1"/>
     </row>
-    <row r="500" ht="15.75" customHeight="1">
+    <row r="500" spans="1:28" ht="15.75" customHeight="1">
       <c r="A500" s="4"/>
       <c r="B500" s="4"/>
       <c r="C500" s="4"/>
@@ -15605,7 +15667,7 @@
       <c r="AA500" s="1"/>
       <c r="AB500" s="1"/>
     </row>
-    <row r="501" ht="15.75" customHeight="1">
+    <row r="501" spans="1:28" ht="15.75" customHeight="1">
       <c r="A501" s="4"/>
       <c r="B501" s="4"/>
       <c r="C501" s="4"/>
@@ -15635,7 +15697,7 @@
       <c r="AA501" s="1"/>
       <c r="AB501" s="1"/>
     </row>
-    <row r="502" ht="15.75" customHeight="1">
+    <row r="502" spans="1:28" ht="15.75" customHeight="1">
       <c r="A502" s="4"/>
       <c r="B502" s="4"/>
       <c r="C502" s="4"/>
@@ -15665,7 +15727,7 @@
       <c r="AA502" s="1"/>
       <c r="AB502" s="1"/>
     </row>
-    <row r="503" ht="15.75" customHeight="1">
+    <row r="503" spans="1:28" ht="15.75" customHeight="1">
       <c r="A503" s="4"/>
       <c r="B503" s="4"/>
       <c r="C503" s="4"/>
@@ -15695,7 +15757,7 @@
       <c r="AA503" s="1"/>
       <c r="AB503" s="1"/>
     </row>
-    <row r="504" ht="15.75" customHeight="1">
+    <row r="504" spans="1:28" ht="15.75" customHeight="1">
       <c r="A504" s="4"/>
       <c r="B504" s="4"/>
       <c r="C504" s="4"/>
@@ -15725,7 +15787,7 @@
       <c r="AA504" s="1"/>
       <c r="AB504" s="1"/>
     </row>
-    <row r="505" ht="15.75" customHeight="1">
+    <row r="505" spans="1:28" ht="15.75" customHeight="1">
       <c r="A505" s="4"/>
       <c r="B505" s="4"/>
       <c r="C505" s="4"/>
@@ -15755,7 +15817,7 @@
       <c r="AA505" s="1"/>
       <c r="AB505" s="1"/>
     </row>
-    <row r="506" ht="15.75" customHeight="1">
+    <row r="506" spans="1:28" ht="15.75" customHeight="1">
       <c r="A506" s="4"/>
       <c r="B506" s="4"/>
       <c r="C506" s="4"/>
@@ -15785,7 +15847,7 @@
       <c r="AA506" s="1"/>
       <c r="AB506" s="1"/>
     </row>
-    <row r="507" ht="15.75" customHeight="1">
+    <row r="507" spans="1:28" ht="15.75" customHeight="1">
       <c r="A507" s="4"/>
       <c r="B507" s="4"/>
       <c r="C507" s="4"/>
@@ -15815,7 +15877,7 @@
       <c r="AA507" s="1"/>
       <c r="AB507" s="1"/>
     </row>
-    <row r="508" ht="15.75" customHeight="1">
+    <row r="508" spans="1:28" ht="15.75" customHeight="1">
       <c r="A508" s="4"/>
       <c r="B508" s="4"/>
       <c r="C508" s="4"/>
@@ -15845,7 +15907,7 @@
       <c r="AA508" s="1"/>
       <c r="AB508" s="1"/>
     </row>
-    <row r="509" ht="15.75" customHeight="1">
+    <row r="509" spans="1:28" ht="15.75" customHeight="1">
       <c r="A509" s="4"/>
       <c r="B509" s="4"/>
       <c r="C509" s="4"/>
@@ -15875,7 +15937,7 @@
       <c r="AA509" s="1"/>
       <c r="AB509" s="1"/>
     </row>
-    <row r="510" ht="15.75" customHeight="1">
+    <row r="510" spans="1:28" ht="15.75" customHeight="1">
       <c r="A510" s="4"/>
       <c r="B510" s="4"/>
       <c r="C510" s="4"/>
@@ -15905,7 +15967,7 @@
       <c r="AA510" s="1"/>
       <c r="AB510" s="1"/>
     </row>
-    <row r="511" ht="15.75" customHeight="1">
+    <row r="511" spans="1:28" ht="15.75" customHeight="1">
       <c r="A511" s="4"/>
       <c r="B511" s="4"/>
       <c r="C511" s="4"/>
@@ -15935,7 +15997,7 @@
       <c r="AA511" s="1"/>
       <c r="AB511" s="1"/>
     </row>
-    <row r="512" ht="15.75" customHeight="1">
+    <row r="512" spans="1:28" ht="15.75" customHeight="1">
       <c r="A512" s="4"/>
       <c r="B512" s="4"/>
       <c r="C512" s="4"/>
@@ -15965,7 +16027,7 @@
       <c r="AA512" s="1"/>
       <c r="AB512" s="1"/>
     </row>
-    <row r="513" ht="15.75" customHeight="1">
+    <row r="513" spans="1:28" ht="15.75" customHeight="1">
       <c r="A513" s="4"/>
       <c r="B513" s="4"/>
       <c r="C513" s="4"/>
@@ -15995,7 +16057,7 @@
       <c r="AA513" s="1"/>
       <c r="AB513" s="1"/>
     </row>
-    <row r="514" ht="15.75" customHeight="1">
+    <row r="514" spans="1:28" ht="15.75" customHeight="1">
       <c r="A514" s="4"/>
       <c r="B514" s="4"/>
       <c r="C514" s="4"/>
@@ -16025,7 +16087,7 @@
       <c r="AA514" s="1"/>
       <c r="AB514" s="1"/>
     </row>
-    <row r="515" ht="15.75" customHeight="1">
+    <row r="515" spans="1:28" ht="15.75" customHeight="1">
       <c r="A515" s="4"/>
       <c r="B515" s="4"/>
       <c r="C515" s="4"/>
@@ -16055,7 +16117,7 @@
       <c r="AA515" s="1"/>
       <c r="AB515" s="1"/>
     </row>
-    <row r="516" ht="15.75" customHeight="1">
+    <row r="516" spans="1:28" ht="15.75" customHeight="1">
       <c r="A516" s="4"/>
       <c r="B516" s="4"/>
       <c r="C516" s="4"/>
@@ -16085,7 +16147,7 @@
       <c r="AA516" s="1"/>
       <c r="AB516" s="1"/>
     </row>
-    <row r="517" ht="15.75" customHeight="1">
+    <row r="517" spans="1:28" ht="15.75" customHeight="1">
       <c r="A517" s="4"/>
       <c r="B517" s="4"/>
       <c r="C517" s="4"/>
@@ -16115,7 +16177,7 @@
       <c r="AA517" s="1"/>
       <c r="AB517" s="1"/>
     </row>
-    <row r="518" ht="15.75" customHeight="1">
+    <row r="518" spans="1:28" ht="15.75" customHeight="1">
       <c r="A518" s="4"/>
       <c r="B518" s="4"/>
       <c r="C518" s="4"/>
@@ -16145,7 +16207,7 @@
       <c r="AA518" s="1"/>
       <c r="AB518" s="1"/>
     </row>
-    <row r="519" ht="15.75" customHeight="1">
+    <row r="519" spans="1:28" ht="15.75" customHeight="1">
       <c r="A519" s="4"/>
       <c r="B519" s="4"/>
       <c r="C519" s="4"/>
@@ -16175,7 +16237,7 @@
       <c r="AA519" s="1"/>
       <c r="AB519" s="1"/>
     </row>
-    <row r="520" ht="15.75" customHeight="1">
+    <row r="520" spans="1:28" ht="15.75" customHeight="1">
       <c r="A520" s="4"/>
       <c r="B520" s="4"/>
       <c r="C520" s="4"/>
@@ -16205,7 +16267,7 @@
       <c r="AA520" s="1"/>
       <c r="AB520" s="1"/>
     </row>
-    <row r="521" ht="15.75" customHeight="1">
+    <row r="521" spans="1:28" ht="15.75" customHeight="1">
       <c r="A521" s="4"/>
       <c r="B521" s="4"/>
       <c r="C521" s="4"/>
@@ -16235,7 +16297,7 @@
       <c r="AA521" s="1"/>
       <c r="AB521" s="1"/>
     </row>
-    <row r="522" ht="15.75" customHeight="1">
+    <row r="522" spans="1:28" ht="15.75" customHeight="1">
       <c r="A522" s="4"/>
       <c r="B522" s="4"/>
       <c r="C522" s="4"/>
@@ -16265,7 +16327,7 @@
       <c r="AA522" s="1"/>
       <c r="AB522" s="1"/>
     </row>
-    <row r="523" ht="15.75" customHeight="1">
+    <row r="523" spans="1:28" ht="15.75" customHeight="1">
       <c r="A523" s="4"/>
       <c r="B523" s="4"/>
       <c r="C523" s="4"/>
@@ -16295,7 +16357,7 @@
       <c r="AA523" s="1"/>
       <c r="AB523" s="1"/>
     </row>
-    <row r="524" ht="15.75" customHeight="1">
+    <row r="524" spans="1:28" ht="15.75" customHeight="1">
       <c r="A524" s="4"/>
       <c r="B524" s="4"/>
       <c r="C524" s="4"/>
@@ -16325,7 +16387,7 @@
       <c r="AA524" s="1"/>
       <c r="AB524" s="1"/>
     </row>
-    <row r="525" ht="15.75" customHeight="1">
+    <row r="525" spans="1:28" ht="15.75" customHeight="1">
       <c r="A525" s="4"/>
       <c r="B525" s="4"/>
       <c r="C525" s="4"/>
@@ -16355,7 +16417,7 @@
       <c r="AA525" s="1"/>
       <c r="AB525" s="1"/>
     </row>
-    <row r="526" ht="15.75" customHeight="1">
+    <row r="526" spans="1:28" ht="15.75" customHeight="1">
       <c r="A526" s="4"/>
       <c r="B526" s="4"/>
       <c r="C526" s="4"/>
@@ -16385,7 +16447,7 @@
       <c r="AA526" s="1"/>
       <c r="AB526" s="1"/>
     </row>
-    <row r="527" ht="15.75" customHeight="1">
+    <row r="527" spans="1:28" ht="15.75" customHeight="1">
       <c r="A527" s="4"/>
       <c r="B527" s="4"/>
       <c r="C527" s="4"/>
@@ -16415,7 +16477,7 @@
       <c r="AA527" s="1"/>
       <c r="AB527" s="1"/>
     </row>
-    <row r="528" ht="15.75" customHeight="1">
+    <row r="528" spans="1:28" ht="15.75" customHeight="1">
       <c r="A528" s="4"/>
       <c r="B528" s="4"/>
       <c r="C528" s="4"/>
@@ -16445,7 +16507,7 @@
       <c r="AA528" s="1"/>
       <c r="AB528" s="1"/>
     </row>
-    <row r="529" ht="15.75" customHeight="1">
+    <row r="529" spans="1:28" ht="15.75" customHeight="1">
       <c r="A529" s="4"/>
       <c r="B529" s="4"/>
       <c r="C529" s="4"/>
@@ -16475,7 +16537,7 @@
       <c r="AA529" s="1"/>
       <c r="AB529" s="1"/>
     </row>
-    <row r="530" ht="15.75" customHeight="1">
+    <row r="530" spans="1:28" ht="15.75" customHeight="1">
       <c r="A530" s="4"/>
       <c r="B530" s="4"/>
       <c r="C530" s="4"/>
@@ -16505,7 +16567,7 @@
       <c r="AA530" s="1"/>
       <c r="AB530" s="1"/>
     </row>
-    <row r="531" ht="15.75" customHeight="1">
+    <row r="531" spans="1:28" ht="15.75" customHeight="1">
       <c r="A531" s="4"/>
       <c r="B531" s="4"/>
       <c r="C531" s="4"/>
@@ -16535,7 +16597,7 @@
       <c r="AA531" s="1"/>
       <c r="AB531" s="1"/>
     </row>
-    <row r="532" ht="15.75" customHeight="1">
+    <row r="532" spans="1:28" ht="15.75" customHeight="1">
       <c r="A532" s="4"/>
       <c r="B532" s="4"/>
       <c r="C532" s="4"/>
@@ -16565,7 +16627,7 @@
       <c r="AA532" s="1"/>
       <c r="AB532" s="1"/>
     </row>
-    <row r="533" ht="15.75" customHeight="1">
+    <row r="533" spans="1:28" ht="15.75" customHeight="1">
       <c r="A533" s="4"/>
       <c r="B533" s="4"/>
       <c r="C533" s="4"/>
@@ -16595,7 +16657,7 @@
       <c r="AA533" s="1"/>
       <c r="AB533" s="1"/>
     </row>
-    <row r="534" ht="15.75" customHeight="1">
+    <row r="534" spans="1:28" ht="15.75" customHeight="1">
       <c r="A534" s="4"/>
       <c r="B534" s="4"/>
       <c r="C534" s="4"/>
@@ -16625,7 +16687,7 @@
       <c r="AA534" s="1"/>
       <c r="AB534" s="1"/>
     </row>
-    <row r="535" ht="15.75" customHeight="1">
+    <row r="535" spans="1:28" ht="15.75" customHeight="1">
       <c r="A535" s="4"/>
       <c r="B535" s="4"/>
       <c r="C535" s="4"/>
@@ -16655,7 +16717,7 @@
       <c r="AA535" s="1"/>
       <c r="AB535" s="1"/>
     </row>
-    <row r="536" ht="15.75" customHeight="1">
+    <row r="536" spans="1:28" ht="15.75" customHeight="1">
       <c r="A536" s="4"/>
       <c r="B536" s="4"/>
       <c r="C536" s="4"/>
@@ -16685,7 +16747,7 @@
       <c r="AA536" s="1"/>
       <c r="AB536" s="1"/>
     </row>
-    <row r="537" ht="15.75" customHeight="1">
+    <row r="537" spans="1:28" ht="15.75" customHeight="1">
       <c r="A537" s="4"/>
       <c r="B537" s="4"/>
       <c r="C537" s="4"/>
@@ -16715,7 +16777,7 @@
       <c r="AA537" s="1"/>
       <c r="AB537" s="1"/>
     </row>
-    <row r="538" ht="15.75" customHeight="1">
+    <row r="538" spans="1:28" ht="15.75" customHeight="1">
       <c r="A538" s="4"/>
       <c r="B538" s="4"/>
       <c r="C538" s="4"/>
@@ -16745,7 +16807,7 @@
       <c r="AA538" s="1"/>
       <c r="AB538" s="1"/>
     </row>
-    <row r="539" ht="15.75" customHeight="1">
+    <row r="539" spans="1:28" ht="15.75" customHeight="1">
       <c r="A539" s="4"/>
       <c r="B539" s="4"/>
       <c r="C539" s="4"/>
@@ -16775,7 +16837,7 @@
       <c r="AA539" s="1"/>
       <c r="AB539" s="1"/>
     </row>
-    <row r="540" ht="15.75" customHeight="1">
+    <row r="540" spans="1:28" ht="15.75" customHeight="1">
       <c r="A540" s="4"/>
       <c r="B540" s="4"/>
       <c r="C540" s="4"/>
@@ -16805,7 +16867,7 @@
       <c r="AA540" s="1"/>
       <c r="AB540" s="1"/>
     </row>
-    <row r="541" ht="15.75" customHeight="1">
+    <row r="541" spans="1:28" ht="15.75" customHeight="1">
       <c r="A541" s="4"/>
       <c r="B541" s="4"/>
       <c r="C541" s="4"/>
@@ -16835,7 +16897,7 @@
       <c r="AA541" s="1"/>
       <c r="AB541" s="1"/>
     </row>
-    <row r="542" ht="15.75" customHeight="1">
+    <row r="542" spans="1:28" ht="15.75" customHeight="1">
       <c r="A542" s="4"/>
       <c r="B542" s="4"/>
       <c r="C542" s="4"/>
@@ -16865,7 +16927,7 @@
       <c r="AA542" s="1"/>
       <c r="AB542" s="1"/>
     </row>
-    <row r="543" ht="15.75" customHeight="1">
+    <row r="543" spans="1:28" ht="15.75" customHeight="1">
       <c r="A543" s="4"/>
       <c r="B543" s="4"/>
       <c r="C543" s="4"/>
@@ -16895,7 +16957,7 @@
       <c r="AA543" s="1"/>
       <c r="AB543" s="1"/>
     </row>
-    <row r="544" ht="15.75" customHeight="1">
+    <row r="544" spans="1:28" ht="15.75" customHeight="1">
       <c r="A544" s="4"/>
       <c r="B544" s="4"/>
       <c r="C544" s="4"/>
@@ -16925,7 +16987,7 @@
       <c r="AA544" s="1"/>
       <c r="AB544" s="1"/>
     </row>
-    <row r="545" ht="15.75" customHeight="1">
+    <row r="545" spans="1:28" ht="15.75" customHeight="1">
       <c r="A545" s="4"/>
       <c r="B545" s="4"/>
       <c r="C545" s="4"/>
@@ -16955,7 +17017,7 @@
       <c r="AA545" s="1"/>
       <c r="AB545" s="1"/>
     </row>
-    <row r="546" ht="15.75" customHeight="1">
+    <row r="546" spans="1:28" ht="15.75" customHeight="1">
       <c r="A546" s="4"/>
       <c r="B546" s="4"/>
       <c r="C546" s="4"/>
@@ -16985,7 +17047,7 @@
       <c r="AA546" s="1"/>
       <c r="AB546" s="1"/>
     </row>
-    <row r="547" ht="15.75" customHeight="1">
+    <row r="547" spans="1:28" ht="15.75" customHeight="1">
       <c r="A547" s="4"/>
       <c r="B547" s="4"/>
       <c r="C547" s="4"/>
@@ -17015,7 +17077,7 @@
       <c r="AA547" s="1"/>
       <c r="AB547" s="1"/>
     </row>
-    <row r="548" ht="15.75" customHeight="1">
+    <row r="548" spans="1:28" ht="15.75" customHeight="1">
       <c r="A548" s="4"/>
       <c r="B548" s="4"/>
       <c r="C548" s="4"/>
@@ -17045,7 +17107,7 @@
       <c r="AA548" s="1"/>
       <c r="AB548" s="1"/>
     </row>
-    <row r="549" ht="15.75" customHeight="1">
+    <row r="549" spans="1:28" ht="15.75" customHeight="1">
       <c r="A549" s="4"/>
       <c r="B549" s="4"/>
       <c r="C549" s="4"/>
@@ -17075,7 +17137,7 @@
       <c r="AA549" s="1"/>
       <c r="AB549" s="1"/>
     </row>
-    <row r="550" ht="15.75" customHeight="1">
+    <row r="550" spans="1:28" ht="15.75" customHeight="1">
       <c r="A550" s="4"/>
       <c r="B550" s="4"/>
       <c r="C550" s="4"/>
@@ -17105,7 +17167,7 @@
       <c r="AA550" s="1"/>
       <c r="AB550" s="1"/>
     </row>
-    <row r="551" ht="15.75" customHeight="1">
+    <row r="551" spans="1:28" ht="15.75" customHeight="1">
       <c r="A551" s="4"/>
       <c r="B551" s="4"/>
       <c r="C551" s="4"/>
@@ -17135,7 +17197,7 @@
       <c r="AA551" s="1"/>
       <c r="AB551" s="1"/>
     </row>
-    <row r="552" ht="15.75" customHeight="1">
+    <row r="552" spans="1:28" ht="15.75" customHeight="1">
       <c r="A552" s="4"/>
       <c r="B552" s="4"/>
       <c r="C552" s="4"/>
@@ -17165,7 +17227,7 @@
       <c r="AA552" s="1"/>
       <c r="AB552" s="1"/>
     </row>
-    <row r="553" ht="15.75" customHeight="1">
+    <row r="553" spans="1:28" ht="15.75" customHeight="1">
       <c r="A553" s="4"/>
       <c r="B553" s="4"/>
       <c r="C553" s="4"/>
@@ -17195,7 +17257,7 @@
       <c r="AA553" s="1"/>
       <c r="AB553" s="1"/>
     </row>
-    <row r="554" ht="15.75" customHeight="1">
+    <row r="554" spans="1:28" ht="15.75" customHeight="1">
       <c r="A554" s="4"/>
       <c r="B554" s="4"/>
       <c r="C554" s="4"/>
@@ -17225,7 +17287,7 @@
       <c r="AA554" s="1"/>
       <c r="AB554" s="1"/>
     </row>
-    <row r="555" ht="15.75" customHeight="1">
+    <row r="555" spans="1:28" ht="15.75" customHeight="1">
       <c r="A555" s="4"/>
       <c r="B555" s="4"/>
       <c r="C555" s="4"/>
@@ -17255,7 +17317,7 @@
       <c r="AA555" s="1"/>
       <c r="AB555" s="1"/>
     </row>
-    <row r="556" ht="15.75" customHeight="1">
+    <row r="556" spans="1:28" ht="15.75" customHeight="1">
       <c r="A556" s="4"/>
       <c r="B556" s="4"/>
       <c r="C556" s="4"/>
@@ -17285,7 +17347,7 @@
       <c r="AA556" s="1"/>
       <c r="AB556" s="1"/>
     </row>
-    <row r="557" ht="15.75" customHeight="1">
+    <row r="557" spans="1:28" ht="15.75" customHeight="1">
       <c r="A557" s="4"/>
       <c r="B557" s="4"/>
       <c r="C557" s="4"/>
@@ -17315,7 +17377,7 @@
       <c r="AA557" s="1"/>
       <c r="AB557" s="1"/>
     </row>
-    <row r="558" ht="15.75" customHeight="1">
+    <row r="558" spans="1:28" ht="15.75" customHeight="1">
       <c r="A558" s="4"/>
       <c r="B558" s="4"/>
       <c r="C558" s="4"/>
@@ -17345,7 +17407,7 @@
       <c r="AA558" s="1"/>
       <c r="AB558" s="1"/>
     </row>
-    <row r="559" ht="15.75" customHeight="1">
+    <row r="559" spans="1:28" ht="15.75" customHeight="1">
       <c r="A559" s="4"/>
       <c r="B559" s="4"/>
       <c r="C559" s="4"/>
@@ -17375,7 +17437,7 @@
       <c r="AA559" s="1"/>
       <c r="AB559" s="1"/>
     </row>
-    <row r="560" ht="15.75" customHeight="1">
+    <row r="560" spans="1:28" ht="15.75" customHeight="1">
       <c r="A560" s="4"/>
       <c r="B560" s="4"/>
       <c r="C560" s="4"/>
@@ -17405,7 +17467,7 @@
       <c r="AA560" s="1"/>
       <c r="AB560" s="1"/>
     </row>
-    <row r="561" ht="15.75" customHeight="1">
+    <row r="561" spans="1:28" ht="15.75" customHeight="1">
       <c r="A561" s="4"/>
       <c r="B561" s="4"/>
       <c r="C561" s="4"/>
@@ -17435,7 +17497,7 @@
       <c r="AA561" s="1"/>
       <c r="AB561" s="1"/>
     </row>
-    <row r="562" ht="15.75" customHeight="1">
+    <row r="562" spans="1:28" ht="15.75" customHeight="1">
       <c r="A562" s="4"/>
       <c r="B562" s="4"/>
       <c r="C562" s="4"/>
@@ -17465,7 +17527,7 @@
       <c r="AA562" s="1"/>
       <c r="AB562" s="1"/>
     </row>
-    <row r="563" ht="15.75" customHeight="1">
+    <row r="563" spans="1:28" ht="15.75" customHeight="1">
       <c r="A563" s="4"/>
       <c r="B563" s="4"/>
       <c r="C563" s="4"/>
@@ -17495,7 +17557,7 @@
       <c r="AA563" s="1"/>
       <c r="AB563" s="1"/>
     </row>
-    <row r="564" ht="15.75" customHeight="1">
+    <row r="564" spans="1:28" ht="15.75" customHeight="1">
       <c r="A564" s="4"/>
       <c r="B564" s="4"/>
       <c r="C564" s="4"/>
@@ -17525,7 +17587,7 @@
       <c r="AA564" s="1"/>
       <c r="AB564" s="1"/>
     </row>
-    <row r="565" ht="15.75" customHeight="1">
+    <row r="565" spans="1:28" ht="15.75" customHeight="1">
       <c r="A565" s="4"/>
       <c r="B565" s="4"/>
       <c r="C565" s="4"/>
@@ -17555,7 +17617,7 @@
       <c r="AA565" s="1"/>
       <c r="AB565" s="1"/>
     </row>
-    <row r="566" ht="15.75" customHeight="1">
+    <row r="566" spans="1:28" ht="15.75" customHeight="1">
       <c r="A566" s="4"/>
       <c r="B566" s="4"/>
       <c r="C566" s="4"/>
@@ -17585,7 +17647,7 @@
       <c r="AA566" s="1"/>
       <c r="AB566" s="1"/>
     </row>
-    <row r="567" ht="15.75" customHeight="1">
+    <row r="567" spans="1:28" ht="15.75" customHeight="1">
       <c r="A567" s="4"/>
       <c r="B567" s="4"/>
       <c r="C567" s="4"/>
@@ -17615,7 +17677,7 @@
       <c r="AA567" s="1"/>
       <c r="AB567" s="1"/>
     </row>
-    <row r="568" ht="15.75" customHeight="1">
+    <row r="568" spans="1:28" ht="15.75" customHeight="1">
       <c r="A568" s="4"/>
       <c r="B568" s="4"/>
       <c r="C568" s="4"/>
@@ -17645,7 +17707,7 @@
       <c r="AA568" s="1"/>
       <c r="AB568" s="1"/>
     </row>
-    <row r="569" ht="15.75" customHeight="1">
+    <row r="569" spans="1:28" ht="15.75" customHeight="1">
       <c r="A569" s="4"/>
       <c r="B569" s="4"/>
       <c r="C569" s="4"/>
@@ -17675,7 +17737,7 @@
       <c r="AA569" s="1"/>
       <c r="AB569" s="1"/>
     </row>
-    <row r="570" ht="15.75" customHeight="1">
+    <row r="570" spans="1:28" ht="15.75" customHeight="1">
       <c r="A570" s="4"/>
       <c r="B570" s="4"/>
       <c r="C570" s="4"/>
@@ -17705,7 +17767,7 @@
       <c r="AA570" s="1"/>
       <c r="AB570" s="1"/>
     </row>
-    <row r="571" ht="15.75" customHeight="1">
+    <row r="571" spans="1:28" ht="15.75" customHeight="1">
       <c r="A571" s="4"/>
       <c r="B571" s="4"/>
       <c r="C571" s="4"/>
@@ -17735,7 +17797,7 @@
       <c r="AA571" s="1"/>
       <c r="AB571" s="1"/>
     </row>
-    <row r="572" ht="15.75" customHeight="1">
+    <row r="572" spans="1:28" ht="15.75" customHeight="1">
       <c r="A572" s="4"/>
       <c r="B572" s="4"/>
       <c r="C572" s="4"/>
@@ -17765,7 +17827,7 @@
       <c r="AA572" s="1"/>
       <c r="AB572" s="1"/>
     </row>
-    <row r="573" ht="15.75" customHeight="1">
+    <row r="573" spans="1:28" ht="15.75" customHeight="1">
       <c r="A573" s="4"/>
       <c r="B573" s="4"/>
       <c r="C573" s="4"/>
@@ -17795,7 +17857,7 @@
       <c r="AA573" s="1"/>
       <c r="AB573" s="1"/>
     </row>
-    <row r="574" ht="15.75" customHeight="1">
+    <row r="574" spans="1:28" ht="15.75" customHeight="1">
       <c r="A574" s="4"/>
       <c r="B574" s="4"/>
       <c r="C574" s="4"/>
@@ -17825,7 +17887,7 @@
       <c r="AA574" s="1"/>
       <c r="AB574" s="1"/>
     </row>
-    <row r="575" ht="15.75" customHeight="1">
+    <row r="575" spans="1:28" ht="15.75" customHeight="1">
       <c r="A575" s="4"/>
       <c r="B575" s="4"/>
       <c r="C575" s="4"/>
@@ -17855,7 +17917,7 @@
       <c r="AA575" s="1"/>
       <c r="AB575" s="1"/>
     </row>
-    <row r="576" ht="15.75" customHeight="1">
+    <row r="576" spans="1:28" ht="15.75" customHeight="1">
       <c r="A576" s="4"/>
       <c r="B576" s="4"/>
       <c r="C576" s="4"/>
@@ -17885,7 +17947,7 @@
       <c r="AA576" s="1"/>
       <c r="AB576" s="1"/>
     </row>
-    <row r="577" ht="15.75" customHeight="1">
+    <row r="577" spans="1:28" ht="15.75" customHeight="1">
       <c r="A577" s="4"/>
       <c r="B577" s="4"/>
       <c r="C577" s="4"/>
@@ -17915,7 +17977,7 @@
       <c r="AA577" s="1"/>
       <c r="AB577" s="1"/>
     </row>
-    <row r="578" ht="15.75" customHeight="1">
+    <row r="578" spans="1:28" ht="15.75" customHeight="1">
       <c r="A578" s="4"/>
       <c r="B578" s="4"/>
       <c r="C578" s="4"/>
@@ -17945,7 +18007,7 @@
       <c r="AA578" s="1"/>
       <c r="AB578" s="1"/>
     </row>
-    <row r="579" ht="15.75" customHeight="1">
+    <row r="579" spans="1:28" ht="15.75" customHeight="1">
       <c r="A579" s="4"/>
       <c r="B579" s="4"/>
       <c r="C579" s="4"/>
@@ -17975,7 +18037,7 @@
       <c r="AA579" s="1"/>
       <c r="AB579" s="1"/>
     </row>
-    <row r="580" ht="15.75" customHeight="1">
+    <row r="580" spans="1:28" ht="15.75" customHeight="1">
       <c r="A580" s="4"/>
       <c r="B580" s="4"/>
       <c r="C580" s="4"/>
@@ -18005,7 +18067,7 @@
       <c r="AA580" s="1"/>
       <c r="AB580" s="1"/>
     </row>
-    <row r="581" ht="15.75" customHeight="1">
+    <row r="581" spans="1:28" ht="15.75" customHeight="1">
       <c r="A581" s="4"/>
       <c r="B581" s="4"/>
       <c r="C581" s="4"/>
@@ -18035,7 +18097,7 @@
       <c r="AA581" s="1"/>
       <c r="AB581" s="1"/>
     </row>
-    <row r="582" ht="15.75" customHeight="1">
+    <row r="582" spans="1:28" ht="15.75" customHeight="1">
       <c r="A582" s="4"/>
       <c r="B582" s="4"/>
       <c r="C582" s="4"/>
@@ -18065,7 +18127,7 @@
       <c r="AA582" s="1"/>
       <c r="AB582" s="1"/>
     </row>
-    <row r="583" ht="15.75" customHeight="1">
+    <row r="583" spans="1:28" ht="15.75" customHeight="1">
       <c r="A583" s="4"/>
       <c r="B583" s="4"/>
       <c r="C583" s="4"/>
@@ -18095,7 +18157,7 @@
       <c r="AA583" s="1"/>
       <c r="AB583" s="1"/>
     </row>
-    <row r="584" ht="15.75" customHeight="1">
+    <row r="584" spans="1:28" ht="15.75" customHeight="1">
       <c r="A584" s="4"/>
       <c r="B584" s="4"/>
       <c r="C584" s="4"/>
@@ -18125,7 +18187,7 @@
       <c r="AA584" s="1"/>
       <c r="AB584" s="1"/>
     </row>
-    <row r="585" ht="15.75" customHeight="1">
+    <row r="585" spans="1:28" ht="15.75" customHeight="1">
       <c r="A585" s="4"/>
       <c r="B585" s="4"/>
       <c r="C585" s="4"/>
@@ -18155,7 +18217,7 @@
       <c r="AA585" s="1"/>
       <c r="AB585" s="1"/>
     </row>
-    <row r="586" ht="15.75" customHeight="1">
+    <row r="586" spans="1:28" ht="15.75" customHeight="1">
       <c r="A586" s="4"/>
       <c r="B586" s="4"/>
       <c r="C586" s="4"/>
@@ -18185,7 +18247,7 @@
       <c r="AA586" s="1"/>
       <c r="AB586" s="1"/>
     </row>
-    <row r="587" ht="15.75" customHeight="1">
+    <row r="587" spans="1:28" ht="15.75" customHeight="1">
       <c r="A587" s="4"/>
       <c r="B587" s="4"/>
       <c r="C587" s="4"/>
@@ -18215,7 +18277,7 @@
       <c r="AA587" s="1"/>
       <c r="AB587" s="1"/>
     </row>
-    <row r="588" ht="15.75" customHeight="1">
+    <row r="588" spans="1:28" ht="15.75" customHeight="1">
       <c r="A588" s="4"/>
       <c r="B588" s="4"/>
       <c r="C588" s="4"/>
@@ -18245,7 +18307,7 @@
       <c r="AA588" s="1"/>
       <c r="AB588" s="1"/>
     </row>
-    <row r="589" ht="15.75" customHeight="1">
+    <row r="589" spans="1:28" ht="15.75" customHeight="1">
       <c r="A589" s="4"/>
       <c r="B589" s="4"/>
       <c r="C589" s="4"/>
@@ -18275,7 +18337,7 @@
       <c r="AA589" s="1"/>
       <c r="AB589" s="1"/>
     </row>
-    <row r="590" ht="15.75" customHeight="1">
+    <row r="590" spans="1:28" ht="15.75" customHeight="1">
       <c r="A590" s="4"/>
       <c r="B590" s="4"/>
       <c r="C590" s="4"/>
@@ -18305,7 +18367,7 @@
       <c r="AA590" s="1"/>
       <c r="AB590" s="1"/>
     </row>
-    <row r="591" ht="15.75" customHeight="1">
+    <row r="591" spans="1:28" ht="15.75" customHeight="1">
       <c r="A591" s="4"/>
       <c r="B591" s="4"/>
       <c r="C591" s="4"/>
@@ -18335,7 +18397,7 @@
       <c r="AA591" s="1"/>
       <c r="AB591" s="1"/>
     </row>
-    <row r="592" ht="15.75" customHeight="1">
+    <row r="592" spans="1:28" ht="15.75" customHeight="1">
       <c r="A592" s="4"/>
       <c r="B592" s="4"/>
       <c r="C592" s="4"/>
@@ -18365,7 +18427,7 @@
       <c r="AA592" s="1"/>
       <c r="AB592" s="1"/>
     </row>
-    <row r="593" ht="15.75" customHeight="1">
+    <row r="593" spans="1:28" ht="15.75" customHeight="1">
       <c r="A593" s="4"/>
       <c r="B593" s="4"/>
       <c r="C593" s="4"/>
@@ -18395,7 +18457,7 @@
       <c r="AA593" s="1"/>
       <c r="AB593" s="1"/>
     </row>
-    <row r="594" ht="15.75" customHeight="1">
+    <row r="594" spans="1:28" ht="15.75" customHeight="1">
       <c r="A594" s="4"/>
       <c r="B594" s="4"/>
       <c r="C594" s="4"/>
@@ -18425,7 +18487,7 @@
       <c r="AA594" s="1"/>
       <c r="AB594" s="1"/>
     </row>
-    <row r="595" ht="15.75" customHeight="1">
+    <row r="595" spans="1:28" ht="15.75" customHeight="1">
       <c r="A595" s="4"/>
       <c r="B595" s="4"/>
       <c r="C595" s="4"/>
@@ -18455,7 +18517,7 @@
       <c r="AA595" s="1"/>
       <c r="AB595" s="1"/>
     </row>
-    <row r="596" ht="15.75" customHeight="1">
+    <row r="596" spans="1:28" ht="15.75" customHeight="1">
       <c r="A596" s="4"/>
       <c r="B596" s="4"/>
       <c r="C596" s="4"/>
@@ -18485,7 +18547,7 @@
       <c r="AA596" s="1"/>
       <c r="AB596" s="1"/>
     </row>
-    <row r="597" ht="15.75" customHeight="1">
+    <row r="597" spans="1:28" ht="15.75" customHeight="1">
       <c r="A597" s="4"/>
       <c r="B597" s="4"/>
       <c r="C597" s="4"/>
@@ -18515,7 +18577,7 @@
       <c r="AA597" s="1"/>
       <c r="AB597" s="1"/>
     </row>
-    <row r="598" ht="15.75" customHeight="1">
+    <row r="598" spans="1:28" ht="15.75" customHeight="1">
       <c r="A598" s="4"/>
       <c r="B598" s="4"/>
       <c r="C598" s="4"/>
@@ -18545,7 +18607,7 @@
       <c r="AA598" s="1"/>
       <c r="AB598" s="1"/>
     </row>
-    <row r="599" ht="15.75" customHeight="1">
+    <row r="599" spans="1:28" ht="15.75" customHeight="1">
       <c r="A599" s="4"/>
       <c r="B599" s="4"/>
       <c r="C599" s="4"/>
@@ -18575,7 +18637,7 @@
       <c r="AA599" s="1"/>
       <c r="AB599" s="1"/>
     </row>
-    <row r="600" ht="15.75" customHeight="1">
+    <row r="600" spans="1:28" ht="15.75" customHeight="1">
       <c r="A600" s="4"/>
       <c r="B600" s="4"/>
       <c r="C600" s="4"/>
@@ -18605,7 +18667,7 @@
       <c r="AA600" s="1"/>
       <c r="AB600" s="1"/>
     </row>
-    <row r="601" ht="15.75" customHeight="1">
+    <row r="601" spans="1:28" ht="15.75" customHeight="1">
       <c r="A601" s="4"/>
       <c r="B601" s="4"/>
       <c r="C601" s="4"/>
@@ -18635,7 +18697,7 @@
       <c r="AA601" s="1"/>
       <c r="AB601" s="1"/>
     </row>
-    <row r="602" ht="15.75" customHeight="1">
+    <row r="602" spans="1:28" ht="15.75" customHeight="1">
       <c r="A602" s="4"/>
       <c r="B602" s="4"/>
       <c r="C602" s="4"/>
@@ -18665,7 +18727,7 @@
       <c r="AA602" s="1"/>
       <c r="AB602" s="1"/>
     </row>
-    <row r="603" ht="15.75" customHeight="1">
+    <row r="603" spans="1:28" ht="15.75" customHeight="1">
       <c r="A603" s="4"/>
       <c r="B603" s="4"/>
       <c r="C603" s="4"/>
@@ -18695,7 +18757,7 @@
       <c r="AA603" s="1"/>
       <c r="AB603" s="1"/>
     </row>
-    <row r="604" ht="15.75" customHeight="1">
+    <row r="604" spans="1:28" ht="15.75" customHeight="1">
       <c r="A604" s="4"/>
       <c r="B604" s="4"/>
       <c r="C604" s="4"/>
@@ -18725,7 +18787,7 @@
       <c r="AA604" s="1"/>
       <c r="AB604" s="1"/>
     </row>
-    <row r="605" ht="15.75" customHeight="1">
+    <row r="605" spans="1:28" ht="15.75" customHeight="1">
       <c r="A605" s="4"/>
       <c r="B605" s="4"/>
       <c r="C605" s="4"/>
@@ -18755,7 +18817,7 @@
       <c r="AA605" s="1"/>
       <c r="AB605" s="1"/>
     </row>
-    <row r="606" ht="15.75" customHeight="1">
+    <row r="606" spans="1:28" ht="15.75" customHeight="1">
       <c r="A606" s="4"/>
       <c r="B606" s="4"/>
       <c r="C606" s="4"/>
@@ -18785,7 +18847,7 @@
       <c r="AA606" s="1"/>
       <c r="AB606" s="1"/>
     </row>
-    <row r="607" ht="15.75" customHeight="1">
+    <row r="607" spans="1:28" ht="15.75" customHeight="1">
       <c r="A607" s="4"/>
       <c r="B607" s="4"/>
       <c r="C607" s="4"/>
@@ -18815,7 +18877,7 @@
       <c r="AA607" s="1"/>
       <c r="AB607" s="1"/>
     </row>
-    <row r="608" ht="15.75" customHeight="1">
+    <row r="608" spans="1:28" ht="15.75" customHeight="1">
       <c r="A608" s="4"/>
       <c r="B608" s="4"/>
       <c r="C608" s="4"/>
@@ -18845,7 +18907,7 @@
       <c r="AA608" s="1"/>
       <c r="AB608" s="1"/>
     </row>
-    <row r="609" ht="15.75" customHeight="1">
+    <row r="609" spans="1:28" ht="15.75" customHeight="1">
       <c r="A609" s="4"/>
       <c r="B609" s="4"/>
       <c r="C609" s="4"/>
@@ -18875,7 +18937,7 @@
       <c r="AA609" s="1"/>
       <c r="AB609" s="1"/>
     </row>
-    <row r="610" ht="15.75" customHeight="1">
+    <row r="610" spans="1:28" ht="15.75" customHeight="1">
       <c r="A610" s="4"/>
       <c r="B610" s="4"/>
       <c r="C610" s="4"/>
@@ -18905,7 +18967,7 @@
       <c r="AA610" s="1"/>
       <c r="AB610" s="1"/>
     </row>
-    <row r="611" ht="15.75" customHeight="1">
+    <row r="611" spans="1:28" ht="15.75" customHeight="1">
       <c r="A611" s="4"/>
       <c r="B611" s="4"/>
       <c r="C611" s="4"/>
@@ -18935,7 +18997,7 @@
       <c r="AA611" s="1"/>
       <c r="AB611" s="1"/>
     </row>
-    <row r="612" ht="15.75" customHeight="1">
+    <row r="612" spans="1:28" ht="15.75" customHeight="1">
       <c r="A612" s="4"/>
       <c r="B612" s="4"/>
       <c r="C612" s="4"/>
@@ -18965,7 +19027,7 @@
       <c r="AA612" s="1"/>
       <c r="AB612" s="1"/>
     </row>
-    <row r="613" ht="15.75" customHeight="1">
+    <row r="613" spans="1:28" ht="15.75" customHeight="1">
       <c r="A613" s="4"/>
       <c r="B613" s="4"/>
       <c r="C613" s="4"/>
@@ -18995,7 +19057,7 @@
       <c r="AA613" s="1"/>
       <c r="AB613" s="1"/>
     </row>
-    <row r="614" ht="15.75" customHeight="1">
+    <row r="614" spans="1:28" ht="15.75" customHeight="1">
       <c r="A614" s="4"/>
       <c r="B614" s="4"/>
       <c r="C614" s="4"/>
@@ -19025,7 +19087,7 @@
       <c r="AA614" s="1"/>
       <c r="AB614" s="1"/>
     </row>
-    <row r="615" ht="15.75" customHeight="1">
+    <row r="615" spans="1:28" ht="15.75" customHeight="1">
       <c r="A615" s="4"/>
       <c r="B615" s="4"/>
       <c r="C615" s="4"/>
@@ -19055,7 +19117,7 @@
       <c r="AA615" s="1"/>
       <c r="AB615" s="1"/>
     </row>
-    <row r="616" ht="15.75" customHeight="1">
+    <row r="616" spans="1:28" ht="15.75" customHeight="1">
       <c r="A616" s="4"/>
       <c r="B616" s="4"/>
       <c r="C616" s="4"/>
@@ -19085,7 +19147,7 @@
       <c r="AA616" s="1"/>
       <c r="AB616" s="1"/>
     </row>
-    <row r="617" ht="15.75" customHeight="1">
+    <row r="617" spans="1:28" ht="15.75" customHeight="1">
       <c r="A617" s="4"/>
       <c r="B617" s="4"/>
       <c r="C617" s="4"/>
@@ -19115,7 +19177,7 @@
       <c r="AA617" s="1"/>
       <c r="AB617" s="1"/>
     </row>
-    <row r="618" ht="15.75" customHeight="1">
+    <row r="618" spans="1:28" ht="15.75" customHeight="1">
       <c r="A618" s="4"/>
       <c r="B618" s="4"/>
       <c r="C618" s="4"/>
@@ -19145,7 +19207,7 @@
       <c r="AA618" s="1"/>
       <c r="AB618" s="1"/>
     </row>
-    <row r="619" ht="15.75" customHeight="1">
+    <row r="619" spans="1:28" ht="15.75" customHeight="1">
       <c r="A619" s="4"/>
       <c r="B619" s="4"/>
       <c r="C619" s="4"/>
@@ -19175,7 +19237,7 @@
       <c r="AA619" s="1"/>
       <c r="AB619" s="1"/>
     </row>
-    <row r="620" ht="15.75" customHeight="1">
+    <row r="620" spans="1:28" ht="15.75" customHeight="1">
       <c r="A620" s="4"/>
       <c r="B620" s="4"/>
       <c r="C620" s="4"/>
@@ -19205,7 +19267,7 @@
       <c r="AA620" s="1"/>
       <c r="AB620" s="1"/>
     </row>
-    <row r="621" ht="15.75" customHeight="1">
+    <row r="621" spans="1:28" ht="15.75" customHeight="1">
       <c r="A621" s="4"/>
       <c r="B621" s="4"/>
       <c r="C621" s="4"/>
@@ -19235,7 +19297,7 @@
       <c r="AA621" s="1"/>
       <c r="AB621" s="1"/>
     </row>
-    <row r="622" ht="15.75" customHeight="1">
+    <row r="622" spans="1:28" ht="15.75" customHeight="1">
       <c r="A622" s="4"/>
       <c r="B622" s="4"/>
       <c r="C622" s="4"/>
@@ -19265,7 +19327,7 @@
       <c r="AA622" s="1"/>
       <c r="AB622" s="1"/>
     </row>
-    <row r="623" ht="15.75" customHeight="1">
+    <row r="623" spans="1:28" ht="15.75" customHeight="1">
       <c r="A623" s="4"/>
       <c r="B623" s="4"/>
       <c r="C623" s="4"/>
@@ -19295,7 +19357,7 @@
       <c r="AA623" s="1"/>
       <c r="AB623" s="1"/>
     </row>
-    <row r="624" ht="15.75" customHeight="1">
+    <row r="624" spans="1:28" ht="15.75" customHeight="1">
       <c r="A624" s="4"/>
       <c r="B624" s="4"/>
       <c r="C624" s="4"/>
@@ -19325,7 +19387,7 @@
       <c r="AA624" s="1"/>
       <c r="AB624" s="1"/>
     </row>
-    <row r="625" ht="15.75" customHeight="1">
+    <row r="625" spans="1:28" ht="15.75" customHeight="1">
       <c r="A625" s="4"/>
       <c r="B625" s="4"/>
       <c r="C625" s="4"/>
@@ -19355,7 +19417,7 @@
       <c r="AA625" s="1"/>
       <c r="AB625" s="1"/>
     </row>
-    <row r="626" ht="15.75" customHeight="1">
+    <row r="626" spans="1:28" ht="15.75" customHeight="1">
       <c r="A626" s="4"/>
       <c r="B626" s="4"/>
       <c r="C626" s="4"/>
@@ -19385,7 +19447,7 @@
       <c r="AA626" s="1"/>
       <c r="AB626" s="1"/>
     </row>
-    <row r="627" ht="15.75" customHeight="1">
+    <row r="627" spans="1:28" ht="15.75" customHeight="1">
       <c r="A627" s="4"/>
       <c r="B627" s="4"/>
       <c r="C627" s="4"/>
@@ -19415,7 +19477,7 @@
       <c r="AA627" s="1"/>
       <c r="AB627" s="1"/>
     </row>
-    <row r="628" ht="15.75" customHeight="1">
+    <row r="628" spans="1:28" ht="15.75" customHeight="1">
       <c r="A628" s="4"/>
       <c r="B628" s="4"/>
       <c r="C628" s="4"/>
@@ -19445,7 +19507,7 @@
       <c r="AA628" s="1"/>
       <c r="AB628" s="1"/>
     </row>
-    <row r="629" ht="15.75" customHeight="1">
+    <row r="629" spans="1:28" ht="15.75" customHeight="1">
       <c r="A629" s="4"/>
       <c r="B629" s="4"/>
       <c r="C629" s="4"/>
@@ -19475,7 +19537,7 @@
       <c r="AA629" s="1"/>
       <c r="AB629" s="1"/>
     </row>
-    <row r="630" ht="15.75" customHeight="1">
+    <row r="630" spans="1:28" ht="15.75" customHeight="1">
       <c r="A630" s="4"/>
       <c r="B630" s="4"/>
       <c r="C630" s="4"/>
@@ -19505,7 +19567,7 @@
       <c r="AA630" s="1"/>
       <c r="AB630" s="1"/>
     </row>
-    <row r="631" ht="15.75" customHeight="1">
+    <row r="631" spans="1:28" ht="15.75" customHeight="1">
       <c r="A631" s="4"/>
       <c r="B631" s="4"/>
       <c r="C631" s="4"/>
@@ -19535,7 +19597,7 @@
       <c r="AA631" s="1"/>
       <c r="AB631" s="1"/>
     </row>
-    <row r="632" ht="15.75" customHeight="1">
+    <row r="632" spans="1:28" ht="15.75" customHeight="1">
       <c r="A632" s="4"/>
       <c r="B632" s="4"/>
       <c r="C632" s="4"/>
@@ -19565,7 +19627,7 @@
       <c r="AA632" s="1"/>
       <c r="AB632" s="1"/>
     </row>
-    <row r="633" ht="15.75" customHeight="1">
+    <row r="633" spans="1:28" ht="15.75" customHeight="1">
       <c r="A633" s="4"/>
       <c r="B633" s="4"/>
       <c r="C633" s="4"/>
@@ -19595,7 +19657,7 @@
       <c r="AA633" s="1"/>
       <c r="AB633" s="1"/>
     </row>
-    <row r="634" ht="15.75" customHeight="1">
+    <row r="634" spans="1:28" ht="15.75" customHeight="1">
       <c r="A634" s="4"/>
       <c r="B634" s="4"/>
       <c r="C634" s="4"/>
@@ -19625,7 +19687,7 @@
       <c r="AA634" s="1"/>
       <c r="AB634" s="1"/>
     </row>
-    <row r="635" ht="15.75" customHeight="1">
+    <row r="635" spans="1:28" ht="15.75" customHeight="1">
       <c r="A635" s="4"/>
       <c r="B635" s="4"/>
       <c r="C635" s="4"/>
@@ -19655,7 +19717,7 @@
       <c r="AA635" s="1"/>
       <c r="AB635" s="1"/>
     </row>
-    <row r="636" ht="15.75" customHeight="1">
+    <row r="636" spans="1:28" ht="15.75" customHeight="1">
       <c r="A636" s="4"/>
       <c r="B636" s="4"/>
       <c r="C636" s="4"/>
@@ -19685,7 +19747,7 @@
       <c r="AA636" s="1"/>
       <c r="AB636" s="1"/>
     </row>
-    <row r="637" ht="15.75" customHeight="1">
+    <row r="637" spans="1:28" ht="15.75" customHeight="1">
       <c r="A637" s="4"/>
       <c r="B637" s="4"/>
       <c r="C637" s="4"/>
@@ -19715,7 +19777,7 @@
       <c r="AA637" s="1"/>
       <c r="AB637" s="1"/>
     </row>
-    <row r="638" ht="15.75" customHeight="1">
+    <row r="638" spans="1:28" ht="15.75" customHeight="1">
       <c r="A638" s="4"/>
       <c r="B638" s="4"/>
       <c r="C638" s="4"/>
@@ -19745,7 +19807,7 @@
       <c r="AA638" s="1"/>
       <c r="AB638" s="1"/>
     </row>
-    <row r="639" ht="15.75" customHeight="1">
+    <row r="639" spans="1:28" ht="15.75" customHeight="1">
       <c r="A639" s="4"/>
       <c r="B639" s="4"/>
       <c r="C639" s="4"/>
@@ -19775,7 +19837,7 @@
       <c r="AA639" s="1"/>
       <c r="AB639" s="1"/>
     </row>
-    <row r="640" ht="15.75" customHeight="1">
+    <row r="640" spans="1:28" ht="15.75" customHeight="1">
       <c r="A640" s="4"/>
       <c r="B640" s="4"/>
       <c r="C640" s="4"/>
@@ -19805,7 +19867,7 @@
       <c r="AA640" s="1"/>
       <c r="AB640" s="1"/>
     </row>
-    <row r="641" ht="15.75" customHeight="1">
+    <row r="641" spans="1:28" ht="15.75" customHeight="1">
       <c r="A641" s="4"/>
       <c r="B641" s="4"/>
       <c r="C641" s="4"/>
@@ -19835,7 +19897,7 @@
       <c r="AA641" s="1"/>
       <c r="AB641" s="1"/>
     </row>
-    <row r="642" ht="15.75" customHeight="1">
+    <row r="642" spans="1:28" ht="15.75" customHeight="1">
       <c r="A642" s="4"/>
       <c r="B642" s="4"/>
       <c r="C642" s="4"/>
@@ -19865,7 +19927,7 @@
       <c r="AA642" s="1"/>
       <c r="AB642" s="1"/>
     </row>
-    <row r="643" ht="15.75" customHeight="1">
+    <row r="643" spans="1:28" ht="15.75" customHeight="1">
       <c r="A643" s="4"/>
       <c r="B643" s="4"/>
       <c r="C643" s="4"/>
@@ -19895,7 +19957,7 @@
       <c r="AA643" s="1"/>
       <c r="AB643" s="1"/>
     </row>
-    <row r="644" ht="15.75" customHeight="1">
+    <row r="644" spans="1:28" ht="15.75" customHeight="1">
       <c r="A644" s="4"/>
       <c r="B644" s="4"/>
       <c r="C644" s="4"/>
@@ -19925,7 +19987,7 @@
       <c r="AA644" s="1"/>
       <c r="AB644" s="1"/>
     </row>
-    <row r="645" ht="15.75" customHeight="1">
+    <row r="645" spans="1:28" ht="15.75" customHeight="1">
       <c r="A645" s="4"/>
       <c r="B645" s="4"/>
       <c r="C645" s="4"/>
@@ -19955,7 +20017,7 @@
       <c r="AA645" s="1"/>
       <c r="AB645" s="1"/>
     </row>
-    <row r="646" ht="15.75" customHeight="1">
+    <row r="646" spans="1:28" ht="15.75" customHeight="1">
       <c r="A646" s="4"/>
       <c r="B646" s="4"/>
       <c r="C646" s="4"/>
@@ -19985,7 +20047,7 @@
       <c r="AA646" s="1"/>
       <c r="AB646" s="1"/>
     </row>
-    <row r="647" ht="15.75" customHeight="1">
+    <row r="647" spans="1:28" ht="15.75" customHeight="1">
       <c r="A647" s="4"/>
       <c r="B647" s="4"/>
       <c r="C647" s="4"/>
@@ -20015,7 +20077,7 @@
       <c r="AA647" s="1"/>
       <c r="AB647" s="1"/>
     </row>
-    <row r="648" ht="15.75" customHeight="1">
+    <row r="648" spans="1:28" ht="15.75" customHeight="1">
       <c r="A648" s="4"/>
       <c r="B648" s="4"/>
       <c r="C648" s="4"/>
@@ -20045,7 +20107,7 @@
       <c r="AA648" s="1"/>
       <c r="AB648" s="1"/>
     </row>
-    <row r="649" ht="15.75" customHeight="1">
+    <row r="649" spans="1:28" ht="15.75" customHeight="1">
       <c r="A649" s="4"/>
       <c r="B649" s="4"/>
       <c r="C649" s="4"/>
@@ -20075,7 +20137,7 @@
       <c r="AA649" s="1"/>
       <c r="AB649" s="1"/>
     </row>
-    <row r="650" ht="15.75" customHeight="1">
+    <row r="650" spans="1:28" ht="15.75" customHeight="1">
       <c r="A650" s="4"/>
       <c r="B650" s="4"/>
       <c r="C650" s="4"/>
@@ -20105,7 +20167,7 @@
       <c r="AA650" s="1"/>
       <c r="AB650" s="1"/>
     </row>
-    <row r="651" ht="15.75" customHeight="1">
+    <row r="651" spans="1:28" ht="15.75" customHeight="1">
       <c r="A651" s="4"/>
       <c r="B651" s="4"/>
       <c r="C651" s="4"/>
@@ -20135,7 +20197,7 @@
       <c r="AA651" s="1"/>
       <c r="AB651" s="1"/>
     </row>
-    <row r="652" ht="15.75" customHeight="1">
+    <row r="652" spans="1:28" ht="15.75" customHeight="1">
       <c r="A652" s="4"/>
       <c r="B652" s="4"/>
       <c r="C652" s="4"/>
@@ -20165,7 +20227,7 @@
       <c r="AA652" s="1"/>
       <c r="AB652" s="1"/>
     </row>
-    <row r="653" ht="15.75" customHeight="1">
+    <row r="653" spans="1:28" ht="15.75" customHeight="1">
       <c r="A653" s="4"/>
       <c r="B653" s="4"/>
       <c r="C653" s="4"/>
@@ -20195,7 +20257,7 @@
       <c r="AA653" s="1"/>
       <c r="AB653" s="1"/>
     </row>
-    <row r="654" ht="15.75" customHeight="1">
+    <row r="654" spans="1:28" ht="15.75" customHeight="1">
       <c r="A654" s="4"/>
       <c r="B654" s="4"/>
       <c r="C654" s="4"/>
@@ -20225,7 +20287,7 @@
       <c r="AA654" s="1"/>
       <c r="AB654" s="1"/>
     </row>
-    <row r="655" ht="15.75" customHeight="1">
+    <row r="655" spans="1:28" ht="15.75" customHeight="1">
       <c r="A655" s="4"/>
       <c r="B655" s="4"/>
       <c r="C655" s="4"/>
@@ -20255,7 +20317,7 @@
       <c r="AA655" s="1"/>
       <c r="AB655" s="1"/>
     </row>
-    <row r="656" ht="15.75" customHeight="1">
+    <row r="656" spans="1:28" ht="15.75" customHeight="1">
       <c r="A656" s="4"/>
       <c r="B656" s="4"/>
       <c r="C656" s="4"/>
@@ -20285,7 +20347,7 @@
       <c r="AA656" s="1"/>
       <c r="AB656" s="1"/>
     </row>
-    <row r="657" ht="15.75" customHeight="1">
+    <row r="657" spans="1:28" ht="15.75" customHeight="1">
       <c r="A657" s="4"/>
       <c r="B657" s="4"/>
       <c r="C657" s="4"/>
@@ -20315,7 +20377,7 @@
       <c r="AA657" s="1"/>
       <c r="AB657" s="1"/>
     </row>
-    <row r="658" ht="15.75" customHeight="1">
+    <row r="658" spans="1:28" ht="15.75" customHeight="1">
       <c r="A658" s="4"/>
       <c r="B658" s="4"/>
       <c r="C658" s="4"/>
@@ -20345,7 +20407,7 @@
       <c r="AA658" s="1"/>
       <c r="AB658" s="1"/>
     </row>
-    <row r="659" ht="15.75" customHeight="1">
+    <row r="659" spans="1:28" ht="15.75" customHeight="1">
       <c r="A659" s="4"/>
       <c r="B659" s="4"/>
       <c r="C659" s="4"/>
@@ -20375,7 +20437,7 @@
       <c r="AA659" s="1"/>
       <c r="AB659" s="1"/>
     </row>
-    <row r="660" ht="15.75" customHeight="1">
+    <row r="660" spans="1:28" ht="15.75" customHeight="1">
       <c r="A660" s="4"/>
       <c r="B660" s="4"/>
       <c r="C660" s="4"/>
@@ -20405,7 +20467,7 @@
       <c r="AA660" s="1"/>
       <c r="AB660" s="1"/>
     </row>
-    <row r="661" ht="15.75" customHeight="1">
+    <row r="661" spans="1:28" ht="15.75" customHeight="1">
       <c r="A661" s="4"/>
       <c r="B661" s="4"/>
       <c r="C661" s="4"/>
@@ -20435,7 +20497,7 @@
       <c r="AA661" s="1"/>
       <c r="AB661" s="1"/>
     </row>
-    <row r="662" ht="15.75" customHeight="1">
+    <row r="662" spans="1:28" ht="15.75" customHeight="1">
       <c r="A662" s="4"/>
       <c r="B662" s="4"/>
       <c r="C662" s="4"/>
@@ -20465,7 +20527,7 @@
       <c r="AA662" s="1"/>
       <c r="AB662" s="1"/>
     </row>
-    <row r="663" ht="15.75" customHeight="1">
+    <row r="663" spans="1:28" ht="15.75" customHeight="1">
       <c r="A663" s="4"/>
       <c r="B663" s="4"/>
       <c r="C663" s="4"/>
@@ -20495,7 +20557,7 @@
       <c r="AA663" s="1"/>
       <c r="AB663" s="1"/>
     </row>
-    <row r="664" ht="15.75" customHeight="1">
+    <row r="664" spans="1:28" ht="15.75" customHeight="1">
       <c r="A664" s="4"/>
       <c r="B664" s="4"/>
       <c r="C664" s="4"/>
@@ -20525,7 +20587,7 @@
       <c r="AA664" s="1"/>
       <c r="AB664" s="1"/>
     </row>
-    <row r="665" ht="15.75" customHeight="1">
+    <row r="665" spans="1:28" ht="15.75" customHeight="1">
       <c r="A665" s="4"/>
       <c r="B665" s="4"/>
       <c r="C665" s="4"/>
@@ -20555,7 +20617,7 @@
       <c r="AA665" s="1"/>
       <c r="AB665" s="1"/>
     </row>
-    <row r="666" ht="15.75" customHeight="1">
+    <row r="666" spans="1:28" ht="15.75" customHeight="1">
       <c r="A666" s="4"/>
       <c r="B666" s="4"/>
       <c r="C666" s="4"/>
@@ -20585,7 +20647,7 @@
       <c r="AA666" s="1"/>
       <c r="AB666" s="1"/>
     </row>
-    <row r="667" ht="15.75" customHeight="1">
+    <row r="667" spans="1:28" ht="15.75" customHeight="1">
       <c r="A667" s="4"/>
       <c r="B667" s="4"/>
       <c r="C667" s="4"/>
@@ -20615,7 +20677,7 @@
       <c r="AA667" s="1"/>
       <c r="AB667" s="1"/>
     </row>
-    <row r="668" ht="15.75" customHeight="1">
+    <row r="668" spans="1:28" ht="15.75" customHeight="1">
       <c r="A668" s="4"/>
       <c r="B668" s="4"/>
       <c r="C668" s="4"/>
@@ -20645,7 +20707,7 @@
       <c r="AA668" s="1"/>
       <c r="AB668" s="1"/>
     </row>
-    <row r="669" ht="15.75" customHeight="1">
+    <row r="669" spans="1:28" ht="15.75" customHeight="1">
       <c r="A669" s="4"/>
       <c r="B669" s="4"/>
       <c r="C669" s="4"/>
@@ -20675,7 +20737,7 @@
       <c r="AA669" s="1"/>
       <c r="AB669" s="1"/>
     </row>
-    <row r="670" ht="15.75" customHeight="1">
+    <row r="670" spans="1:28" ht="15.75" customHeight="1">
       <c r="A670" s="4"/>
       <c r="B670" s="4"/>
       <c r="C670" s="4"/>
@@ -20705,7 +20767,7 @@
       <c r="AA670" s="1"/>
       <c r="AB670" s="1"/>
     </row>
-    <row r="671" ht="15.75" customHeight="1">
+    <row r="671" spans="1:28" ht="15.75" customHeight="1">
       <c r="A671" s="4"/>
       <c r="B671" s="4"/>
       <c r="C671" s="4"/>
@@ -20735,7 +20797,7 @@
       <c r="AA671" s="1"/>
       <c r="AB671" s="1"/>
     </row>
-    <row r="672" ht="15.75" customHeight="1">
+    <row r="672" spans="1:28" ht="15.75" customHeight="1">
       <c r="A672" s="4"/>
       <c r="B672" s="4"/>
       <c r="C672" s="4"/>
@@ -20765,7 +20827,7 @@
       <c r="AA672" s="1"/>
       <c r="AB672" s="1"/>
     </row>
-    <row r="673" ht="15.75" customHeight="1">
+    <row r="673" spans="1:28" ht="15.75" customHeight="1">
       <c r="A673" s="4"/>
       <c r="B673" s="4"/>
       <c r="C673" s="4"/>
@@ -20795,7 +20857,7 @@
       <c r="AA673" s="1"/>
       <c r="AB673" s="1"/>
     </row>
-    <row r="674" ht="15.75" customHeight="1">
+    <row r="674" spans="1:28" ht="15.75" customHeight="1">
       <c r="A674" s="4"/>
       <c r="B674" s="4"/>
       <c r="C674" s="4"/>
@@ -20825,7 +20887,7 @@
       <c r="AA674" s="1"/>
       <c r="AB674" s="1"/>
     </row>
-    <row r="675" ht="15.75" customHeight="1">
+    <row r="675" spans="1:28" ht="15.75" customHeight="1">
       <c r="A675" s="4"/>
       <c r="B675" s="4"/>
       <c r="C675" s="4"/>
@@ -20855,7 +20917,7 @@
       <c r="AA675" s="1"/>
       <c r="AB675" s="1"/>
     </row>
-    <row r="676" ht="15.75" customHeight="1">
+    <row r="676" spans="1:28" ht="15.75" customHeight="1">
       <c r="A676" s="4"/>
       <c r="B676" s="4"/>
       <c r="C676" s="4"/>
@@ -20885,7 +20947,7 @@
       <c r="AA676" s="1"/>
       <c r="AB676" s="1"/>
     </row>
-    <row r="677" ht="15.75" customHeight="1">
+    <row r="677" spans="1:28" ht="15.75" customHeight="1">
       <c r="A677" s="4"/>
       <c r="B677" s="4"/>
       <c r="C677" s="4"/>
@@ -20915,7 +20977,7 @@
       <c r="AA677" s="1"/>
       <c r="AB677" s="1"/>
     </row>
-    <row r="678" ht="15.75" customHeight="1">
+    <row r="678" spans="1:28" ht="15.75" customHeight="1">
       <c r="A678" s="4"/>
       <c r="B678" s="4"/>
       <c r="C678" s="4"/>
@@ -20945,7 +21007,7 @@
       <c r="AA678" s="1"/>
       <c r="AB678" s="1"/>
     </row>
-    <row r="679" ht="15.75" customHeight="1">
+    <row r="679" spans="1:28" ht="15.75" customHeight="1">
       <c r="A679" s="4"/>
       <c r="B679" s="4"/>
       <c r="C679" s="4"/>
@@ -20975,7 +21037,7 @@
       <c r="AA679" s="1"/>
       <c r="AB679" s="1"/>
     </row>
-    <row r="680" ht="15.75" customHeight="1">
+    <row r="680" spans="1:28" ht="15.75" customHeight="1">
       <c r="A680" s="4"/>
       <c r="B680" s="4"/>
       <c r="C680" s="4"/>
@@ -21005,7 +21067,7 @@
       <c r="AA680" s="1"/>
       <c r="AB680" s="1"/>
     </row>
-    <row r="681" ht="15.75" customHeight="1">
+    <row r="681" spans="1:28" ht="15.75" customHeight="1">
       <c r="A681" s="4"/>
       <c r="B681" s="4"/>
       <c r="C681" s="4"/>
@@ -21035,7 +21097,7 @@
       <c r="AA681" s="1"/>
       <c r="AB681" s="1"/>
     </row>
-    <row r="682" ht="15.75" customHeight="1">
+    <row r="682" spans="1:28" ht="15.75" customHeight="1">
       <c r="A682" s="4"/>
       <c r="B682" s="4"/>
       <c r="C682" s="4"/>
@@ -21065,7 +21127,7 @@
       <c r="AA682" s="1"/>
       <c r="AB682" s="1"/>
     </row>
-    <row r="683" ht="15.75" customHeight="1">
+    <row r="683" spans="1:28" ht="15.75" customHeight="1">
       <c r="A683" s="4"/>
       <c r="B683" s="4"/>
       <c r="C683" s="4"/>
@@ -21095,7 +21157,7 @@
       <c r="AA683" s="1"/>
       <c r="AB683" s="1"/>
     </row>
-    <row r="684" ht="15.75" customHeight="1">
+    <row r="684" spans="1:28" ht="15.75" customHeight="1">
       <c r="A684" s="4"/>
       <c r="B684" s="4"/>
       <c r="C684" s="4"/>
@@ -21125,7 +21187,7 @@
       <c r="AA684" s="1"/>
       <c r="AB684" s="1"/>
     </row>
-    <row r="685" ht="15.75" customHeight="1">
+    <row r="685" spans="1:28" ht="15.75" customHeight="1">
       <c r="A685" s="4"/>
       <c r="B685" s="4"/>
       <c r="C685" s="4"/>
@@ -21155,7 +21217,7 @@
       <c r="AA685" s="1"/>
       <c r="AB685" s="1"/>
     </row>
-    <row r="686" ht="15.75" customHeight="1">
+    <row r="686" spans="1:28" ht="15.75" customHeight="1">
       <c r="A686" s="4"/>
       <c r="B686" s="4"/>
       <c r="C686" s="4"/>
@@ -21185,7 +21247,7 @@
       <c r="AA686" s="1"/>
       <c r="AB686" s="1"/>
     </row>
-    <row r="687" ht="15.75" customHeight="1">
+    <row r="687" spans="1:28" ht="15.75" customHeight="1">
       <c r="A687" s="4"/>
       <c r="B687" s="4"/>
       <c r="C687" s="4"/>
@@ -21215,7 +21277,7 @@
       <c r="AA687" s="1"/>
       <c r="AB687" s="1"/>
     </row>
-    <row r="688" ht="15.75" customHeight="1">
+    <row r="688" spans="1:28" ht="15.75" customHeight="1">
       <c r="A688" s="4"/>
       <c r="B688" s="4"/>
       <c r="C688" s="4"/>
@@ -21245,7 +21307,7 @@
       <c r="AA688" s="1"/>
       <c r="AB688" s="1"/>
     </row>
-    <row r="689" ht="15.75" customHeight="1">
+    <row r="689" spans="1:28" ht="15.75" customHeight="1">
       <c r="A689" s="4"/>
       <c r="B689" s="4"/>
       <c r="C689" s="4"/>
@@ -21275,7 +21337,7 @@
       <c r="AA689" s="1"/>
       <c r="AB689" s="1"/>
     </row>
-    <row r="690" ht="15.75" customHeight="1">
+    <row r="690" spans="1:28" ht="15.75" customHeight="1">
       <c r="A690" s="4"/>
       <c r="B690" s="4"/>
       <c r="C690" s="4"/>
@@ -21305,7 +21367,7 @@
       <c r="AA690" s="1"/>
       <c r="AB690" s="1"/>
     </row>
-    <row r="691" ht="15.75" customHeight="1">
+    <row r="691" spans="1:28" ht="15.75" customHeight="1">
       <c r="A691" s="4"/>
       <c r="B691" s="4"/>
       <c r="C691" s="4"/>
@@ -21335,7 +21397,7 @@
       <c r="AA691" s="1"/>
       <c r="AB691" s="1"/>
     </row>
-    <row r="692" ht="15.75" customHeight="1">
+    <row r="692" spans="1:28" ht="15.75" customHeight="1">
       <c r="A692" s="4"/>
       <c r="B692" s="4"/>
       <c r="C692" s="4"/>
@@ -21365,7 +21427,7 @@
       <c r="AA692" s="1"/>
       <c r="AB692" s="1"/>
     </row>
-    <row r="693" ht="15.75" customHeight="1">
+    <row r="693" spans="1:28" ht="15.75" customHeight="1">
       <c r="A693" s="4"/>
       <c r="B693" s="4"/>
       <c r="C693" s="4"/>
@@ -21395,7 +21457,7 @@
       <c r="AA693" s="1"/>
       <c r="AB693" s="1"/>
     </row>
-    <row r="694" ht="15.75" customHeight="1">
+    <row r="694" spans="1:28" ht="15.75" customHeight="1">
       <c r="A694" s="4"/>
       <c r="B694" s="4"/>
       <c r="C694" s="4"/>
@@ -21425,7 +21487,7 @@
       <c r="AA694" s="1"/>
       <c r="AB694" s="1"/>
     </row>
-    <row r="695" ht="15.75" customHeight="1">
+    <row r="695" spans="1:28" ht="15.75" customHeight="1">
       <c r="A695" s="4"/>
       <c r="B695" s="4"/>
       <c r="C695" s="4"/>
@@ -21455,7 +21517,7 @@
       <c r="AA695" s="1"/>
       <c r="AB695" s="1"/>
     </row>
-    <row r="696" ht="15.75" customHeight="1">
+    <row r="696" spans="1:28" ht="15.75" customHeight="1">
       <c r="A696" s="4"/>
       <c r="B696" s="4"/>
       <c r="C696" s="4"/>
@@ -21485,7 +21547,7 @@
       <c r="AA696" s="1"/>
       <c r="AB696" s="1"/>
     </row>
-    <row r="697" ht="15.75" customHeight="1">
+    <row r="697" spans="1:28" ht="15.75" customHeight="1">
       <c r="A697" s="4"/>
       <c r="B697" s="4"/>
       <c r="C697" s="4"/>
@@ -21515,7 +21577,7 @@
       <c r="AA697" s="1"/>
       <c r="AB697" s="1"/>
     </row>
-    <row r="698" ht="15.75" customHeight="1">
+    <row r="698" spans="1:28" ht="15.75" customHeight="1">
       <c r="A698" s="4"/>
       <c r="B698" s="4"/>
       <c r="C698" s="4"/>
@@ -21545,7 +21607,7 @@
       <c r="AA698" s="1"/>
       <c r="AB698" s="1"/>
     </row>
-    <row r="699" ht="15.75" customHeight="1">
+    <row r="699" spans="1:28" ht="15.75" customHeight="1">
       <c r="A699" s="4"/>
       <c r="B699" s="4"/>
       <c r="C699" s="4"/>
@@ -21575,7 +21637,7 @@
       <c r="AA699" s="1"/>
       <c r="AB699" s="1"/>
     </row>
-    <row r="700" ht="15.75" customHeight="1">
+    <row r="700" spans="1:28" ht="15.75" customHeight="1">
       <c r="A700" s="4"/>
       <c r="B700" s="4"/>
       <c r="C700" s="4"/>
@@ -21605,7 +21667,7 @@
       <c r="AA700" s="1"/>
       <c r="AB700" s="1"/>
     </row>
-    <row r="701" ht="15.75" customHeight="1">
+    <row r="701" spans="1:28" ht="15.75" customHeight="1">
       <c r="A701" s="4"/>
       <c r="B701" s="4"/>
       <c r="C701" s="4"/>
@@ -21635,7 +21697,7 @@
       <c r="AA701" s="1"/>
       <c r="AB701" s="1"/>
     </row>
-    <row r="702" ht="15.75" customHeight="1">
+    <row r="702" spans="1:28" ht="15.75" customHeight="1">
       <c r="A702" s="4"/>
       <c r="B702" s="4"/>
       <c r="C702" s="4"/>
@@ -21665,7 +21727,7 @@
       <c r="AA702" s="1"/>
       <c r="AB702" s="1"/>
     </row>
-    <row r="703" ht="15.75" customHeight="1">
+    <row r="703" spans="1:28" ht="15.75" customHeight="1">
       <c r="A703" s="4"/>
       <c r="B703" s="4"/>
       <c r="C703" s="4"/>
@@ -21695,7 +21757,7 @@
       <c r="AA703" s="1"/>
       <c r="AB703" s="1"/>
     </row>
-    <row r="704" ht="15.75" customHeight="1">
+    <row r="704" spans="1:28" ht="15.75" customHeight="1">
       <c r="A704" s="4"/>
       <c r="B704" s="4"/>
       <c r="C704" s="4"/>
@@ -21725,7 +21787,7 @@
       <c r="AA704" s="1"/>
       <c r="AB704" s="1"/>
     </row>
-    <row r="705" ht="15.75" customHeight="1">
+    <row r="705" spans="1:28" ht="15.75" customHeight="1">
       <c r="A705" s="4"/>
       <c r="B705" s="4"/>
       <c r="C705" s="4"/>
@@ -21755,7 +21817,7 @@
       <c r="AA705" s="1"/>
       <c r="AB705" s="1"/>
     </row>
-    <row r="706" ht="15.75" customHeight="1">
+    <row r="706" spans="1:28" ht="15.75" customHeight="1">
       <c r="A706" s="4"/>
       <c r="B706" s="4"/>
       <c r="C706" s="4"/>
@@ -21785,7 +21847,7 @@
       <c r="AA706" s="1"/>
       <c r="AB706" s="1"/>
     </row>
-    <row r="707" ht="15.75" customHeight="1">
+    <row r="707" spans="1:28" ht="15.75" customHeight="1">
       <c r="A707" s="4"/>
       <c r="B707" s="4"/>
       <c r="C707" s="4"/>
@@ -21815,7 +21877,7 @@
       <c r="AA707" s="1"/>
       <c r="AB707" s="1"/>
     </row>
-    <row r="708" ht="15.75" customHeight="1">
+    <row r="708" spans="1:28" ht="15.75" customHeight="1">
       <c r="A708" s="4"/>
       <c r="B708" s="4"/>
       <c r="C708" s="4"/>
@@ -21845,7 +21907,7 @@
       <c r="AA708" s="1"/>
       <c r="AB708" s="1"/>
     </row>
-    <row r="709" ht="15.75" customHeight="1">
+    <row r="709" spans="1:28" ht="15.75" customHeight="1">
       <c r="A709" s="4"/>
       <c r="B709" s="4"/>
       <c r="C709" s="4"/>
@@ -21875,7 +21937,7 @@
       <c r="AA709" s="1"/>
       <c r="AB709" s="1"/>
     </row>
-    <row r="710" ht="15.75" customHeight="1">
+    <row r="710" spans="1:28" ht="15.75" customHeight="1">
       <c r="A710" s="4"/>
       <c r="B710" s="4"/>
       <c r="C710" s="4"/>
@@ -21905,7 +21967,7 @@
       <c r="AA710" s="1"/>
       <c r="AB710" s="1"/>
     </row>
-    <row r="711" ht="15.75" customHeight="1">
+    <row r="711" spans="1:28" ht="15.75" customHeight="1">
       <c r="A711" s="4"/>
       <c r="B711" s="4"/>
       <c r="C711" s="4"/>
@@ -21935,7 +21997,7 @@
       <c r="AA711" s="1"/>
       <c r="AB711" s="1"/>
     </row>
-    <row r="712" ht="15.75" customHeight="1">
+    <row r="712" spans="1:28" ht="15.75" customHeight="1">
       <c r="A712" s="4"/>
       <c r="B712" s="4"/>
       <c r="C712" s="4"/>
@@ -21965,7 +22027,7 @@
       <c r="AA712" s="1"/>
       <c r="AB712" s="1"/>
     </row>
-    <row r="713" ht="15.75" customHeight="1">
+    <row r="713" spans="1:28" ht="15.75" customHeight="1">
       <c r="A713" s="4"/>
       <c r="B713" s="4"/>
       <c r="C713" s="4"/>
@@ -21995,7 +22057,7 @@
       <c r="AA713" s="1"/>
       <c r="AB713" s="1"/>
     </row>
-    <row r="714" ht="15.75" customHeight="1">
+    <row r="714" spans="1:28" ht="15.75" customHeight="1">
       <c r="A714" s="4"/>
       <c r="B714" s="4"/>
       <c r="C714" s="4"/>
@@ -22025,7 +22087,7 @@
       <c r="AA714" s="1"/>
       <c r="AB714" s="1"/>
     </row>
-    <row r="715" ht="15.75" customHeight="1">
+    <row r="715" spans="1:28" ht="15.75" customHeight="1">
       <c r="A715" s="4"/>
       <c r="B715" s="4"/>
       <c r="C715" s="4"/>
@@ -22055,7 +22117,7 @@
       <c r="AA715" s="1"/>
       <c r="AB715" s="1"/>
     </row>
-    <row r="716" ht="15.75" customHeight="1">
+    <row r="716" spans="1:28" ht="15.75" customHeight="1">
       <c r="A716" s="4"/>
       <c r="B716" s="4"/>
       <c r="C716" s="4"/>
@@ -22085,7 +22147,7 @@
       <c r="AA716" s="1"/>
       <c r="AB716" s="1"/>
     </row>
-    <row r="717" ht="15.75" customHeight="1">
+    <row r="717" spans="1:28" ht="15.75" customHeight="1">
       <c r="A717" s="4"/>
       <c r="B717" s="4"/>
       <c r="C717" s="4"/>
@@ -22115,7 +22177,7 @@
       <c r="AA717" s="1"/>
       <c r="AB717" s="1"/>
     </row>
-    <row r="718" ht="15.75" customHeight="1">
+    <row r="718" spans="1:28" ht="15.75" customHeight="1">
       <c r="A718" s="4"/>
       <c r="B718" s="4"/>
       <c r="C718" s="4"/>
@@ -22145,7 +22207,7 @@
       <c r="AA718" s="1"/>
       <c r="AB718" s="1"/>
     </row>
-    <row r="719" ht="15.75" customHeight="1">
+    <row r="719" spans="1:28" ht="15.75" customHeight="1">
       <c r="A719" s="4"/>
       <c r="B719" s="4"/>
       <c r="C719" s="4"/>
@@ -22175,7 +22237,7 @@
       <c r="AA719" s="1"/>
       <c r="AB719" s="1"/>
     </row>
-    <row r="720" ht="15.75" customHeight="1">
+    <row r="720" spans="1:28" ht="15.75" customHeight="1">
       <c r="A720" s="4"/>
       <c r="B720" s="4"/>
       <c r="C720" s="4"/>
@@ -22205,7 +22267,7 @@
       <c r="AA720" s="1"/>
       <c r="AB720" s="1"/>
     </row>
-    <row r="721" ht="15.75" customHeight="1">
+    <row r="721" spans="1:28" ht="15.75" customHeight="1">
       <c r="A721" s="4"/>
       <c r="B721" s="4"/>
       <c r="C721" s="4"/>
@@ -22235,7 +22297,7 @@
       <c r="AA721" s="1"/>
       <c r="AB721" s="1"/>
     </row>
-    <row r="722" ht="15.75" customHeight="1">
+    <row r="722" spans="1:28" ht="15.75" customHeight="1">
       <c r="A722" s="4"/>
       <c r="B722" s="4"/>
       <c r="C722" s="4"/>
@@ -22265,7 +22327,7 @@
       <c r="AA722" s="1"/>
       <c r="AB722" s="1"/>
     </row>
-    <row r="723" ht="15.75" customHeight="1">
+    <row r="723" spans="1:28" ht="15.75" customHeight="1">
       <c r="A723" s="4"/>
       <c r="B723" s="4"/>
       <c r="C723" s="4"/>
@@ -22295,7 +22357,7 @@
       <c r="AA723" s="1"/>
       <c r="AB723" s="1"/>
     </row>
-    <row r="724" ht="15.75" customHeight="1">
+    <row r="724" spans="1:28" ht="15.75" customHeight="1">
       <c r="A724" s="4"/>
       <c r="B724" s="4"/>
       <c r="C724" s="4"/>
@@ -22325,7 +22387,7 @@
       <c r="AA724" s="1"/>
       <c r="AB724" s="1"/>
     </row>
-    <row r="725" ht="15.75" customHeight="1">
+    <row r="725" spans="1:28" ht="15.75" customHeight="1">
       <c r="A725" s="4"/>
       <c r="B725" s="4"/>
       <c r="C725" s="4"/>
@@ -22355,7 +22417,7 @@
       <c r="AA725" s="1"/>
       <c r="AB725" s="1"/>
     </row>
-    <row r="726" ht="15.75" customHeight="1">
+    <row r="726" spans="1:28" ht="15.75" customHeight="1">
       <c r="A726" s="4"/>
       <c r="B726" s="4"/>
       <c r="C726" s="4"/>
@@ -22385,7 +22447,7 @@
       <c r="AA726" s="1"/>
       <c r="AB726" s="1"/>
     </row>
-    <row r="727" ht="15.75" customHeight="1">
+    <row r="727" spans="1:28" ht="15.75" customHeight="1">
       <c r="A727" s="4"/>
       <c r="B727" s="4"/>
       <c r="C727" s="4"/>
@@ -22415,7 +22477,7 @@
       <c r="AA727" s="1"/>
       <c r="AB727" s="1"/>
     </row>
-    <row r="728" ht="15.75" customHeight="1">
+    <row r="728" spans="1:28" ht="15.75" customHeight="1">
       <c r="A728" s="4"/>
       <c r="B728" s="4"/>
       <c r="C728" s="4"/>
@@ -22445,7 +22507,7 @@
       <c r="AA728" s="1"/>
       <c r="AB728" s="1"/>
     </row>
-    <row r="729" ht="15.75" customHeight="1">
+    <row r="729" spans="1:28" ht="15.75" customHeight="1">
       <c r="A729" s="4"/>
       <c r="B729" s="4"/>
       <c r="C729" s="4"/>
@@ -22475,7 +22537,7 @@
       <c r="AA729" s="1"/>
       <c r="AB729" s="1"/>
     </row>
-    <row r="730" ht="15.75" customHeight="1">
+    <row r="730" spans="1:28" ht="15.75" customHeight="1">
       <c r="A730" s="4"/>
       <c r="B730" s="4"/>
       <c r="C730" s="4"/>
@@ -22505,7 +22567,7 @@
       <c r="AA730" s="1"/>
       <c r="AB730" s="1"/>
     </row>
-    <row r="731" ht="15.75" customHeight="1">
+    <row r="731" spans="1:28" ht="15.75" customHeight="1">
       <c r="A731" s="4"/>
       <c r="B731" s="4"/>
       <c r="C731" s="4"/>
@@ -22535,7 +22597,7 @@
       <c r="AA731" s="1"/>
       <c r="AB731" s="1"/>
     </row>
-    <row r="732" ht="15.75" customHeight="1">
+    <row r="732" spans="1:28" ht="15.75" customHeight="1">
       <c r="A732" s="4"/>
       <c r="B732" s="4"/>
       <c r="C732" s="4"/>
@@ -22565,7 +22627,7 @@
       <c r="AA732" s="1"/>
       <c r="AB732" s="1"/>
     </row>
-    <row r="733" ht="15.75" customHeight="1">
+    <row r="733" spans="1:28" ht="15.75" customHeight="1">
       <c r="A733" s="4"/>
       <c r="B733" s="4"/>
       <c r="C733" s="4"/>
@@ -22595,7 +22657,7 @@
       <c r="AA733" s="1"/>
       <c r="AB733" s="1"/>
     </row>
-    <row r="734" ht="15.75" customHeight="1">
+    <row r="734" spans="1:28" ht="15.75" customHeight="1">
       <c r="A734" s="4"/>
       <c r="B734" s="4"/>
       <c r="C734" s="4"/>
@@ -22625,7 +22687,7 @@
       <c r="AA734" s="1"/>
       <c r="AB734" s="1"/>
     </row>
-    <row r="735" ht="15.75" customHeight="1">
+    <row r="735" spans="1:28" ht="15.75" customHeight="1">
       <c r="A735" s="4"/>
       <c r="B735" s="4"/>
       <c r="C735" s="4"/>
@@ -22655,7 +22717,7 @@
       <c r="AA735" s="1"/>
       <c r="AB735" s="1"/>
     </row>
-    <row r="736" ht="15.75" customHeight="1">
+    <row r="736" spans="1:28" ht="15.75" customHeight="1">
       <c r="A736" s="4"/>
       <c r="B736" s="4"/>
       <c r="C736" s="4"/>
@@ -22685,7 +22747,7 @@
       <c r="AA736" s="1"/>
       <c r="AB736" s="1"/>
     </row>
-    <row r="737" ht="15.75" customHeight="1">
+    <row r="737" spans="1:28" ht="15.75" customHeight="1">
       <c r="A737" s="4"/>
       <c r="B737" s="4"/>
       <c r="C737" s="4"/>
@@ -22715,7 +22777,7 @@
       <c r="AA737" s="1"/>
       <c r="AB737" s="1"/>
     </row>
-    <row r="738" ht="15.75" customHeight="1">
+    <row r="738" spans="1:28" ht="15.75" customHeight="1">
       <c r="A738" s="4"/>
       <c r="B738" s="4"/>
       <c r="C738" s="4"/>
@@ -22745,7 +22807,7 @@
       <c r="AA738" s="1"/>
       <c r="AB738" s="1"/>
     </row>
-    <row r="739" ht="15.75" customHeight="1">
+    <row r="739" spans="1:28" ht="15.75" customHeight="1">
       <c r="A739" s="4"/>
       <c r="B739" s="4"/>
       <c r="C739" s="4"/>
@@ -22775,7 +22837,7 @@
       <c r="AA739" s="1"/>
       <c r="AB739" s="1"/>
     </row>
-    <row r="740" ht="15.75" customHeight="1">
+    <row r="740" spans="1:28" ht="15.75" customHeight="1">
       <c r="A740" s="4"/>
       <c r="B740" s="4"/>
       <c r="C740" s="4"/>
@@ -22805,7 +22867,7 @@
       <c r="AA740" s="1"/>
       <c r="AB740" s="1"/>
     </row>
-    <row r="741" ht="15.75" customHeight="1">
+    <row r="741" spans="1:28" ht="15.75" customHeight="1">
       <c r="A741" s="4"/>
       <c r="B741" s="4"/>
       <c r="C741" s="4"/>
@@ -22835,7 +22897,7 @@
       <c r="AA741" s="1"/>
       <c r="AB741" s="1"/>
     </row>
-    <row r="742" ht="15.75" customHeight="1">
+    <row r="742" spans="1:28" ht="15.75" customHeight="1">
       <c r="A742" s="4"/>
       <c r="B742" s="4"/>
       <c r="C742" s="4"/>
@@ -22865,7 +22927,7 @@
       <c r="AA742" s="1"/>
       <c r="AB742" s="1"/>
     </row>
-    <row r="743" ht="15.75" customHeight="1">
+    <row r="743" spans="1:28" ht="15.75" customHeight="1">
       <c r="A743" s="4"/>
       <c r="B743" s="4"/>
       <c r="C743" s="4"/>
@@ -22895,7 +22957,7 @@
       <c r="AA743" s="1"/>
       <c r="AB743" s="1"/>
     </row>
-    <row r="744" ht="15.75" customHeight="1">
+    <row r="744" spans="1:28" ht="15.75" customHeight="1">
       <c r="A744" s="4"/>
       <c r="B744" s="4"/>
       <c r="C744" s="4"/>
@@ -22925,7 +22987,7 @@
       <c r="AA744" s="1"/>
       <c r="AB744" s="1"/>
     </row>
-    <row r="745" ht="15.75" customHeight="1">
+    <row r="745" spans="1:28" ht="15.75" customHeight="1">
       <c r="A745" s="4"/>
       <c r="B745" s="4"/>
       <c r="C745" s="4"/>
@@ -22955,7 +23017,7 @@
       <c r="AA745" s="1"/>
       <c r="AB745" s="1"/>
     </row>
-    <row r="746" ht="15.75" customHeight="1">
+    <row r="746" spans="1:28" ht="15.75" customHeight="1">
       <c r="A746" s="4"/>
       <c r="B746" s="4"/>
       <c r="C746" s="4"/>
@@ -22985,7 +23047,7 @@
       <c r="AA746" s="1"/>
       <c r="AB746" s="1"/>
     </row>
-    <row r="747" ht="15.75" customHeight="1">
+    <row r="747" spans="1:28" ht="15.75" customHeight="1">
       <c r="A747" s="4"/>
       <c r="B747" s="4"/>
       <c r="C747" s="4"/>
@@ -23015,7 +23077,7 @@
       <c r="AA747" s="1"/>
       <c r="AB747" s="1"/>
     </row>
-    <row r="748" ht="15.75" customHeight="1">
+    <row r="748" spans="1:28" ht="15.75" customHeight="1">
       <c r="A748" s="4"/>
       <c r="B748" s="4"/>
       <c r="C748" s="4"/>
@@ -23045,7 +23107,7 @@
       <c r="AA748" s="1"/>
       <c r="AB748" s="1"/>
     </row>
-    <row r="749" ht="15.75" customHeight="1">
+    <row r="749" spans="1:28" ht="15.75" customHeight="1">
       <c r="A749" s="4"/>
       <c r="B749" s="4"/>
       <c r="C749" s="4"/>
@@ -23075,7 +23137,7 @@
       <c r="AA749" s="1"/>
       <c r="AB749" s="1"/>
     </row>
-    <row r="750" ht="15.75" customHeight="1">
+    <row r="750" spans="1:28" ht="15.75" customHeight="1">
       <c r="A750" s="4"/>
       <c r="B750" s="4"/>
       <c r="C750" s="4"/>
@@ -23105,7 +23167,7 @@
       <c r="AA750" s="1"/>
       <c r="AB750" s="1"/>
     </row>
-    <row r="751" ht="15.75" customHeight="1">
+    <row r="751" spans="1:28" ht="15.75" customHeight="1">
       <c r="A751" s="4"/>
       <c r="B751" s="4"/>
       <c r="C751" s="4"/>
@@ -23135,7 +23197,7 @@
       <c r="AA751" s="1"/>
       <c r="AB751" s="1"/>
     </row>
-    <row r="752" ht="15.75" customHeight="1">
+    <row r="752" spans="1:28" ht="15.75" customHeight="1">
       <c r="A752" s="4"/>
       <c r="B752" s="4"/>
       <c r="C752" s="4"/>
@@ -23165,7 +23227,7 @@
       <c r="AA752" s="1"/>
       <c r="AB752" s="1"/>
     </row>
-    <row r="753" ht="15.75" customHeight="1">
+    <row r="753" spans="1:28" ht="15.75" customHeight="1">
       <c r="A753" s="4"/>
       <c r="B753" s="4"/>
       <c r="C753" s="4"/>
@@ -23195,7 +23257,7 @@
       <c r="AA753" s="1"/>
       <c r="AB753" s="1"/>
     </row>
-    <row r="754" ht="15.75" customHeight="1">
+    <row r="754" spans="1:28" ht="15.75" customHeight="1">
       <c r="A754" s="4"/>
       <c r="B754" s="4"/>
       <c r="C754" s="4"/>
@@ -23225,7 +23287,7 @@
       <c r="AA754" s="1"/>
       <c r="AB754" s="1"/>
     </row>
-    <row r="755" ht="15.75" customHeight="1">
+    <row r="755" spans="1:28" ht="15.75" customHeight="1">
       <c r="A755" s="4"/>
       <c r="B755" s="4"/>
       <c r="C755" s="4"/>
@@ -23255,7 +23317,7 @@
       <c r="AA755" s="1"/>
       <c r="AB755" s="1"/>
     </row>
-    <row r="756" ht="15.75" customHeight="1">
+    <row r="756" spans="1:28" ht="15.75" customHeight="1">
       <c r="A756" s="4"/>
       <c r="B756" s="4"/>
       <c r="C756" s="4"/>
@@ -23285,7 +23347,7 @@
       <c r="AA756" s="1"/>
       <c r="AB756" s="1"/>
     </row>
-    <row r="757" ht="15.75" customHeight="1">
+    <row r="757" spans="1:28" ht="15.75" customHeight="1">
       <c r="A757" s="4"/>
       <c r="B757" s="4"/>
       <c r="C757" s="4"/>
@@ -23315,7 +23377,7 @@
       <c r="AA757" s="1"/>
       <c r="AB757" s="1"/>
     </row>
-    <row r="758" ht="15.75" customHeight="1">
+    <row r="758" spans="1:28" ht="15.75" customHeight="1">
       <c r="A758" s="4"/>
       <c r="B758" s="4"/>
       <c r="C758" s="4"/>
@@ -23345,7 +23407,7 @@
       <c r="AA758" s="1"/>
       <c r="AB758" s="1"/>
     </row>
-    <row r="759" ht="15.75" customHeight="1">
+    <row r="759" spans="1:28" ht="15.75" customHeight="1">
       <c r="A759" s="4"/>
       <c r="B759" s="4"/>
       <c r="C759" s="4"/>
@@ -23375,7 +23437,7 @@
       <c r="AA759" s="1"/>
       <c r="AB759" s="1"/>
     </row>
-    <row r="760" ht="15.75" customHeight="1">
+    <row r="760" spans="1:28" ht="15.75" customHeight="1">
       <c r="A760" s="4"/>
       <c r="B760" s="4"/>
       <c r="C760" s="4"/>
@@ -23405,7 +23467,7 @@
       <c r="AA760" s="1"/>
       <c r="AB760" s="1"/>
     </row>
-    <row r="761" ht="15.75" customHeight="1">
+    <row r="761" spans="1:28" ht="15.75" customHeight="1">
       <c r="A761" s="4"/>
       <c r="B761" s="4"/>
       <c r="C761" s="4"/>
@@ -23435,7 +23497,7 @@
       <c r="AA761" s="1"/>
       <c r="AB761" s="1"/>
     </row>
-    <row r="762" ht="15.75" customHeight="1">
+    <row r="762" spans="1:28" ht="15.75" customHeight="1">
       <c r="A762" s="4"/>
       <c r="B762" s="4"/>
       <c r="C762" s="4"/>
@@ -23465,7 +23527,7 @@
       <c r="AA762" s="1"/>
       <c r="AB762" s="1"/>
     </row>
-    <row r="763" ht="15.75" customHeight="1">
+    <row r="763" spans="1:28" ht="15.75" customHeight="1">
       <c r="A763" s="4"/>
       <c r="B763" s="4"/>
       <c r="C763" s="4"/>
@@ -23495,7 +23557,7 @@
       <c r="AA763" s="1"/>
       <c r="AB763" s="1"/>
     </row>
-    <row r="764" ht="15.75" customHeight="1">
+    <row r="764" spans="1:28" ht="15.75" customHeight="1">
       <c r="A764" s="4"/>
       <c r="B764" s="4"/>
       <c r="C764" s="4"/>
@@ -23525,7 +23587,7 @@
       <c r="AA764" s="1"/>
       <c r="AB764" s="1"/>
     </row>
-    <row r="765" ht="15.75" customHeight="1">
+    <row r="765" spans="1:28" ht="15.75" customHeight="1">
       <c r="A765" s="4"/>
       <c r="B765" s="4"/>
       <c r="C765" s="4"/>
@@ -23555,7 +23617,7 @@
       <c r="AA765" s="1"/>
       <c r="AB765" s="1"/>
     </row>
-    <row r="766" ht="15.75" customHeight="1">
+    <row r="766" spans="1:28" ht="15.75" customHeight="1">
       <c r="A766" s="4"/>
       <c r="B766" s="4"/>
       <c r="C766" s="4"/>
@@ -23585,7 +23647,7 @@
       <c r="AA766" s="1"/>
       <c r="AB766" s="1"/>
     </row>
-    <row r="767" ht="15.75" customHeight="1">
+    <row r="767" spans="1:28" ht="15.75" customHeight="1">
       <c r="A767" s="4"/>
       <c r="B767" s="4"/>
       <c r="C767" s="4"/>
@@ -23615,7 +23677,7 @@
       <c r="AA767" s="1"/>
       <c r="AB767" s="1"/>
     </row>
-    <row r="768" ht="15.75" customHeight="1">
+    <row r="768" spans="1:28" ht="15.75" customHeight="1">
       <c r="A768" s="4"/>
       <c r="B768" s="4"/>
       <c r="C768" s="4"/>
@@ -23645,7 +23707,7 @@
       <c r="AA768" s="1"/>
       <c r="AB768" s="1"/>
     </row>
-    <row r="769" ht="15.75" customHeight="1">
+    <row r="769" spans="1:28" ht="15.75" customHeight="1">
       <c r="A769" s="4"/>
       <c r="B769" s="4"/>
       <c r="C769" s="4"/>
@@ -23675,7 +23737,7 @@
       <c r="AA769" s="1"/>
       <c r="AB769" s="1"/>
     </row>
-    <row r="770" ht="15.75" customHeight="1">
+    <row r="770" spans="1:28" ht="15.75" customHeight="1">
       <c r="A770" s="4"/>
       <c r="B770" s="4"/>
       <c r="C770" s="4"/>
@@ -23705,7 +23767,7 @@
       <c r="AA770" s="1"/>
       <c r="AB770" s="1"/>
     </row>
-    <row r="771" ht="15.75" customHeight="1">
+    <row r="771" spans="1:28" ht="15.75" customHeight="1">
       <c r="A771" s="4"/>
       <c r="B771" s="4"/>
       <c r="C771" s="4"/>
@@ -23735,7 +23797,7 @@
       <c r="AA771" s="1"/>
       <c r="AB771" s="1"/>
     </row>
-    <row r="772" ht="15.75" customHeight="1">
+    <row r="772" spans="1:28" ht="15.75" customHeight="1">
       <c r="A772" s="4"/>
       <c r="B772" s="4"/>
       <c r="C772" s="4"/>
@@ -23765,7 +23827,7 @@
       <c r="AA772" s="1"/>
       <c r="AB772" s="1"/>
     </row>
-    <row r="773" ht="15.75" customHeight="1">
+    <row r="773" spans="1:28" ht="15.75" customHeight="1">
       <c r="A773" s="4"/>
       <c r="B773" s="4"/>
       <c r="C773" s="4"/>
@@ -23795,7 +23857,7 @@
       <c r="AA773" s="1"/>
       <c r="AB773" s="1"/>
     </row>
-    <row r="774" ht="15.75" customHeight="1">
+    <row r="774" spans="1:28" ht="15.75" customHeight="1">
       <c r="A774" s="4"/>
       <c r="B774" s="4"/>
       <c r="C774" s="4"/>
@@ -23825,7 +23887,7 @@
       <c r="AA774" s="1"/>
       <c r="AB774" s="1"/>
     </row>
-    <row r="775" ht="15.75" customHeight="1">
+    <row r="775" spans="1:28" ht="15.75" customHeight="1">
       <c r="A775" s="4"/>
       <c r="B775" s="4"/>
       <c r="C775" s="4"/>
@@ -23855,7 +23917,7 @@
       <c r="AA775" s="1"/>
       <c r="AB775" s="1"/>
     </row>
-    <row r="776" ht="15.75" customHeight="1">
+    <row r="776" spans="1:28" ht="15.75" customHeight="1">
       <c r="A776" s="4"/>
       <c r="B776" s="4"/>
       <c r="C776" s="4"/>
@@ -23885,7 +23947,7 @@
       <c r="AA776" s="1"/>
       <c r="AB776" s="1"/>
     </row>
-    <row r="777" ht="15.75" customHeight="1">
+    <row r="777" spans="1:28" ht="15.75" customHeight="1">
       <c r="A777" s="4"/>
       <c r="B777" s="4"/>
       <c r="C777" s="4"/>
@@ -23915,7 +23977,7 @@
       <c r="AA777" s="1"/>
       <c r="AB777" s="1"/>
     </row>
-    <row r="778" ht="15.75" customHeight="1">
+    <row r="778" spans="1:28" ht="15.75" customHeight="1">
       <c r="A778" s="4"/>
       <c r="B778" s="4"/>
       <c r="C778" s="4"/>
@@ -23945,7 +24007,7 @@
       <c r="AA778" s="1"/>
       <c r="AB778" s="1"/>
     </row>
-    <row r="779" ht="15.75" customHeight="1">
+    <row r="779" spans="1:28" ht="15.75" customHeight="1">
       <c r="A779" s="4"/>
       <c r="B779" s="4"/>
       <c r="C779" s="4"/>
@@ -23975,7 +24037,7 @@
       <c r="AA779" s="1"/>
       <c r="AB779" s="1"/>
     </row>
-    <row r="780" ht="15.75" customHeight="1">
+    <row r="780" spans="1:28" ht="15.75" customHeight="1">
       <c r="A780" s="4"/>
       <c r="B780" s="4"/>
       <c r="C780" s="4"/>
@@ -24005,7 +24067,7 @@
       <c r="AA780" s="1"/>
       <c r="AB780" s="1"/>
     </row>
-    <row r="781" ht="15.75" customHeight="1">
+    <row r="781" spans="1:28" ht="15.75" customHeight="1">
       <c r="A781" s="4"/>
       <c r="B781" s="4"/>
       <c r="C781" s="4"/>
@@ -24035,7 +24097,7 @@
       <c r="AA781" s="1"/>
       <c r="AB781" s="1"/>
     </row>
-    <row r="782" ht="15.75" customHeight="1">
+    <row r="782" spans="1:28" ht="15.75" customHeight="1">
       <c r="A782" s="4"/>
       <c r="B782" s="4"/>
       <c r="C782" s="4"/>
@@ -24065,7 +24127,7 @@
       <c r="AA782" s="1"/>
       <c r="AB782" s="1"/>
     </row>
-    <row r="783" ht="15.75" customHeight="1">
+    <row r="783" spans="1:28" ht="15.75" customHeight="1">
       <c r="A783" s="4"/>
       <c r="B783" s="4"/>
       <c r="C783" s="4"/>
@@ -24095,7 +24157,7 @@
       <c r="AA783" s="1"/>
       <c r="AB783" s="1"/>
     </row>
-    <row r="784" ht="15.75" customHeight="1">
+    <row r="784" spans="1:28" ht="15.75" customHeight="1">
       <c r="A784" s="4"/>
       <c r="B784" s="4"/>
       <c r="C784" s="4"/>
@@ -24125,7 +24187,7 @@
       <c r="AA784" s="1"/>
       <c r="AB784" s="1"/>
     </row>
-    <row r="785" ht="15.75" customHeight="1">
+    <row r="785" spans="1:28" ht="15.75" customHeight="1">
       <c r="A785" s="4"/>
       <c r="B785" s="4"/>
       <c r="C785" s="4"/>
@@ -24155,7 +24217,7 @@
       <c r="AA785" s="1"/>
       <c r="AB785" s="1"/>
     </row>
-    <row r="786" ht="15.75" customHeight="1">
+    <row r="786" spans="1:28" ht="15.75" customHeight="1">
       <c r="A786" s="4"/>
       <c r="B786" s="4"/>
       <c r="C786" s="4"/>
@@ -24185,7 +24247,7 @@
       <c r="AA786" s="1"/>
       <c r="AB786" s="1"/>
     </row>
-    <row r="787" ht="15.75" customHeight="1">
+    <row r="787" spans="1:28" ht="15.75" customHeight="1">
       <c r="A787" s="4"/>
       <c r="B787" s="4"/>
       <c r="C787" s="4"/>
@@ -24215,7 +24277,7 @@
       <c r="AA787" s="1"/>
       <c r="AB787" s="1"/>
     </row>
-    <row r="788" ht="15.75" customHeight="1">
+    <row r="788" spans="1:28" ht="15.75" customHeight="1">
       <c r="A788" s="4"/>
       <c r="B788" s="4"/>
       <c r="C788" s="4"/>
@@ -24245,7 +24307,7 @@
       <c r="AA788" s="1"/>
       <c r="AB788" s="1"/>
     </row>
-    <row r="789" ht="15.75" customHeight="1">
+    <row r="789" spans="1:28" ht="15.75" customHeight="1">
       <c r="A789" s="4"/>
       <c r="B789" s="4"/>
       <c r="C789" s="4"/>
@@ -24275,7 +24337,7 @@
       <c r="AA789" s="1"/>
       <c r="AB789" s="1"/>
     </row>
-    <row r="790" ht="15.75" customHeight="1">
+    <row r="790" spans="1:28" ht="15.75" customHeight="1">
       <c r="A790" s="4"/>
       <c r="B790" s="4"/>
       <c r="C790" s="4"/>
@@ -24305,7 +24367,7 @@
       <c r="AA790" s="1"/>
       <c r="AB790" s="1"/>
     </row>
-    <row r="791" ht="15.75" customHeight="1">
+    <row r="791" spans="1:28" ht="15.75" customHeight="1">
       <c r="A791" s="4"/>
       <c r="B791" s="4"/>
       <c r="C791" s="4"/>
@@ -24335,7 +24397,7 @@
       <c r="AA791" s="1"/>
       <c r="AB791" s="1"/>
     </row>
-    <row r="792" ht="15.75" customHeight="1">
+    <row r="792" spans="1:28" ht="15.75" customHeight="1">
       <c r="A792" s="4"/>
       <c r="B792" s="4"/>
       <c r="C792" s="4"/>
@@ -24365,7 +24427,7 @@
       <c r="AA792" s="1"/>
       <c r="AB792" s="1"/>
     </row>
-    <row r="793" ht="15.75" customHeight="1">
+    <row r="793" spans="1:28" ht="15.75" customHeight="1">
       <c r="A793" s="4"/>
       <c r="B793" s="4"/>
       <c r="C793" s="4"/>
@@ -24395,7 +24457,7 @@
       <c r="AA793" s="1"/>
       <c r="AB793" s="1"/>
     </row>
-    <row r="794" ht="15.75" customHeight="1">
+    <row r="794" spans="1:28" ht="15.75" customHeight="1">
       <c r="A794" s="4"/>
       <c r="B794" s="4"/>
       <c r="C794" s="4"/>
@@ -24425,7 +24487,7 @@
       <c r="AA794" s="1"/>
       <c r="AB794" s="1"/>
     </row>
-    <row r="795" ht="15.75" customHeight="1">
+    <row r="795" spans="1:28" ht="15.75" customHeight="1">
       <c r="A795" s="4"/>
       <c r="B795" s="4"/>
       <c r="C795" s="4"/>
@@ -24455,7 +24517,7 @@
       <c r="AA795" s="1"/>
       <c r="AB795" s="1"/>
     </row>
-    <row r="796" ht="15.75" customHeight="1">
+    <row r="796" spans="1:28" ht="15.75" customHeight="1">
       <c r="A796" s="4"/>
       <c r="B796" s="4"/>
       <c r="C796" s="4"/>
@@ -24485,7 +24547,7 @@
       <c r="AA796" s="1"/>
       <c r="AB796" s="1"/>
     </row>
-    <row r="797" ht="15.75" customHeight="1">
+    <row r="797" spans="1:28" ht="15.75" customHeight="1">
       <c r="A797" s="4"/>
       <c r="B797" s="4"/>
       <c r="C797" s="4"/>
@@ -24515,7 +24577,7 @@
       <c r="AA797" s="1"/>
       <c r="AB797" s="1"/>
     </row>
-    <row r="798" ht="15.75" customHeight="1">
+    <row r="798" spans="1:28" ht="15.75" customHeight="1">
       <c r="A798" s="4"/>
       <c r="B798" s="4"/>
       <c r="C798" s="4"/>
@@ -24545,7 +24607,7 @@
       <c r="AA798" s="1"/>
       <c r="AB798" s="1"/>
     </row>
-    <row r="799" ht="15.75" customHeight="1">
+    <row r="799" spans="1:28" ht="15.75" customHeight="1">
       <c r="A799" s="4"/>
       <c r="B799" s="4"/>
       <c r="C799" s="4"/>
@@ -24575,7 +24637,7 @@
       <c r="AA799" s="1"/>
       <c r="AB799" s="1"/>
     </row>
-    <row r="800" ht="15.75" customHeight="1">
+    <row r="800" spans="1:28" ht="15.75" customHeight="1">
       <c r="A800" s="4"/>
       <c r="B800" s="4"/>
       <c r="C800" s="4"/>
@@ -24605,7 +24667,7 @@
       <c r="AA800" s="1"/>
       <c r="AB800" s="1"/>
     </row>
-    <row r="801" ht="15.75" customHeight="1">
+    <row r="801" spans="1:28" ht="15.75" customHeight="1">
       <c r="A801" s="4"/>
       <c r="B801" s="4"/>
       <c r="C801" s="4"/>
@@ -24635,7 +24697,7 @@
       <c r="AA801" s="1"/>
       <c r="AB801" s="1"/>
     </row>
-    <row r="802" ht="15.75" customHeight="1">
+    <row r="802" spans="1:28" ht="15.75" customHeight="1">
       <c r="A802" s="4"/>
       <c r="B802" s="4"/>
       <c r="C802" s="4"/>
@@ -24665,7 +24727,7 @@
       <c r="AA802" s="1"/>
       <c r="AB802" s="1"/>
     </row>
-    <row r="803" ht="15.75" customHeight="1">
+    <row r="803" spans="1:28" ht="15.75" customHeight="1">
       <c r="A803" s="4"/>
       <c r="B803" s="4"/>
       <c r="C803" s="4"/>
@@ -24695,7 +24757,7 @@
       <c r="AA803" s="1"/>
       <c r="AB803" s="1"/>
     </row>
-    <row r="804" ht="15.75" customHeight="1">
+    <row r="804" spans="1:28" ht="15.75" customHeight="1">
       <c r="A804" s="4"/>
       <c r="B804" s="4"/>
       <c r="C804" s="4"/>
@@ -24725,7 +24787,7 @@
       <c r="AA804" s="1"/>
       <c r="AB804" s="1"/>
     </row>
-    <row r="805" ht="15.75" customHeight="1">
+    <row r="805" spans="1:28" ht="15.75" customHeight="1">
       <c r="A805" s="4"/>
       <c r="B805" s="4"/>
       <c r="C805" s="4"/>
@@ -24755,7 +24817,7 @@
       <c r="AA805" s="1"/>
       <c r="AB805" s="1"/>
     </row>
-    <row r="806" ht="15.75" customHeight="1">
+    <row r="806" spans="1:28" ht="15.75" customHeight="1">
       <c r="A806" s="4"/>
       <c r="B806" s="4"/>
       <c r="C806" s="4"/>
@@ -24785,7 +24847,7 @@
       <c r="AA806" s="1"/>
       <c r="AB806" s="1"/>
     </row>
-    <row r="807" ht="15.75" customHeight="1">
+    <row r="807" spans="1:28" ht="15.75" customHeight="1">
       <c r="A807" s="4"/>
       <c r="B807" s="4"/>
       <c r="C807" s="4"/>
@@ -24815,7 +24877,7 @@
       <c r="AA807" s="1"/>
       <c r="AB807" s="1"/>
     </row>
-    <row r="808" ht="15.75" customHeight="1">
+    <row r="808" spans="1:28" ht="15.75" customHeight="1">
       <c r="A808" s="4"/>
       <c r="B808" s="4"/>
       <c r="C808" s="4"/>
@@ -24845,7 +24907,7 @@
       <c r="AA808" s="1"/>
       <c r="AB808" s="1"/>
     </row>
-    <row r="809" ht="15.75" customHeight="1">
+    <row r="809" spans="1:28" ht="15.75" customHeight="1">
       <c r="A809" s="4"/>
       <c r="B809" s="4"/>
       <c r="C809" s="4"/>
@@ -24875,7 +24937,7 @@
       <c r="AA809" s="1"/>
       <c r="AB809" s="1"/>
     </row>
-    <row r="810" ht="15.75" customHeight="1">
+    <row r="810" spans="1:28" ht="15.75" customHeight="1">
       <c r="A810" s="4"/>
       <c r="B810" s="4"/>
       <c r="C810" s="4"/>
@@ -24905,7 +24967,7 @@
       <c r="AA810" s="1"/>
       <c r="AB810" s="1"/>
     </row>
-    <row r="811" ht="15.75" customHeight="1">
+    <row r="811" spans="1:28" ht="15.75" customHeight="1">
       <c r="A811" s="4"/>
       <c r="B811" s="4"/>
       <c r="C811" s="4"/>
@@ -24935,7 +24997,7 @@
       <c r="AA811" s="1"/>
       <c r="AB811" s="1"/>
     </row>
-    <row r="812" ht="15.75" customHeight="1">
+    <row r="812" spans="1:28" ht="15.75" customHeight="1">
       <c r="A812" s="4"/>
       <c r="B812" s="4"/>
       <c r="C812" s="4"/>
@@ -24965,7 +25027,7 @@
       <c r="AA812" s="1"/>
       <c r="AB812" s="1"/>
     </row>
-    <row r="813" ht="15.75" customHeight="1">
+    <row r="813" spans="1:28" ht="15.75" customHeight="1">
       <c r="A813" s="4"/>
       <c r="B813" s="4"/>
       <c r="C813" s="4"/>
@@ -24995,7 +25057,7 @@
       <c r="AA813" s="1"/>
       <c r="AB813" s="1"/>
     </row>
-    <row r="814" ht="15.75" customHeight="1">
+    <row r="814" spans="1:28" ht="15.75" customHeight="1">
       <c r="A814" s="4"/>
       <c r="B814" s="4"/>
       <c r="C814" s="4"/>
@@ -25025,7 +25087,7 @@
       <c r="AA814" s="1"/>
       <c r="AB814" s="1"/>
     </row>
-    <row r="815" ht="15.75" customHeight="1">
+    <row r="815" spans="1:28" ht="15.75" customHeight="1">
       <c r="A815" s="4"/>
       <c r="B815" s="4"/>
       <c r="C815" s="4"/>
@@ -25055,7 +25117,7 @@
       <c r="AA815" s="1"/>
       <c r="AB815" s="1"/>
     </row>
-    <row r="816" ht="15.75" customHeight="1">
+    <row r="816" spans="1:28" ht="15.75" customHeight="1">
       <c r="A816" s="4"/>
       <c r="B816" s="4"/>
       <c r="C816" s="4"/>
@@ -25085,7 +25147,7 @@
       <c r="AA816" s="1"/>
       <c r="AB816" s="1"/>
     </row>
-    <row r="817" ht="15.75" customHeight="1">
+    <row r="817" spans="1:28" ht="15.75" customHeight="1">
       <c r="A817" s="4"/>
       <c r="B817" s="4"/>
       <c r="C817" s="4"/>
@@ -25115,7 +25177,7 @@
       <c r="AA817" s="1"/>
       <c r="AB817" s="1"/>
     </row>
-    <row r="818" ht="15.75" customHeight="1">
+    <row r="818" spans="1:28" ht="15.75" customHeight="1">
       <c r="A818" s="4"/>
       <c r="B818" s="4"/>
       <c r="C818" s="4"/>
@@ -25145,7 +25207,7 @@
       <c r="AA818" s="1"/>
       <c r="AB818" s="1"/>
     </row>
-    <row r="819" ht="15.75" customHeight="1">
+    <row r="819" spans="1:28" ht="15.75" customHeight="1">
       <c r="A819" s="4"/>
       <c r="B819" s="4"/>
       <c r="C819" s="4"/>
@@ -25175,7 +25237,7 @@
       <c r="AA819" s="1"/>
       <c r="AB819" s="1"/>
     </row>
-    <row r="820" ht="15.75" customHeight="1">
+    <row r="820" spans="1:28" ht="15.75" customHeight="1">
       <c r="A820" s="4"/>
       <c r="B820" s="4"/>
       <c r="C820" s="4"/>
@@ -25205,7 +25267,7 @@
       <c r="AA820" s="1"/>
       <c r="AB820" s="1"/>
     </row>
-    <row r="821" ht="15.75" customHeight="1">
+    <row r="821" spans="1:28" ht="15.75" customHeight="1">
       <c r="A821" s="4"/>
       <c r="B821" s="4"/>
       <c r="C821" s="4"/>
@@ -25235,7 +25297,7 @@
       <c r="AA821" s="1"/>
       <c r="AB821" s="1"/>
     </row>
-    <row r="822" ht="15.75" customHeight="1">
+    <row r="822" spans="1:28" ht="15.75" customHeight="1">
       <c r="A822" s="4"/>
       <c r="B822" s="4"/>
       <c r="C822" s="4"/>
@@ -25265,7 +25327,7 @@
       <c r="AA822" s="1"/>
       <c r="AB822" s="1"/>
     </row>
-    <row r="823" ht="15.75" customHeight="1">
+    <row r="823" spans="1:28" ht="15.75" customHeight="1">
       <c r="A823" s="4"/>
       <c r="B823" s="4"/>
       <c r="C823" s="4"/>
@@ -25295,7 +25357,7 @@
       <c r="AA823" s="1"/>
       <c r="AB823" s="1"/>
     </row>
-    <row r="824" ht="15.75" customHeight="1">
+    <row r="824" spans="1:28" ht="15.75" customHeight="1">
       <c r="A824" s="4"/>
       <c r="B824" s="4"/>
       <c r="C824" s="4"/>
@@ -25325,7 +25387,7 @@
       <c r="AA824" s="1"/>
       <c r="AB824" s="1"/>
     </row>
-    <row r="825" ht="15.75" customHeight="1">
+    <row r="825" spans="1:28" ht="15.75" customHeight="1">
       <c r="A825" s="4"/>
       <c r="B825" s="4"/>
       <c r="C825" s="4"/>
@@ -25355,7 +25417,7 @@
       <c r="AA825" s="1"/>
       <c r="AB825" s="1"/>
     </row>
-    <row r="826" ht="15.75" customHeight="1">
+    <row r="826" spans="1:28" ht="15.75" customHeight="1">
       <c r="A826" s="4"/>
       <c r="B826" s="4"/>
       <c r="C826" s="4"/>
@@ -25385,7 +25447,7 @@
       <c r="AA826" s="1"/>
       <c r="AB826" s="1"/>
     </row>
-    <row r="827" ht="15.75" customHeight="1">
+    <row r="827" spans="1:28" ht="15.75" customHeight="1">
       <c r="A827" s="4"/>
       <c r="B827" s="4"/>
       <c r="C827" s="4"/>
@@ -25415,7 +25477,7 @@
       <c r="AA827" s="1"/>
       <c r="AB827" s="1"/>
     </row>
-    <row r="828" ht="15.75" customHeight="1">
+    <row r="828" spans="1:28" ht="15.75" customHeight="1">
       <c r="A828" s="4"/>
       <c r="B828" s="4"/>
       <c r="C828" s="4"/>
@@ -25445,7 +25507,7 @@
       <c r="AA828" s="1"/>
       <c r="AB828" s="1"/>
     </row>
-    <row r="829" ht="15.75" customHeight="1">
+    <row r="829" spans="1:28" ht="15.75" customHeight="1">
       <c r="A829" s="4"/>
       <c r="B829" s="4"/>
       <c r="C829" s="4"/>
@@ -25475,7 +25537,7 @@
       <c r="AA829" s="1"/>
       <c r="AB829" s="1"/>
     </row>
-    <row r="830" ht="15.75" customHeight="1">
+    <row r="830" spans="1:28" ht="15.75" customHeight="1">
       <c r="A830" s="4"/>
       <c r="B830" s="4"/>
       <c r="C830" s="4"/>
@@ -25505,7 +25567,7 @@
       <c r="AA830" s="1"/>
       <c r="AB830" s="1"/>
     </row>
-    <row r="831" ht="15.75" customHeight="1">
+    <row r="831" spans="1:28" ht="15.75" customHeight="1">
       <c r="A831" s="4"/>
       <c r="B831" s="4"/>
       <c r="C831" s="4"/>
@@ -25535,7 +25597,7 @@
       <c r="AA831" s="1"/>
       <c r="AB831" s="1"/>
     </row>
-    <row r="832" ht="15.75" customHeight="1">
+    <row r="832" spans="1:28" ht="15.75" customHeight="1">
       <c r="A832" s="4"/>
       <c r="B832" s="4"/>
       <c r="C832" s="4"/>
@@ -25565,7 +25627,7 @@
       <c r="AA832" s="1"/>
       <c r="AB832" s="1"/>
     </row>
-    <row r="833" ht="15.75" customHeight="1">
+    <row r="833" spans="1:28" ht="15.75" customHeight="1">
       <c r="A833" s="4"/>
       <c r="B833" s="4"/>
       <c r="C833" s="4"/>
@@ -25595,7 +25657,7 @@
       <c r="AA833" s="1"/>
       <c r="AB833" s="1"/>
     </row>
-    <row r="834" ht="15.75" customHeight="1">
+    <row r="834" spans="1:28" ht="15.75" customHeight="1">
       <c r="A834" s="4"/>
       <c r="B834" s="4"/>
       <c r="C834" s="4"/>
@@ -25625,7 +25687,7 @@
       <c r="AA834" s="1"/>
       <c r="AB834" s="1"/>
     </row>
-    <row r="835" ht="15.75" customHeight="1">
+    <row r="835" spans="1:28" ht="15.75" customHeight="1">
       <c r="A835" s="4"/>
       <c r="B835" s="4"/>
       <c r="C835" s="4"/>
@@ -25655,7 +25717,7 @@
       <c r="AA835" s="1"/>
       <c r="AB835" s="1"/>
     </row>
-    <row r="836" ht="15.75" customHeight="1">
+    <row r="836" spans="1:28" ht="15.75" customHeight="1">
       <c r="A836" s="4"/>
       <c r="B836" s="4"/>
       <c r="C836" s="4"/>
@@ -25685,7 +25747,7 @@
       <c r="AA836" s="1"/>
       <c r="AB836" s="1"/>
     </row>
-    <row r="837" ht="15.75" customHeight="1">
+    <row r="837" spans="1:28" ht="15.75" customHeight="1">
       <c r="A837" s="4"/>
       <c r="B837" s="4"/>
       <c r="C837" s="4"/>
@@ -25715,7 +25777,7 @@
       <c r="AA837" s="1"/>
       <c r="AB837" s="1"/>
     </row>
-    <row r="838" ht="15.75" customHeight="1">
+    <row r="838" spans="1:28" ht="15.75" customHeight="1">
       <c r="A838" s="4"/>
       <c r="B838" s="4"/>
       <c r="C838" s="4"/>
@@ -25745,7 +25807,7 @@
       <c r="AA838" s="1"/>
       <c r="AB838" s="1"/>
     </row>
-    <row r="839" ht="15.75" customHeight="1">
+    <row r="839" spans="1:28" ht="15.75" customHeight="1">
       <c r="A839" s="4"/>
       <c r="B839" s="4"/>
       <c r="C839" s="4"/>
@@ -25775,7 +25837,7 @@
       <c r="AA839" s="1"/>
       <c r="AB839" s="1"/>
     </row>
-    <row r="840" ht="15.75" customHeight="1">
+    <row r="840" spans="1:28" ht="15.75" customHeight="1">
       <c r="A840" s="4"/>
       <c r="B840" s="4"/>
       <c r="C840" s="4"/>
@@ -25805,7 +25867,7 @@
       <c r="AA840" s="1"/>
       <c r="AB840" s="1"/>
     </row>
-    <row r="841" ht="15.75" customHeight="1">
+    <row r="841" spans="1:28" ht="15.75" customHeight="1">
       <c r="A841" s="4"/>
       <c r="B841" s="4"/>
       <c r="C841" s="4"/>
@@ -25835,7 +25897,7 @@
       <c r="AA841" s="1"/>
       <c r="AB841" s="1"/>
     </row>
-    <row r="842" ht="15.75" customHeight="1">
+    <row r="842" spans="1:28" ht="15.75" customHeight="1">
       <c r="A842" s="4"/>
       <c r="B842" s="4"/>
       <c r="C842" s="4"/>
@@ -25865,7 +25927,7 @@
       <c r="AA842" s="1"/>
       <c r="AB842" s="1"/>
     </row>
-    <row r="843" ht="15.75" customHeight="1">
+    <row r="843" spans="1:28" ht="15.75" customHeight="1">
       <c r="A843" s="4"/>
       <c r="B843" s="4"/>
       <c r="C843" s="4"/>
@@ -25895,7 +25957,7 @@
       <c r="AA843" s="1"/>
       <c r="AB843" s="1"/>
     </row>
-    <row r="844" ht="15.75" customHeight="1">
+    <row r="844" spans="1:28" ht="15.75" customHeight="1">
       <c r="A844" s="4"/>
       <c r="B844" s="4"/>
       <c r="C844" s="4"/>
@@ -25925,7 +25987,7 @@
       <c r="AA844" s="1"/>
       <c r="AB844" s="1"/>
     </row>
-    <row r="845" ht="15.75" customHeight="1">
+    <row r="845" spans="1:28" ht="15.75" customHeight="1">
       <c r="A845" s="4"/>
       <c r="B845" s="4"/>
       <c r="C845" s="4"/>
@@ -25955,7 +26017,7 @@
       <c r="AA845" s="1"/>
       <c r="AB845" s="1"/>
     </row>
-    <row r="846" ht="15.75" customHeight="1">
+    <row r="846" spans="1:28" ht="15.75" customHeight="1">
       <c r="A846" s="4"/>
       <c r="B846" s="4"/>
       <c r="C846" s="4"/>
@@ -25985,7 +26047,7 @@
       <c r="AA846" s="1"/>
       <c r="AB846" s="1"/>
     </row>
-    <row r="847" ht="15.75" customHeight="1">
+    <row r="847" spans="1:28" ht="15.75" customHeight="1">
       <c r="A847" s="4"/>
       <c r="B847" s="4"/>
       <c r="C847" s="4"/>
@@ -26015,7 +26077,7 @@
       <c r="AA847" s="1"/>
       <c r="AB847" s="1"/>
     </row>
-    <row r="848" ht="15.75" customHeight="1">
+    <row r="848" spans="1:28" ht="15.75" customHeight="1">
       <c r="A848" s="4"/>
       <c r="B848" s="4"/>
       <c r="C848" s="4"/>
@@ -26045,7 +26107,7 @@
       <c r="AA848" s="1"/>
       <c r="AB848" s="1"/>
     </row>
-    <row r="849" ht="15.75" customHeight="1">
+    <row r="849" spans="1:28" ht="15.75" customHeight="1">
       <c r="A849" s="4"/>
       <c r="B849" s="4"/>
       <c r="C849" s="4"/>
@@ -26075,7 +26137,7 @@
       <c r="AA849" s="1"/>
       <c r="AB849" s="1"/>
     </row>
-    <row r="850" ht="15.75" customHeight="1">
+    <row r="850" spans="1:28" ht="15.75" customHeight="1">
       <c r="A850" s="4"/>
       <c r="B850" s="4"/>
       <c r="C850" s="4"/>
@@ -26105,7 +26167,7 @@
       <c r="AA850" s="1"/>
       <c r="AB850" s="1"/>
     </row>
-    <row r="851" ht="15.75" customHeight="1">
+    <row r="851" spans="1:28" ht="15.75" customHeight="1">
       <c r="A851" s="4"/>
       <c r="B851" s="4"/>
       <c r="C851" s="4"/>
@@ -26135,7 +26197,7 @@
       <c r="AA851" s="1"/>
       <c r="AB851" s="1"/>
     </row>
-    <row r="852" ht="15.75" customHeight="1">
+    <row r="852" spans="1:28" ht="15.75" customHeight="1">
       <c r="A852" s="4"/>
       <c r="B852" s="4"/>
       <c r="C852" s="4"/>
@@ -26165,7 +26227,7 @@
       <c r="AA852" s="1"/>
       <c r="AB852" s="1"/>
     </row>
-    <row r="853" ht="15.75" customHeight="1">
+    <row r="853" spans="1:28" ht="15.75" customHeight="1">
       <c r="A853" s="4"/>
       <c r="B853" s="4"/>
       <c r="C853" s="4"/>
@@ -26195,7 +26257,7 @@
       <c r="AA853" s="1"/>
       <c r="AB853" s="1"/>
     </row>
-    <row r="854" ht="15.75" customHeight="1">
+    <row r="854" spans="1:28" ht="15.75" customHeight="1">
       <c r="A854" s="4"/>
       <c r="B854" s="4"/>
       <c r="C854" s="4"/>
@@ -26225,7 +26287,7 @@
       <c r="AA854" s="1"/>
       <c r="AB854" s="1"/>
     </row>
-    <row r="855" ht="15.75" customHeight="1">
+    <row r="855" spans="1:28" ht="15.75" customHeight="1">
       <c r="A855" s="4"/>
       <c r="B855" s="4"/>
       <c r="C855" s="4"/>
@@ -26255,7 +26317,7 @@
       <c r="AA855" s="1"/>
       <c r="AB855" s="1"/>
     </row>
-    <row r="856" ht="15.75" customHeight="1">
+    <row r="856" spans="1:28" ht="15.75" customHeight="1">
       <c r="A856" s="4"/>
       <c r="B856" s="4"/>
       <c r="C856" s="4"/>
@@ -26285,7 +26347,7 @@
       <c r="AA856" s="1"/>
       <c r="AB856" s="1"/>
     </row>
-    <row r="857" ht="15.75" customHeight="1">
+    <row r="857" spans="1:28" ht="15.75" customHeight="1">
       <c r="A857" s="4"/>
       <c r="B857" s="4"/>
       <c r="C857" s="4"/>
@@ -26315,7 +26377,7 @@
       <c r="AA857" s="1"/>
       <c r="AB857" s="1"/>
     </row>
-    <row r="858" ht="15.75" customHeight="1">
+    <row r="858" spans="1:28" ht="15.75" customHeight="1">
       <c r="A858" s="4"/>
       <c r="B858" s="4"/>
       <c r="C858" s="4"/>
@@ -26345,7 +26407,7 @@
       <c r="AA858" s="1"/>
       <c r="AB858" s="1"/>
     </row>
-    <row r="859" ht="15.75" customHeight="1">
+    <row r="859" spans="1:28" ht="15.75" customHeight="1">
       <c r="A859" s="4"/>
       <c r="B859" s="4"/>
       <c r="C859" s="4"/>
@@ -26375,7 +26437,7 @@
       <c r="AA859" s="1"/>
       <c r="AB859" s="1"/>
     </row>
-    <row r="860" ht="15.75" customHeight="1">
+    <row r="860" spans="1:28" ht="15.75" customHeight="1">
       <c r="A860" s="4"/>
       <c r="B860" s="4"/>
       <c r="C860" s="4"/>
@@ -26405,7 +26467,7 @@
       <c r="AA860" s="1"/>
       <c r="AB860" s="1"/>
     </row>
-    <row r="861" ht="15.75" customHeight="1">
+    <row r="861" spans="1:28" ht="15.75" customHeight="1">
       <c r="A861" s="4"/>
       <c r="B861" s="4"/>
       <c r="C861" s="4"/>
@@ -26435,7 +26497,7 @@
       <c r="AA861" s="1"/>
       <c r="AB861" s="1"/>
     </row>
-    <row r="862" ht="15.75" customHeight="1">
+    <row r="862" spans="1:28" ht="15.75" customHeight="1">
       <c r="A862" s="4"/>
       <c r="B862" s="4"/>
       <c r="C862" s="4"/>
@@ -26465,7 +26527,7 @@
       <c r="AA862" s="1"/>
       <c r="AB862" s="1"/>
     </row>
-    <row r="863" ht="15.75" customHeight="1">
+    <row r="863" spans="1:28" ht="15.75" customHeight="1">
       <c r="A863" s="4"/>
       <c r="B863" s="4"/>
       <c r="C863" s="4"/>
@@ -26495,7 +26557,7 @@
       <c r="AA863" s="1"/>
       <c r="AB863" s="1"/>
     </row>
-    <row r="864" ht="15.75" customHeight="1">
+    <row r="864" spans="1:28" ht="15.75" customHeight="1">
       <c r="A864" s="4"/>
       <c r="B864" s="4"/>
       <c r="C864" s="4"/>
@@ -26525,7 +26587,7 @@
       <c r="AA864" s="1"/>
       <c r="AB864" s="1"/>
     </row>
-    <row r="865" ht="15.75" customHeight="1">
+    <row r="865" spans="1:28" ht="15.75" customHeight="1">
       <c r="A865" s="4"/>
       <c r="B865" s="4"/>
       <c r="C865" s="4"/>
@@ -26555,7 +26617,7 @@
       <c r="AA865" s="1"/>
       <c r="AB865" s="1"/>
     </row>
-    <row r="866" ht="15.75" customHeight="1">
+    <row r="866" spans="1:28" ht="15.75" customHeight="1">
       <c r="A866" s="4"/>
       <c r="B866" s="4"/>
       <c r="C866" s="4"/>
@@ -26585,7 +26647,7 @@
       <c r="AA866" s="1"/>
       <c r="AB866" s="1"/>
     </row>
-    <row r="867" ht="15.75" customHeight="1">
+    <row r="867" spans="1:28" ht="15.75" customHeight="1">
       <c r="A867" s="4"/>
       <c r="B867" s="4"/>
       <c r="C867" s="4"/>
@@ -26615,7 +26677,7 @@
       <c r="AA867" s="1"/>
       <c r="AB867" s="1"/>
     </row>
-    <row r="868" ht="15.75" customHeight="1">
+    <row r="868" spans="1:28" ht="15.75" customHeight="1">
       <c r="A868" s="4"/>
       <c r="B868" s="4"/>
       <c r="C868" s="4"/>
@@ -26645,7 +26707,7 @@
       <c r="AA868" s="1"/>
       <c r="AB868" s="1"/>
     </row>
-    <row r="869" ht="15.75" customHeight="1">
+    <row r="869" spans="1:28" ht="15.75" customHeight="1">
       <c r="A869" s="4"/>
       <c r="B869" s="4"/>
       <c r="C869" s="4"/>
@@ -26675,7 +26737,7 @@
       <c r="AA869" s="1"/>
       <c r="AB869" s="1"/>
     </row>
-    <row r="870" ht="15.75" customHeight="1">
+    <row r="870" spans="1:28" ht="15.75" customHeight="1">
       <c r="A870" s="4"/>
       <c r="B870" s="4"/>
       <c r="C870" s="4"/>
@@ -26705,7 +26767,7 @@
       <c r="AA870" s="1"/>
       <c r="AB870" s="1"/>
     </row>
-    <row r="871" ht="15.75" customHeight="1">
+    <row r="871" spans="1:28" ht="15.75" customHeight="1">
       <c r="A871" s="4"/>
       <c r="B871" s="4"/>
       <c r="C871" s="4"/>
@@ -26735,7 +26797,7 @@
       <c r="AA871" s="1"/>
       <c r="AB871" s="1"/>
     </row>
-    <row r="872" ht="15.75" customHeight="1">
+    <row r="872" spans="1:28" ht="15.75" customHeight="1">
       <c r="A872" s="4"/>
       <c r="B872" s="4"/>
       <c r="C872" s="4"/>
@@ -26765,7 +26827,7 @@
       <c r="AA872" s="1"/>
       <c r="AB872" s="1"/>
     </row>
-    <row r="873" ht="15.75" customHeight="1">
+    <row r="873" spans="1:28" ht="15.75" customHeight="1">
       <c r="A873" s="4"/>
       <c r="B873" s="4"/>
       <c r="C873" s="4"/>
@@ -26795,7 +26857,7 @@
       <c r="AA873" s="1"/>
       <c r="AB873" s="1"/>
     </row>
-    <row r="874" ht="15.75" customHeight="1">
+    <row r="874" spans="1:28" ht="15.75" customHeight="1">
       <c r="A874" s="4"/>
       <c r="B874" s="4"/>
       <c r="C874" s="4"/>
@@ -26825,7 +26887,7 @@
       <c r="AA874" s="1"/>
       <c r="AB874" s="1"/>
     </row>
-    <row r="875" ht="15.75" customHeight="1">
+    <row r="875" spans="1:28" ht="15.75" customHeight="1">
       <c r="A875" s="4"/>
       <c r="B875" s="4"/>
       <c r="C875" s="4"/>
@@ -26855,7 +26917,7 @@
       <c r="AA875" s="1"/>
       <c r="AB875" s="1"/>
     </row>
-    <row r="876" ht="15.75" customHeight="1">
+    <row r="876" spans="1:28" ht="15.75" customHeight="1">
       <c r="A876" s="4"/>
       <c r="B876" s="4"/>
       <c r="C876" s="4"/>
@@ -26885,7 +26947,7 @@
       <c r="AA876" s="1"/>
       <c r="AB876" s="1"/>
     </row>
-    <row r="877" ht="15.75" customHeight="1">
+    <row r="877" spans="1:28" ht="15.75" customHeight="1">
       <c r="A877" s="4"/>
       <c r="B877" s="4"/>
       <c r="C877" s="4"/>
@@ -26915,7 +26977,7 @@
       <c r="AA877" s="1"/>
       <c r="AB877" s="1"/>
     </row>
-    <row r="878" ht="15.75" customHeight="1">
+    <row r="878" spans="1:28" ht="15.75" customHeight="1">
       <c r="A878" s="4"/>
       <c r="B878" s="4"/>
       <c r="C878" s="4"/>
@@ -26945,7 +27007,7 @@
       <c r="AA878" s="1"/>
       <c r="AB878" s="1"/>
     </row>
-    <row r="879" ht="15.75" customHeight="1">
+    <row r="879" spans="1:28" ht="15.75" customHeight="1">
       <c r="A879" s="4"/>
       <c r="B879" s="4"/>
       <c r="C879" s="4"/>
@@ -26975,7 +27037,7 @@
       <c r="AA879" s="1"/>
       <c r="AB879" s="1"/>
     </row>
-    <row r="880" ht="15.75" customHeight="1">
+    <row r="880" spans="1:28" ht="15.75" customHeight="1">
       <c r="A880" s="4"/>
       <c r="B880" s="4"/>
       <c r="C880" s="4"/>
@@ -27005,7 +27067,7 @@
       <c r="AA880" s="1"/>
       <c r="AB880" s="1"/>
     </row>
-    <row r="881" ht="15.75" customHeight="1">
+    <row r="881" spans="1:28" ht="15.75" customHeight="1">
       <c r="A881" s="4"/>
       <c r="B881" s="4"/>
       <c r="C881" s="4"/>
@@ -27035,7 +27097,7 @@
       <c r="AA881" s="1"/>
       <c r="AB881" s="1"/>
     </row>
-    <row r="882" ht="15.75" customHeight="1">
+    <row r="882" spans="1:28" ht="15.75" customHeight="1">
       <c r="A882" s="4"/>
       <c r="B882" s="4"/>
       <c r="C882" s="4"/>
@@ -27065,7 +27127,7 @@
       <c r="AA882" s="1"/>
       <c r="AB882" s="1"/>
     </row>
-    <row r="883" ht="15.75" customHeight="1">
+    <row r="883" spans="1:28" ht="15.75" customHeight="1">
       <c r="A883" s="4"/>
       <c r="B883" s="4"/>
       <c r="C883" s="4"/>
@@ -27095,7 +27157,7 @@
       <c r="AA883" s="1"/>
       <c r="AB883" s="1"/>
     </row>
-    <row r="884" ht="15.75" customHeight="1">
+    <row r="884" spans="1:28" ht="15.75" customHeight="1">
       <c r="A884" s="4"/>
       <c r="B884" s="4"/>
       <c r="C884" s="4"/>
@@ -27125,7 +27187,7 @@
       <c r="AA884" s="1"/>
       <c r="AB884" s="1"/>
     </row>
-    <row r="885" ht="15.75" customHeight="1">
+    <row r="885" spans="1:28" ht="15.75" customHeight="1">
       <c r="A885" s="4"/>
       <c r="B885" s="4"/>
       <c r="C885" s="4"/>
@@ -27155,7 +27217,7 @@
       <c r="AA885" s="1"/>
       <c r="AB885" s="1"/>
     </row>
-    <row r="886" ht="15.75" customHeight="1">
+    <row r="886" spans="1:28" ht="15.75" customHeight="1">
       <c r="A886" s="4"/>
       <c r="B886" s="4"/>
       <c r="C886" s="4"/>
@@ -27185,7 +27247,7 @@
       <c r="AA886" s="1"/>
       <c r="AB886" s="1"/>
     </row>
-    <row r="887" ht="15.75" customHeight="1">
+    <row r="887" spans="1:28" ht="15.75" customHeight="1">
       <c r="A887" s="4"/>
       <c r="B887" s="4"/>
       <c r="C887" s="4"/>
@@ -27215,7 +27277,7 @@
       <c r="AA887" s="1"/>
       <c r="AB887" s="1"/>
     </row>
-    <row r="888" ht="15.75" customHeight="1">
+    <row r="888" spans="1:28" ht="15.75" customHeight="1">
       <c r="A888" s="4"/>
       <c r="B888" s="4"/>
       <c r="C888" s="4"/>
@@ -27245,7 +27307,7 @@
       <c r="AA888" s="1"/>
       <c r="AB888" s="1"/>
     </row>
-    <row r="889" ht="15.75" customHeight="1">
+    <row r="889" spans="1:28" ht="15.75" customHeight="1">
       <c r="A889" s="4"/>
       <c r="B889" s="4"/>
       <c r="C889" s="4"/>
@@ -27275,7 +27337,7 @@
       <c r="AA889" s="1"/>
       <c r="AB889" s="1"/>
     </row>
-    <row r="890" ht="15.75" customHeight="1">
+    <row r="890" spans="1:28" ht="15.75" customHeight="1">
       <c r="A890" s="4"/>
       <c r="B890" s="4"/>
       <c r="C890" s="4"/>
@@ -27305,7 +27367,7 @@
       <c r="AA890" s="1"/>
       <c r="AB890" s="1"/>
     </row>
-    <row r="891" ht="15.75" customHeight="1">
+    <row r="891" spans="1:28" ht="15.75" customHeight="1">
       <c r="A891" s="4"/>
       <c r="B891" s="4"/>
       <c r="C891" s="4"/>
@@ -27335,7 +27397,7 @@
       <c r="AA891" s="1"/>
       <c r="AB891" s="1"/>
     </row>
-    <row r="892" ht="15.75" customHeight="1">
+    <row r="892" spans="1:28" ht="15.75" customHeight="1">
       <c r="A892" s="4"/>
       <c r="B892" s="4"/>
       <c r="C892" s="4"/>
@@ -27365,7 +27427,7 @@
       <c r="AA892" s="1"/>
       <c r="AB892" s="1"/>
     </row>
-    <row r="893" ht="15.75" customHeight="1">
+    <row r="893" spans="1:28" ht="15.75" customHeight="1">
       <c r="A893" s="4"/>
       <c r="B893" s="4"/>
       <c r="C893" s="4"/>
@@ -27395,7 +27457,7 @@
       <c r="AA893" s="1"/>
       <c r="AB893" s="1"/>
     </row>
-    <row r="894" ht="15.75" customHeight="1">
+    <row r="894" spans="1:28" ht="15.75" customHeight="1">
       <c r="A894" s="4"/>
       <c r="B894" s="4"/>
       <c r="C894" s="4"/>
@@ -27425,7 +27487,7 @@
       <c r="AA894" s="1"/>
       <c r="AB894" s="1"/>
     </row>
-    <row r="895" ht="15.75" customHeight="1">
+    <row r="895" spans="1:28" ht="15.75" customHeight="1">
       <c r="A895" s="4"/>
       <c r="B895" s="4"/>
       <c r="C895" s="4"/>
@@ -27455,7 +27517,7 @@
       <c r="AA895" s="1"/>
       <c r="AB895" s="1"/>
     </row>
-    <row r="896" ht="15.75" customHeight="1">
+    <row r="896" spans="1:28" ht="15.75" customHeight="1">
       <c r="A896" s="4"/>
       <c r="B896" s="4"/>
       <c r="C896" s="4"/>
@@ -27485,7 +27547,7 @@
       <c r="AA896" s="1"/>
       <c r="AB896" s="1"/>
     </row>
-    <row r="897" ht="15.75" customHeight="1">
+    <row r="897" spans="1:28" ht="15.75" customHeight="1">
       <c r="A897" s="4"/>
       <c r="B897" s="4"/>
       <c r="C897" s="4"/>
@@ -27515,7 +27577,7 @@
       <c r="AA897" s="1"/>
       <c r="AB897" s="1"/>
     </row>
-    <row r="898" ht="15.75" customHeight="1">
+    <row r="898" spans="1:28" ht="15.75" customHeight="1">
       <c r="A898" s="4"/>
       <c r="B898" s="4"/>
       <c r="C898" s="4"/>
@@ -27545,7 +27607,7 @@
       <c r="AA898" s="1"/>
       <c r="AB898" s="1"/>
     </row>
-    <row r="899" ht="15.75" customHeight="1">
+    <row r="899" spans="1:28" ht="15.75" customHeight="1">
       <c r="A899" s="4"/>
       <c r="B899" s="4"/>
       <c r="C899" s="4"/>
@@ -27575,7 +27637,7 @@
       <c r="AA899" s="1"/>
       <c r="AB899" s="1"/>
     </row>
-    <row r="900" ht="15.75" customHeight="1">
+    <row r="900" spans="1:28" ht="15.75" customHeight="1">
       <c r="A900" s="4"/>
       <c r="B900" s="4"/>
       <c r="C900" s="4"/>
@@ -27605,7 +27667,7 @@
       <c r="AA900" s="1"/>
       <c r="AB900" s="1"/>
     </row>
-    <row r="901" ht="15.75" customHeight="1">
+    <row r="901" spans="1:28" ht="15.75" customHeight="1">
       <c r="A901" s="4"/>
       <c r="B901" s="4"/>
       <c r="C901" s="4"/>
@@ -27635,7 +27697,7 @@
       <c r="AA901" s="1"/>
       <c r="AB901" s="1"/>
     </row>
-    <row r="902" ht="15.75" customHeight="1">
+    <row r="902" spans="1:28" ht="15.75" customHeight="1">
       <c r="A902" s="4"/>
       <c r="B902" s="4"/>
       <c r="C902" s="4"/>
@@ -27665,7 +27727,7 @@
       <c r="AA902" s="1"/>
       <c r="AB902" s="1"/>
     </row>
-    <row r="903" ht="15.75" customHeight="1">
+    <row r="903" spans="1:28" ht="15.75" customHeight="1">
       <c r="A903" s="4"/>
       <c r="B903" s="4"/>
       <c r="C903" s="4"/>
@@ -27695,7 +27757,7 @@
       <c r="AA903" s="1"/>
       <c r="AB903" s="1"/>
     </row>
-    <row r="904" ht="15.75" customHeight="1">
+    <row r="904" spans="1:28" ht="15.75" customHeight="1">
       <c r="A904" s="4"/>
       <c r="B904" s="4"/>
       <c r="C904" s="4"/>
@@ -27725,7 +27787,7 @@
       <c r="AA904" s="1"/>
       <c r="AB904" s="1"/>
     </row>
-    <row r="905" ht="15.75" customHeight="1">
+    <row r="905" spans="1:28" ht="15.75" customHeight="1">
       <c r="A905" s="4"/>
       <c r="B905" s="4"/>
       <c r="C905" s="4"/>
@@ -27755,7 +27817,7 @@
       <c r="AA905" s="1"/>
       <c r="AB905" s="1"/>
     </row>
-    <row r="906" ht="15.75" customHeight="1">
+    <row r="906" spans="1:28" ht="15.75" customHeight="1">
       <c r="A906" s="4"/>
       <c r="B906" s="4"/>
       <c r="C906" s="4"/>
@@ -27785,7 +27847,7 @@
       <c r="AA906" s="1"/>
       <c r="AB906" s="1"/>
     </row>
-    <row r="907" ht="15.75" customHeight="1">
+    <row r="907" spans="1:28" ht="15.75" customHeight="1">
       <c r="A907" s="4"/>
       <c r="B907" s="4"/>
       <c r="C907" s="4"/>
@@ -27815,7 +27877,7 @@
       <c r="AA907" s="1"/>
       <c r="AB907" s="1"/>
     </row>
-    <row r="908" ht="15.75" customHeight="1">
+    <row r="908" spans="1:28" ht="15.75" customHeight="1">
       <c r="A908" s="4"/>
       <c r="B908" s="4"/>
       <c r="C908" s="4"/>
@@ -27845,7 +27907,7 @@
       <c r="AA908" s="1"/>
       <c r="AB908" s="1"/>
     </row>
-    <row r="909" ht="15.75" customHeight="1">
+    <row r="909" spans="1:28" ht="15.75" customHeight="1">
       <c r="A909" s="4"/>
       <c r="B909" s="4"/>
       <c r="C909" s="4"/>
@@ -27875,7 +27937,7 @@
       <c r="AA909" s="1"/>
       <c r="AB909" s="1"/>
     </row>
-    <row r="910" ht="15.75" customHeight="1">
+    <row r="910" spans="1:28" ht="15.75" customHeight="1">
       <c r="A910" s="4"/>
       <c r="B910" s="4"/>
       <c r="C910" s="4"/>
@@ -27905,7 +27967,7 @@
       <c r="AA910" s="1"/>
       <c r="AB910" s="1"/>
     </row>
-    <row r="911" ht="15.75" customHeight="1">
+    <row r="911" spans="1:28" ht="15.75" customHeight="1">
       <c r="A911" s="4"/>
       <c r="B911" s="4"/>
       <c r="C911" s="4"/>
@@ -27935,7 +27997,7 @@
       <c r="AA911" s="1"/>
       <c r="AB911" s="1"/>
     </row>
-    <row r="912" ht="15.75" customHeight="1">
+    <row r="912" spans="1:28" ht="15.75" customHeight="1">
       <c r="A912" s="4"/>
       <c r="B912" s="4"/>
       <c r="C912" s="4"/>
@@ -27965,7 +28027,7 @@
       <c r="AA912" s="1"/>
       <c r="AB912" s="1"/>
     </row>
-    <row r="913" ht="15.75" customHeight="1">
+    <row r="913" spans="1:28" ht="15.75" customHeight="1">
       <c r="A913" s="4"/>
       <c r="B913" s="4"/>
       <c r="C913" s="4"/>
@@ -27995,7 +28057,7 @@
       <c r="AA913" s="1"/>
       <c r="AB913" s="1"/>
     </row>
-    <row r="914" ht="15.75" customHeight="1">
+    <row r="914" spans="1:28" ht="15.75" customHeight="1">
       <c r="A914" s="4"/>
       <c r="B914" s="4"/>
       <c r="C914" s="4"/>
@@ -28025,7 +28087,7 @@
       <c r="AA914" s="1"/>
       <c r="AB914" s="1"/>
     </row>
-    <row r="915" ht="15.75" customHeight="1">
+    <row r="915" spans="1:28" ht="15.75" customHeight="1">
       <c r="A915" s="4"/>
       <c r="B915" s="4"/>
       <c r="C915" s="4"/>
@@ -28055,7 +28117,7 @@
       <c r="AA915" s="1"/>
       <c r="AB915" s="1"/>
     </row>
-    <row r="916" ht="15.75" customHeight="1">
+    <row r="916" spans="1:28" ht="15.75" customHeight="1">
       <c r="A916" s="4"/>
       <c r="B916" s="4"/>
       <c r="C916" s="4"/>
@@ -28085,7 +28147,7 @@
       <c r="AA916" s="1"/>
       <c r="AB916" s="1"/>
     </row>
-    <row r="917" ht="15.75" customHeight="1">
+    <row r="917" spans="1:28" ht="15.75" customHeight="1">
       <c r="A917" s="4"/>
       <c r="B917" s="4"/>
       <c r="C917" s="4"/>
@@ -28115,7 +28177,7 @@
       <c r="AA917" s="1"/>
       <c r="AB917" s="1"/>
     </row>
-    <row r="918" ht="15.75" customHeight="1">
+    <row r="918" spans="1:28" ht="15.75" customHeight="1">
       <c r="A918" s="4"/>
       <c r="B918" s="4"/>
       <c r="C918" s="4"/>
@@ -28145,7 +28207,7 @@
       <c r="AA918" s="1"/>
       <c r="AB918" s="1"/>
     </row>
-    <row r="919" ht="15.75" customHeight="1">
+    <row r="919" spans="1:28" ht="15.75" customHeight="1">
       <c r="A919" s="4"/>
       <c r="B919" s="4"/>
       <c r="C919" s="4"/>
@@ -28175,7 +28237,7 @@
       <c r="AA919" s="1"/>
       <c r="AB919" s="1"/>
     </row>
-    <row r="920" ht="15.75" customHeight="1">
+    <row r="920" spans="1:28" ht="15.75" customHeight="1">
       <c r="A920" s="4"/>
       <c r="B920" s="4"/>
       <c r="C920" s="4"/>
@@ -28205,7 +28267,7 @@
       <c r="AA920" s="1"/>
       <c r="AB920" s="1"/>
     </row>
-    <row r="921" ht="15.75" customHeight="1">
+    <row r="921" spans="1:28" ht="15.75" customHeight="1">
       <c r="A921" s="4"/>
       <c r="B921" s="4"/>
       <c r="C921" s="4"/>
@@ -28235,7 +28297,7 @@
       <c r="AA921" s="1"/>
       <c r="AB921" s="1"/>
     </row>
-    <row r="922" ht="15.75" customHeight="1">
+    <row r="922" spans="1:28" ht="15.75" customHeight="1">
       <c r="A922" s="4"/>
       <c r="B922" s="4"/>
       <c r="C922" s="4"/>
@@ -28265,7 +28327,7 @@
       <c r="AA922" s="1"/>
       <c r="AB922" s="1"/>
     </row>
-    <row r="923" ht="15.75" customHeight="1">
+    <row r="923" spans="1:28" ht="15.75" customHeight="1">
       <c r="A923" s="4"/>
       <c r="B923" s="4"/>
       <c r="C923" s="4"/>
@@ -28295,7 +28357,7 @@
       <c r="AA923" s="1"/>
       <c r="AB923" s="1"/>
     </row>
-    <row r="924" ht="15.75" customHeight="1">
+    <row r="924" spans="1:28" ht="15.75" customHeight="1">
       <c r="A924" s="4"/>
       <c r="B924" s="4"/>
       <c r="C924" s="4"/>
@@ -28325,7 +28387,7 @@
       <c r="AA924" s="1"/>
       <c r="AB924" s="1"/>
     </row>
-    <row r="925" ht="15.75" customHeight="1">
+    <row r="925" spans="1:28" ht="15.75" customHeight="1">
       <c r="A925" s="4"/>
       <c r="B925" s="4"/>
       <c r="C925" s="4"/>
@@ -28355,7 +28417,7 @@
       <c r="AA925" s="1"/>
       <c r="AB925" s="1"/>
     </row>
-    <row r="926" ht="15.75" customHeight="1">
+    <row r="926" spans="1:28" ht="15.75" customHeight="1">
       <c r="A926" s="4"/>
       <c r="B926" s="4"/>
       <c r="C926" s="4"/>
@@ -28385,7 +28447,7 @@
       <c r="AA926" s="1"/>
       <c r="AB926" s="1"/>
     </row>
-    <row r="927" ht="15.75" customHeight="1">
+    <row r="927" spans="1:28" ht="15.75" customHeight="1">
       <c r="A927" s="4"/>
       <c r="B927" s="4"/>
       <c r="C927" s="4"/>
@@ -28415,7 +28477,7 @@
       <c r="AA927" s="1"/>
       <c r="AB927" s="1"/>
     </row>
-    <row r="928" ht="15.75" customHeight="1">
+    <row r="928" spans="1:28" ht="15.75" customHeight="1">
       <c r="A928" s="4"/>
       <c r="B928" s="4"/>
       <c r="C928" s="4"/>
@@ -28445,7 +28507,7 @@
       <c r="AA928" s="1"/>
       <c r="AB928" s="1"/>
     </row>
-    <row r="929" ht="15.75" customHeight="1">
+    <row r="929" spans="1:28" ht="15.75" customHeight="1">
       <c r="A929" s="4"/>
       <c r="B929" s="4"/>
       <c r="C929" s="4"/>
@@ -28475,7 +28537,7 @@
       <c r="AA929" s="1"/>
       <c r="AB929" s="1"/>
     </row>
-    <row r="930" ht="15.75" customHeight="1">
+    <row r="930" spans="1:28" ht="15.75" customHeight="1">
       <c r="A930" s="4"/>
       <c r="B930" s="4"/>
       <c r="C930" s="4"/>
@@ -28505,7 +28567,7 @@
       <c r="AA930" s="1"/>
       <c r="AB930" s="1"/>
     </row>
-    <row r="931" ht="15.75" customHeight="1">
+    <row r="931" spans="1:28" ht="15.75" customHeight="1">
       <c r="A931" s="4"/>
       <c r="B931" s="4"/>
       <c r="C931" s="4"/>
@@ -28535,7 +28597,7 @@
       <c r="AA931" s="1"/>
       <c r="AB931" s="1"/>
     </row>
-    <row r="932" ht="15.75" customHeight="1">
+    <row r="932" spans="1:28" ht="15.75" customHeight="1">
       <c r="A932" s="4"/>
       <c r="B932" s="4"/>
       <c r="C932" s="4"/>
@@ -28565,7 +28627,7 @@
       <c r="AA932" s="1"/>
       <c r="AB932" s="1"/>
     </row>
-    <row r="933" ht="15.75" customHeight="1">
+    <row r="933" spans="1:28" ht="15.75" customHeight="1">
       <c r="A933" s="4"/>
       <c r="B933" s="4"/>
       <c r="C933" s="4"/>
@@ -28595,7 +28657,7 @@
       <c r="AA933" s="1"/>
       <c r="AB933" s="1"/>
     </row>
-    <row r="934" ht="15.75" customHeight="1">
+    <row r="934" spans="1:28" ht="15.75" customHeight="1">
       <c r="A934" s="4"/>
       <c r="B934" s="4"/>
       <c r="C934" s="4"/>
@@ -28625,7 +28687,7 @@
       <c r="AA934" s="1"/>
       <c r="AB934" s="1"/>
     </row>
-    <row r="935" ht="15.75" customHeight="1">
+    <row r="935" spans="1:28" ht="15.75" customHeight="1">
       <c r="A935" s="4"/>
       <c r="B935" s="4"/>
       <c r="C935" s="4"/>
@@ -28655,7 +28717,7 @@
       <c r="AA935" s="1"/>
       <c r="AB935" s="1"/>
     </row>
-    <row r="936" ht="15.75" customHeight="1">
+    <row r="936" spans="1:28" ht="15.75" customHeight="1">
       <c r="A936" s="4"/>
       <c r="B936" s="4"/>
       <c r="C936" s="4"/>
@@ -28685,7 +28747,7 @@
       <c r="AA936" s="1"/>
       <c r="AB936" s="1"/>
     </row>
-    <row r="937" ht="15.75" customHeight="1">
+    <row r="937" spans="1:28" ht="15.75" customHeight="1">
       <c r="A937" s="4"/>
       <c r="B937" s="4"/>
       <c r="C937" s="4"/>
@@ -28715,7 +28777,7 @@
       <c r="AA937" s="1"/>
       <c r="AB937" s="1"/>
     </row>
-    <row r="938" ht="15.75" customHeight="1">
+    <row r="938" spans="1:28" ht="15.75" customHeight="1">
       <c r="A938" s="4"/>
       <c r="B938" s="4"/>
       <c r="C938" s="4"/>
@@ -28745,7 +28807,7 @@
       <c r="AA938" s="1"/>
       <c r="AB938" s="1"/>
     </row>
-    <row r="939" ht="15.75" customHeight="1">
+    <row r="939" spans="1:28" ht="15.75" customHeight="1">
       <c r="A939" s="4"/>
       <c r="B939" s="4"/>
       <c r="C939" s="4"/>
@@ -28775,7 +28837,7 @@
       <c r="AA939" s="1"/>
       <c r="AB939" s="1"/>
     </row>
-    <row r="940" ht="15.75" customHeight="1">
+    <row r="940" spans="1:28" ht="15.75" customHeight="1">
       <c r="A940" s="4"/>
       <c r="B940" s="4"/>
       <c r="C940" s="4"/>
@@ -28805,7 +28867,7 @@
       <c r="AA940" s="1"/>
       <c r="AB940" s="1"/>
     </row>
-    <row r="941" ht="15.75" customHeight="1">
+    <row r="941" spans="1:28" ht="15.75" customHeight="1">
       <c r="A941" s="4"/>
       <c r="B941" s="4"/>
       <c r="C941" s="4"/>
@@ -28835,7 +28897,7 @@
       <c r="AA941" s="1"/>
       <c r="AB941" s="1"/>
     </row>
-    <row r="942" ht="15.75" customHeight="1">
+    <row r="942" spans="1:28" ht="15.75" customHeight="1">
       <c r="A942" s="4"/>
       <c r="B942" s="4"/>
       <c r="C942" s="4"/>
@@ -28865,7 +28927,7 @@
       <c r="AA942" s="1"/>
       <c r="AB942" s="1"/>
     </row>
-    <row r="943" ht="15.75" customHeight="1">
+    <row r="943" spans="1:28" ht="15.75" customHeight="1">
       <c r="A943" s="4"/>
       <c r="B943" s="4"/>
       <c r="C943" s="4"/>
@@ -28895,7 +28957,7 @@
       <c r="AA943" s="1"/>
       <c r="AB943" s="1"/>
     </row>
-    <row r="944" ht="15.75" customHeight="1">
+    <row r="944" spans="1:28" ht="15.75" customHeight="1">
       <c r="A944" s="4"/>
       <c r="B944" s="4"/>
       <c r="C944" s="4"/>
@@ -28925,7 +28987,7 @@
       <c r="AA944" s="1"/>
       <c r="AB944" s="1"/>
     </row>
-    <row r="945" ht="15.75" customHeight="1">
+    <row r="945" spans="1:28" ht="15.75" customHeight="1">
       <c r="A945" s="4"/>
       <c r="B945" s="4"/>
       <c r="C945" s="4"/>
@@ -28955,7 +29017,7 @@
       <c r="AA945" s="1"/>
       <c r="AB945" s="1"/>
     </row>
-    <row r="946" ht="15.75" customHeight="1">
+    <row r="946" spans="1:28" ht="15.75" customHeight="1">
       <c r="A946" s="4"/>
       <c r="B946" s="4"/>
       <c r="C946" s="4"/>
@@ -28985,7 +29047,7 @@
       <c r="AA946" s="1"/>
       <c r="AB946" s="1"/>
     </row>
-    <row r="947" ht="15.75" customHeight="1">
+    <row r="947" spans="1:28" ht="15.75" customHeight="1">
       <c r="A947" s="4"/>
       <c r="B947" s="4"/>
       <c r="C947" s="4"/>
@@ -29015,7 +29077,7 @@
       <c r="AA947" s="1"/>
       <c r="AB947" s="1"/>
     </row>
-    <row r="948" ht="15.75" customHeight="1">
+    <row r="948" spans="1:28" ht="15.75" customHeight="1">
       <c r="A948" s="4"/>
       <c r="B948" s="4"/>
       <c r="C948" s="4"/>
@@ -29045,7 +29107,7 @@
       <c r="AA948" s="1"/>
       <c r="AB948" s="1"/>
     </row>
-    <row r="949" ht="15.75" customHeight="1">
+    <row r="949" spans="1:28" ht="15.75" customHeight="1">
       <c r="A949" s="4"/>
       <c r="B949" s="4"/>
       <c r="C949" s="4"/>
@@ -29075,7 +29137,7 @@
       <c r="AA949" s="1"/>
       <c r="AB949" s="1"/>
     </row>
-    <row r="950" ht="15.75" customHeight="1">
+    <row r="950" spans="1:28" ht="15.75" customHeight="1">
       <c r="A950" s="4"/>
       <c r="B950" s="4"/>
       <c r="C950" s="4"/>
@@ -29105,7 +29167,7 @@
       <c r="AA950" s="1"/>
       <c r="AB950" s="1"/>
     </row>
-    <row r="951" ht="15.75" customHeight="1">
+    <row r="951" spans="1:28" ht="15.75" customHeight="1">
       <c r="A951" s="4"/>
       <c r="B951" s="4"/>
       <c r="C951" s="4"/>
@@ -29135,7 +29197,7 @@
       <c r="AA951" s="1"/>
       <c r="AB951" s="1"/>
     </row>
-    <row r="952" ht="15.75" customHeight="1">
+    <row r="952" spans="1:28" ht="15.75" customHeight="1">
       <c r="A952" s="4"/>
       <c r="B952" s="4"/>
       <c r="C952" s="4"/>
@@ -29165,7 +29227,7 @@
       <c r="AA952" s="1"/>
       <c r="AB952" s="1"/>
     </row>
-    <row r="953" ht="15.75" customHeight="1">
+    <row r="953" spans="1:28" ht="15.75" customHeight="1">
       <c r="A953" s="4"/>
       <c r="B953" s="4"/>
       <c r="C953" s="4"/>
@@ -29195,7 +29257,7 @@
       <c r="AA953" s="1"/>
       <c r="AB953" s="1"/>
     </row>
-    <row r="954" ht="15.75" customHeight="1">
+    <row r="954" spans="1:28" ht="15.75" customHeight="1">
       <c r="A954" s="4"/>
       <c r="B954" s="4"/>
       <c r="C954" s="4"/>
@@ -29225,7 +29287,7 @@
       <c r="AA954" s="1"/>
       <c r="AB954" s="1"/>
     </row>
-    <row r="955" ht="15.75" customHeight="1">
+    <row r="955" spans="1:28" ht="15.75" customHeight="1">
       <c r="A955" s="4"/>
       <c r="B955" s="4"/>
       <c r="C955" s="4"/>
@@ -29255,7 +29317,7 @@
       <c r="AA955" s="1"/>
       <c r="AB955" s="1"/>
     </row>
-    <row r="956" ht="15.75" customHeight="1">
+    <row r="956" spans="1:28" ht="15.75" customHeight="1">
       <c r="A956" s="4"/>
       <c r="B956" s="4"/>
       <c r="C956" s="4"/>
@@ -29285,7 +29347,7 @@
       <c r="AA956" s="1"/>
       <c r="AB956" s="1"/>
     </row>
-    <row r="957" ht="15.75" customHeight="1">
+    <row r="957" spans="1:28" ht="15.75" customHeight="1">
       <c r="A957" s="4"/>
       <c r="B957" s="4"/>
       <c r="C957" s="4"/>
@@ -29315,7 +29377,7 @@
       <c r="AA957" s="1"/>
       <c r="AB957" s="1"/>
     </row>
-    <row r="958" ht="15.75" customHeight="1">
+    <row r="958" spans="1:28" ht="15.75" customHeight="1">
       <c r="A958" s="4"/>
       <c r="B958" s="4"/>
       <c r="C958" s="4"/>
@@ -29345,7 +29407,7 @@
       <c r="AA958" s="1"/>
       <c r="AB958" s="1"/>
     </row>
-    <row r="959" ht="15.75" customHeight="1">
+    <row r="959" spans="1:28" ht="15.75" customHeight="1">
       <c r="A959" s="4"/>
       <c r="B959" s="4"/>
       <c r="C959" s="4"/>
@@ -29375,7 +29437,7 @@
       <c r="AA959" s="1"/>
       <c r="AB959" s="1"/>
     </row>
-    <row r="960" ht="15.75" customHeight="1">
+    <row r="960" spans="1:28" ht="15.75" customHeight="1">
       <c r="A960" s="4"/>
       <c r="B960" s="4"/>
       <c r="C960" s="4"/>
@@ -29405,7 +29467,7 @@
       <c r="AA960" s="1"/>
       <c r="AB960" s="1"/>
     </row>
-    <row r="961" ht="15.75" customHeight="1">
+    <row r="961" spans="1:28" ht="15.75" customHeight="1">
       <c r="A961" s="4"/>
       <c r="B961" s="4"/>
       <c r="C961" s="4"/>
@@ -29435,7 +29497,7 @@
       <c r="AA961" s="1"/>
       <c r="AB961" s="1"/>
     </row>
-    <row r="962" ht="15.75" customHeight="1">
+    <row r="962" spans="1:28" ht="15.75" customHeight="1">
       <c r="A962" s="4"/>
       <c r="B962" s="4"/>
       <c r="C962" s="4"/>
@@ -29465,7 +29527,7 @@
       <c r="AA962" s="1"/>
       <c r="AB962" s="1"/>
     </row>
-    <row r="963" ht="15.75" customHeight="1">
+    <row r="963" spans="1:28" ht="15.75" customHeight="1">
       <c r="A963" s="4"/>
       <c r="B963" s="4"/>
       <c r="C963" s="4"/>
@@ -29495,7 +29557,7 @@
       <c r="AA963" s="1"/>
       <c r="AB963" s="1"/>
     </row>
-    <row r="964" ht="15.75" customHeight="1">
+    <row r="964" spans="1:28" ht="15.75" customHeight="1">
       <c r="A964" s="4"/>
       <c r="B964" s="4"/>
       <c r="C964" s="4"/>
@@ -29525,7 +29587,7 @@
       <c r="AA964" s="1"/>
       <c r="AB964" s="1"/>
     </row>
-    <row r="965" ht="15.75" customHeight="1">
+    <row r="965" spans="1:28" ht="15.75" customHeight="1">
       <c r="A965" s="4"/>
       <c r="B965" s="4"/>
       <c r="C965" s="4"/>
@@ -29555,7 +29617,7 @@
       <c r="AA965" s="1"/>
       <c r="AB965" s="1"/>
     </row>
-    <row r="966" ht="15.75" customHeight="1">
+    <row r="966" spans="1:28" ht="15.75" customHeight="1">
       <c r="A966" s="4"/>
       <c r="B966" s="4"/>
       <c r="C966" s="4"/>
@@ -29585,7 +29647,7 @@
       <c r="AA966" s="1"/>
       <c r="AB966" s="1"/>
     </row>
-    <row r="967" ht="15.75" customHeight="1">
+    <row r="967" spans="1:28" ht="15.75" customHeight="1">
       <c r="A967" s="4"/>
       <c r="B967" s="4"/>
       <c r="C967" s="4"/>
@@ -29615,7 +29677,7 @@
       <c r="AA967" s="1"/>
       <c r="AB967" s="1"/>
     </row>
-    <row r="968" ht="15.75" customHeight="1">
+    <row r="968" spans="1:28" ht="15.75" customHeight="1">
       <c r="A968" s="4"/>
       <c r="B968" s="4"/>
       <c r="C968" s="4"/>
@@ -29645,7 +29707,7 @@
       <c r="AA968" s="1"/>
       <c r="AB968" s="1"/>
     </row>
-    <row r="969" ht="15.75" customHeight="1">
+    <row r="969" spans="1:28" ht="15.75" customHeight="1">
       <c r="A969" s="4"/>
       <c r="B969" s="4"/>
       <c r="C969" s="4"/>
@@ -29675,7 +29737,7 @@
       <c r="AA969" s="1"/>
       <c r="AB969" s="1"/>
     </row>
-    <row r="970" ht="15.75" customHeight="1">
+    <row r="970" spans="1:28" ht="15.75" customHeight="1">
       <c r="A970" s="4"/>
       <c r="B970" s="4"/>
       <c r="C970" s="4"/>
@@ -29705,7 +29767,7 @@
       <c r="AA970" s="1"/>
       <c r="AB970" s="1"/>
     </row>
-    <row r="971" ht="15.75" customHeight="1">
+    <row r="971" spans="1:28" ht="15.75" customHeight="1">
       <c r="A971" s="4"/>
       <c r="B971" s="4"/>
       <c r="C971" s="4"/>
@@ -29735,7 +29797,7 @@
       <c r="AA971" s="1"/>
       <c r="AB971" s="1"/>
     </row>
-    <row r="972" ht="15.75" customHeight="1">
+    <row r="972" spans="1:28" ht="15.75" customHeight="1">
       <c r="A972" s="4"/>
       <c r="B972" s="4"/>
       <c r="C972" s="4"/>
@@ -29765,7 +29827,7 @@
       <c r="AA972" s="1"/>
       <c r="AB972" s="1"/>
     </row>
-    <row r="973" ht="15.75" customHeight="1">
+    <row r="973" spans="1:28" ht="15.75" customHeight="1">
       <c r="A973" s="4"/>
       <c r="B973" s="4"/>
       <c r="C973" s="4"/>
@@ -29795,7 +29857,7 @@
       <c r="AA973" s="1"/>
       <c r="AB973" s="1"/>
     </row>
-    <row r="974" ht="15.75" customHeight="1">
+    <row r="974" spans="1:28" ht="15.75" customHeight="1">
       <c r="A974" s="4"/>
       <c r="B974" s="4"/>
       <c r="C974" s="4"/>
@@ -29825,7 +29887,7 @@
       <c r="AA974" s="1"/>
       <c r="AB974" s="1"/>
     </row>
-    <row r="975" ht="15.75" customHeight="1">
+    <row r="975" spans="1:28" ht="15.75" customHeight="1">
       <c r="A975" s="4"/>
       <c r="B975" s="4"/>
       <c r="C975" s="4"/>
@@ -29855,7 +29917,7 @@
       <c r="AA975" s="1"/>
       <c r="AB975" s="1"/>
     </row>
-    <row r="976" ht="15.75" customHeight="1">
+    <row r="976" spans="1:28" ht="15.75" customHeight="1">
       <c r="A976" s="4"/>
       <c r="B976" s="4"/>
       <c r="C976" s="4"/>
@@ -29885,7 +29947,7 @@
       <c r="AA976" s="1"/>
       <c r="AB976" s="1"/>
     </row>
-    <row r="977" ht="15.75" customHeight="1">
+    <row r="977" spans="1:28" ht="15.75" customHeight="1">
       <c r="A977" s="4"/>
       <c r="B977" s="4"/>
       <c r="C977" s="4"/>
@@ -29915,7 +29977,7 @@
       <c r="AA977" s="1"/>
       <c r="AB977" s="1"/>
     </row>
-    <row r="978" ht="15.75" customHeight="1">
+    <row r="978" spans="1:28" ht="15.75" customHeight="1">
       <c r="A978" s="4"/>
       <c r="B978" s="4"/>
       <c r="C978" s="4"/>
@@ -29945,7 +30007,7 @@
       <c r="AA978" s="1"/>
       <c r="AB978" s="1"/>
     </row>
-    <row r="979" ht="15.75" customHeight="1">
+    <row r="979" spans="1:28" ht="15.75" customHeight="1">
       <c r="A979" s="4"/>
       <c r="B979" s="4"/>
       <c r="C979" s="4"/>
@@ -29975,7 +30037,7 @@
       <c r="AA979" s="1"/>
       <c r="AB979" s="1"/>
     </row>
-    <row r="980" ht="15.75" customHeight="1">
+    <row r="980" spans="1:28" ht="15.75" customHeight="1">
       <c r="A980" s="4"/>
       <c r="B980" s="4"/>
       <c r="C980" s="4"/>
@@ -30005,7 +30067,7 @@
       <c r="AA980" s="1"/>
       <c r="AB980" s="1"/>
     </row>
-    <row r="981" ht="15.75" customHeight="1">
+    <row r="981" spans="1:28" ht="15.75" customHeight="1">
       <c r="A981" s="4"/>
       <c r="B981" s="4"/>
       <c r="C981" s="4"/>
@@ -30035,7 +30097,7 @@
       <c r="AA981" s="1"/>
       <c r="AB981" s="1"/>
     </row>
-    <row r="982" ht="15.75" customHeight="1">
+    <row r="982" spans="1:28" ht="15.75" customHeight="1">
       <c r="A982" s="4"/>
       <c r="B982" s="4"/>
       <c r="C982" s="4"/>
@@ -30065,7 +30127,7 @@
       <c r="AA982" s="1"/>
       <c r="AB982" s="1"/>
     </row>
-    <row r="983" ht="15.75" customHeight="1">
+    <row r="983" spans="1:28" ht="15.75" customHeight="1">
       <c r="A983" s="4"/>
       <c r="B983" s="4"/>
       <c r="C983" s="4"/>
@@ -30095,7 +30157,7 @@
       <c r="AA983" s="1"/>
       <c r="AB983" s="1"/>
     </row>
-    <row r="984" ht="15.75" customHeight="1">
+    <row r="984" spans="1:28" ht="15.75" customHeight="1">
       <c r="A984" s="4"/>
       <c r="B984" s="4"/>
       <c r="C984" s="4"/>
@@ -30125,7 +30187,7 @@
       <c r="AA984" s="1"/>
       <c r="AB984" s="1"/>
     </row>
-    <row r="985" ht="15.75" customHeight="1">
+    <row r="985" spans="1:28" ht="15.75" customHeight="1">
       <c r="A985" s="4"/>
       <c r="B985" s="4"/>
       <c r="C985" s="4"/>
@@ -30155,7 +30217,7 @@
       <c r="AA985" s="1"/>
       <c r="AB985" s="1"/>
     </row>
-    <row r="986" ht="15.75" customHeight="1">
+    <row r="986" spans="1:28" ht="15.75" customHeight="1">
       <c r="A986" s="4"/>
       <c r="B986" s="4"/>
       <c r="C986" s="4"/>
@@ -30185,7 +30247,7 @@
       <c r="AA986" s="1"/>
       <c r="AB986" s="1"/>
     </row>
-    <row r="987" ht="15.75" customHeight="1">
+    <row r="987" spans="1:28" ht="15.75" customHeight="1">
       <c r="A987" s="4"/>
       <c r="B987" s="4"/>
       <c r="C987" s="4"/>
@@ -30215,7 +30277,7 @@
       <c r="AA987" s="1"/>
       <c r="AB987" s="1"/>
     </row>
-    <row r="988" ht="15.75" customHeight="1">
+    <row r="988" spans="1:28" ht="15.75" customHeight="1">
       <c r="A988" s="4"/>
       <c r="B988" s="4"/>
       <c r="C988" s="4"/>
@@ -30245,7 +30307,7 @@
       <c r="AA988" s="1"/>
       <c r="AB988" s="1"/>
     </row>
-    <row r="989" ht="15.75" customHeight="1">
+    <row r="989" spans="1:28" ht="15.75" customHeight="1">
       <c r="A989" s="4"/>
       <c r="B989" s="4"/>
       <c r="C989" s="4"/>
@@ -30275,7 +30337,7 @@
       <c r="AA989" s="1"/>
       <c r="AB989" s="1"/>
     </row>
-    <row r="990" ht="15.75" customHeight="1">
+    <row r="990" spans="1:28" ht="15.75" customHeight="1">
       <c r="A990" s="4"/>
       <c r="B990" s="4"/>
       <c r="C990" s="4"/>
@@ -30305,7 +30367,7 @@
       <c r="AA990" s="1"/>
       <c r="AB990" s="1"/>
     </row>
-    <row r="991" ht="15.75" customHeight="1">
+    <row r="991" spans="1:28" ht="15.75" customHeight="1">
       <c r="A991" s="4"/>
       <c r="B991" s="4"/>
       <c r="C991" s="4"/>
@@ -30335,7 +30397,7 @@
       <c r="AA991" s="1"/>
       <c r="AB991" s="1"/>
     </row>
-    <row r="992" ht="15.75" customHeight="1">
+    <row r="992" spans="1:28" ht="15.75" customHeight="1">
       <c r="A992" s="4"/>
       <c r="B992" s="4"/>
       <c r="C992" s="4"/>
@@ -30365,7 +30427,7 @@
       <c r="AA992" s="1"/>
       <c r="AB992" s="1"/>
     </row>
-    <row r="993" ht="15.75" customHeight="1">
+    <row r="993" spans="1:28" ht="15.75" customHeight="1">
       <c r="A993" s="4"/>
       <c r="B993" s="4"/>
       <c r="C993" s="4"/>
@@ -30395,7 +30457,7 @@
       <c r="AA993" s="1"/>
       <c r="AB993" s="1"/>
     </row>
-    <row r="994" ht="15.75" customHeight="1">
+    <row r="994" spans="1:28" ht="15.75" customHeight="1">
       <c r="A994" s="4"/>
       <c r="B994" s="4"/>
       <c r="C994" s="4"/>
@@ -30425,7 +30487,7 @@
       <c r="AA994" s="1"/>
       <c r="AB994" s="1"/>
     </row>
-    <row r="995" ht="15.75" customHeight="1">
+    <row r="995" spans="1:28" ht="15.75" customHeight="1">
       <c r="A995" s="4"/>
       <c r="B995" s="4"/>
       <c r="C995" s="4"/>
@@ -30455,7 +30517,7 @@
       <c r="AA995" s="1"/>
       <c r="AB995" s="1"/>
     </row>
-    <row r="996" ht="15.75" customHeight="1">
+    <row r="996" spans="1:28" ht="15.75" customHeight="1">
       <c r="A996" s="4"/>
       <c r="B996" s="4"/>
       <c r="C996" s="4"/>
@@ -30485,7 +30547,7 @@
       <c r="AA996" s="1"/>
       <c r="AB996" s="1"/>
     </row>
-    <row r="997" ht="15.75" customHeight="1">
+    <row r="997" spans="1:28" ht="15.75" customHeight="1">
       <c r="A997" s="4"/>
       <c r="B997" s="4"/>
       <c r="C997" s="4"/>
@@ -30515,7 +30577,7 @@
       <c r="AA997" s="1"/>
       <c r="AB997" s="1"/>
     </row>
-    <row r="998" ht="15.75" customHeight="1">
+    <row r="998" spans="1:28" ht="15.75" customHeight="1">
       <c r="A998" s="4"/>
       <c r="B998" s="4"/>
       <c r="C998" s="4"/>
@@ -30545,7 +30607,7 @@
       <c r="AA998" s="1"/>
       <c r="AB998" s="1"/>
     </row>
-    <row r="999" ht="15.75" customHeight="1">
+    <row r="999" spans="1:28" ht="15.75" customHeight="1">
       <c r="A999" s="4"/>
       <c r="B999" s="4"/>
       <c r="C999" s="4"/>
@@ -30575,7 +30637,7 @@
       <c r="AA999" s="1"/>
       <c r="AB999" s="1"/>
     </row>
-    <row r="1000" ht="15.75" customHeight="1">
+    <row r="1000" spans="1:28" ht="15.75" customHeight="1">
       <c r="A1000" s="4"/>
       <c r="B1000" s="4"/>
       <c r="C1000" s="4"/>
@@ -30606,12 +30668,11 @@
       <c r="AB1000" s="1"/>
     </row>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>